--- a/稽核/六盘水/仓库/现抽汇总表.xlsx
+++ b/稽核/六盘水/仓库/现抽汇总表.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O219"/>
+  <dimension ref="A1:O220"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1042,11 +1042,11 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>20201230012</v>
+        <v>20201230019</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>21:07</t>
+          <t>21:34</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -1056,7 +1056,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>V08</t>
+          <t>V18</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -1069,12 +1069,12 @@
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>销-销售2部</t>
+          <t>运营部</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>二部陆庆超</t>
+          <t>运营-李达利</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
@@ -1095,11 +1095,11 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>20201230082</v>
+        <v>20201230012</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>00:33</t>
+          <t>21:07</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -1109,7 +1109,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>V02</t>
+          <t>V08</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -1122,17 +1122,17 @@
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>销-销售1部</t>
+          <t>销-销售2部</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>一部赵双</t>
+          <t>二部陆庆超</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>会员本金,现金</t>
+          <t>会员本金,微信</t>
         </is>
       </c>
       <c r="J13" t="n">
@@ -1148,11 +1148,11 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>20201230019</v>
+        <v>20201230082</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>21:34</t>
+          <t>00:33</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -1162,7 +1162,7 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>V18</t>
+          <t>V02</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -1175,17 +1175,17 @@
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>运营部</t>
+          <t>销-销售1部</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>运营-李达利</t>
+          <t>一部赵双</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>会员本金,微信</t>
+          <t>会员本金,现金</t>
         </is>
       </c>
       <c r="J14" t="n">
@@ -1201,11 +1201,11 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>20201231063</v>
+        <v>20201231021</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>22:33</t>
+          <t>21:45</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -1215,12 +1215,12 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>V13</t>
+          <t>古驰</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>5000方块A套餐</t>
+          <t>查理十世5000元套餐</t>
         </is>
       </c>
       <c r="F15" t="n">
@@ -1228,17 +1228,17 @@
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>国际部</t>
+          <t>先锋团</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>国际部李锐锋</t>
+          <t>先锋-聂登雄</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>会员本金,微信</t>
+          <t>会员本金</t>
         </is>
       </c>
       <c r="J15" t="n">
@@ -1254,11 +1254,11 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>20201231053</v>
+        <v>20201231006</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>21:49</t>
+          <t>22:07</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -1268,37 +1268,37 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>V20</t>
+          <t>K02</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>5000方块A套餐</t>
+          <t>气氛扇子</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>5000</v>
+        <v>68</v>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>先锋团</t>
+          <t>销-销售2部</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>先锋-聂登雄</t>
+          <t>二部张海江</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>会员本金</t>
+          <t>微信</t>
         </is>
       </c>
       <c r="J16" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K16" t="n">
-        <v>400</v>
+        <v>10</v>
       </c>
       <c r="L16" t="inlineStr"/>
       <c r="M16" t="inlineStr"/>
@@ -1307,11 +1307,11 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>20201231070</v>
+        <v>20201231026</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>23:55</t>
+          <t>23:47</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -1321,7 +1321,7 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>K20</t>
+          <t>888</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -1334,17 +1334,17 @@
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>销-销售6部</t>
+          <t>销-销售8部</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>六部费义伦</t>
+          <t>八部赵梦</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>会员本金,微信</t>
+          <t>微信</t>
         </is>
       </c>
       <c r="J17" t="n">
@@ -1360,11 +1360,11 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>20201231039</v>
+        <v>20201231026</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>23:53</t>
+          <t>21:15</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -1374,25 +1374,25 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>V09</t>
+          <t>888</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>5000方块A套餐</t>
+          <t>查理十世700单支套餐</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>5000</v>
+        <v>780</v>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>会员中心</t>
+          <t>销-销售8部</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>蒋盼盼</t>
+          <t>八部赵梦</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
@@ -1401,10 +1401,10 @@
         </is>
       </c>
       <c r="J18" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K18" t="n">
-        <v>400</v>
+        <v>30</v>
       </c>
       <c r="L18" t="inlineStr"/>
       <c r="M18" t="inlineStr"/>
@@ -1413,11 +1413,11 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>20201231026</v>
+        <v>20201231032</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>21:04</t>
+          <t>21:34</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -1427,7 +1427,7 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>888</t>
+          <t>V06</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
@@ -1440,17 +1440,17 @@
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>销-销售8部</t>
+          <t>独-1部</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>八部赵梦</t>
+          <t>独立柏志莉</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>会员本金,微信</t>
+          <t>微信</t>
         </is>
       </c>
       <c r="J19" t="n">
@@ -1466,11 +1466,11 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>20201231044</v>
+        <v>20201231086</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>21:44</t>
+          <t>01:06</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -1480,37 +1480,37 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>V07</t>
+          <t>V16+</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>查理十世5000元套餐</t>
+          <t>3000方块A套餐</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>5000</v>
+        <v>3000</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>市场部</t>
+          <t>销-销售6部</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>市场曹梦倩</t>
+          <t>六部许鹏</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>会员本金,微信</t>
+          <t>会员本金,现金</t>
         </is>
       </c>
       <c r="J20" t="n">
         <v>1</v>
       </c>
       <c r="K20" t="n">
-        <v>200</v>
+        <v>50</v>
       </c>
       <c r="L20" t="inlineStr"/>
       <c r="M20" t="inlineStr"/>
@@ -1519,11 +1519,11 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>20201231079</v>
+        <v>20201231039</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>01:04</t>
+          <t>23:04</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -1533,37 +1533,37 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>K23</t>
+          <t>V09</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>方块A套餐</t>
+          <t>5000方块A套餐</t>
         </is>
       </c>
       <c r="F21" t="n">
-        <v>1980</v>
+        <v>5000</v>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>先锋团</t>
+          <t>会员中心</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>先锋-高军望</t>
+          <t>蒋盼盼</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>会员本金,微信</t>
+          <t>会员本金</t>
         </is>
       </c>
       <c r="J21" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K21" t="n">
-        <v>100</v>
+        <v>400</v>
       </c>
       <c r="L21" t="inlineStr"/>
       <c r="M21" t="inlineStr"/>
@@ -1572,11 +1572,11 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>20201231053</v>
+        <v>20201231018</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>00:56</t>
+          <t>20:55</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -1586,37 +1586,37 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>V20</t>
+          <t>V16+</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>10000方块A套餐</t>
+          <t>5000方块A套餐</t>
         </is>
       </c>
       <c r="F22" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>先锋团</t>
+          <t>销-销售8部</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>先锋-聂登雄</t>
+          <t>八部罗豪</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>会员本金</t>
+          <t>会员本金,微信</t>
         </is>
       </c>
       <c r="J22" t="n">
         <v>1</v>
       </c>
       <c r="K22" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="L22" t="inlineStr"/>
       <c r="M22" t="inlineStr"/>
@@ -1625,11 +1625,11 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>20201231053</v>
+        <v>20201231032</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>00:57</t>
+          <t>23:21</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -1639,7 +1639,7 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>V20</t>
+          <t>V06</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
@@ -1652,24 +1652,24 @@
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>先锋团</t>
+          <t>独-1部</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>先锋-聂登雄</t>
+          <t>独立柏志莉</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>会员本金</t>
+          <t>微信</t>
         </is>
       </c>
       <c r="J23" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="K23" t="n">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="L23" t="inlineStr"/>
       <c r="M23" t="inlineStr"/>
@@ -1678,11 +1678,11 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>20201231052</v>
+        <v>20201231038</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>23:43</t>
+          <t>23:23</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -1692,37 +1692,37 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>K07</t>
+          <t>V17</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>墨镜</t>
+          <t>气氛扇子</t>
         </is>
       </c>
       <c r="F24" t="n">
-        <v>58</v>
+        <v>68</v>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>销-销售2部</t>
+          <t>销-销售7部</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>二部李梅梅</t>
+          <t>七部王涛</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>微信</t>
+          <t>现金</t>
         </is>
       </c>
       <c r="J24" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K24" t="n">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="L24" t="inlineStr"/>
       <c r="M24" t="inlineStr"/>
@@ -1731,11 +1731,11 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>20201231032</v>
+        <v>20201231053</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>23:21</t>
+          <t>00:57</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -1745,7 +1745,7 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>V06</t>
+          <t>V20</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
@@ -1758,24 +1758,24 @@
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>独-1部</t>
+          <t>先锋团</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>独立柏志莉</t>
+          <t>先锋-聂登雄</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>微信</t>
+          <t>会员本金</t>
         </is>
       </c>
       <c r="J25" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="K25" t="n">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="L25" t="inlineStr"/>
       <c r="M25" t="inlineStr"/>
@@ -1784,11 +1784,11 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>20201231021</v>
+        <v>20201231053</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>21:45</t>
+          <t>00:56</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -1798,16 +1798,16 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>古驰</t>
+          <t>V20</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>查理十世5000元套餐</t>
+          <t>10000方块A套餐</t>
         </is>
       </c>
       <c r="F26" t="n">
-        <v>5000</v>
+        <v>10000</v>
       </c>
       <c r="G26" t="inlineStr">
         <is>
@@ -1828,7 +1828,7 @@
         <v>1</v>
       </c>
       <c r="K26" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="L26" t="inlineStr"/>
       <c r="M26" t="inlineStr"/>
@@ -1837,11 +1837,11 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>20201231018</v>
+        <v>20201231079</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>20:55</t>
+          <t>01:04</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -1851,25 +1851,25 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>V16+</t>
+          <t>K23</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>5000方块A套餐</t>
+          <t>方块A套餐</t>
         </is>
       </c>
       <c r="F27" t="n">
-        <v>5000</v>
+        <v>1980</v>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>销-销售8部</t>
+          <t>先锋团</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>八部罗豪</t>
+          <t>先锋-高军望</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
@@ -1881,7 +1881,7 @@
         <v>1</v>
       </c>
       <c r="K27" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="L27" t="inlineStr"/>
       <c r="M27" t="inlineStr"/>
@@ -1890,11 +1890,11 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>20201231039</v>
+        <v>20201231044</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>23:04</t>
+          <t>21:44</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -1904,12 +1904,12 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>V09</t>
+          <t>V07</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>5000方块A套餐</t>
+          <t>查理十世5000元套餐</t>
         </is>
       </c>
       <c r="F28" t="n">
@@ -1917,24 +1917,24 @@
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>会员中心</t>
+          <t>市场部</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>蒋盼盼</t>
+          <t>市场曹梦倩</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>会员本金</t>
+          <t>会员本金,微信</t>
         </is>
       </c>
       <c r="J28" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K28" t="n">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="L28" t="inlineStr"/>
       <c r="M28" t="inlineStr"/>
@@ -1943,11 +1943,11 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>20201231038</v>
+        <v>20201231026</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>23:23</t>
+          <t>21:04</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -1957,37 +1957,37 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>V17</t>
+          <t>888</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>气氛扇子</t>
+          <t>方块A套餐</t>
         </is>
       </c>
       <c r="F29" t="n">
-        <v>68</v>
+        <v>1980</v>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>销-销售7部</t>
+          <t>销-销售8部</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>七部王涛</t>
+          <t>八部赵梦</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>现金</t>
+          <t>会员本金,微信</t>
         </is>
       </c>
       <c r="J29" t="n">
         <v>1</v>
       </c>
       <c r="K29" t="n">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="L29" t="inlineStr"/>
       <c r="M29" t="inlineStr"/>
@@ -1996,11 +1996,11 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>20201231086</v>
+        <v>20201231039</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>01:06</t>
+          <t>23:53</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -2010,37 +2010,37 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>V16+</t>
+          <t>V09</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>3000方块A套餐</t>
+          <t>5000方块A套餐</t>
         </is>
       </c>
       <c r="F30" t="n">
-        <v>3000</v>
+        <v>5000</v>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>销-销售6部</t>
+          <t>会员中心</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>六部许鹏</t>
+          <t>蒋盼盼</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>会员本金,现金</t>
+          <t>会员本金</t>
         </is>
       </c>
       <c r="J30" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K30" t="n">
-        <v>50</v>
+        <v>400</v>
       </c>
       <c r="L30" t="inlineStr"/>
       <c r="M30" t="inlineStr"/>
@@ -2049,11 +2049,11 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>20201231032</v>
+        <v>20201231070</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>21:34</t>
+          <t>23:55</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -2063,37 +2063,37 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>V06</t>
+          <t>K20</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>方块A套餐</t>
+          <t>查理十世700单支套餐</t>
         </is>
       </c>
       <c r="F31" t="n">
-        <v>1980</v>
+        <v>780</v>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>独-1部</t>
+          <t>销-销售6部</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>独立柏志莉</t>
+          <t>六部费义伦</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>微信</t>
+          <t>会员本金,微信</t>
         </is>
       </c>
       <c r="J31" t="n">
         <v>1</v>
       </c>
       <c r="K31" t="n">
-        <v>100</v>
+        <v>30</v>
       </c>
       <c r="L31" t="inlineStr"/>
       <c r="M31" t="inlineStr"/>
@@ -2102,11 +2102,11 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>20201231026</v>
+        <v>20201231053</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>21:15</t>
+          <t>21:49</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -2116,25 +2116,25 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>888</t>
+          <t>V20</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>查理十世700单支套餐</t>
+          <t>5000方块A套餐</t>
         </is>
       </c>
       <c r="F32" t="n">
-        <v>780</v>
+        <v>5000</v>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>销-销售8部</t>
+          <t>先锋团</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>八部赵梦</t>
+          <t>先锋-聂登雄</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
@@ -2143,10 +2143,10 @@
         </is>
       </c>
       <c r="J32" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K32" t="n">
-        <v>30</v>
+        <v>400</v>
       </c>
       <c r="L32" t="inlineStr"/>
       <c r="M32" t="inlineStr"/>
@@ -2155,11 +2155,11 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>20201231026</v>
+        <v>20201231063</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>23:47</t>
+          <t>22:33</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -2169,37 +2169,37 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>888</t>
+          <t>V13</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>查理十世700单支套餐</t>
+          <t>5000方块A套餐</t>
         </is>
       </c>
       <c r="F33" t="n">
-        <v>780</v>
+        <v>5000</v>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>销-销售8部</t>
+          <t>国际部</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>八部赵梦</t>
+          <t>国际部李锐锋</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>微信</t>
+          <t>会员本金,微信</t>
         </is>
       </c>
       <c r="J33" t="n">
         <v>1</v>
       </c>
       <c r="K33" t="n">
-        <v>30</v>
+        <v>200</v>
       </c>
       <c r="L33" t="inlineStr"/>
       <c r="M33" t="inlineStr"/>
@@ -2208,11 +2208,11 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>20201231006</v>
+        <v>20201231052</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>22:07</t>
+          <t>23:43</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -2222,16 +2222,16 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>K02</t>
+          <t>K07</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>气氛扇子</t>
+          <t>墨镜</t>
         </is>
       </c>
       <c r="F34" t="n">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="G34" t="inlineStr">
         <is>
@@ -2240,7 +2240,7 @@
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>二部张海江</t>
+          <t>二部李梅梅</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
@@ -2249,10 +2249,10 @@
         </is>
       </c>
       <c r="J34" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K34" t="n">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="L34" t="inlineStr"/>
       <c r="M34" t="inlineStr"/>
@@ -2526,11 +2526,11 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>20210102017</v>
+        <v>20210102039</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>21:49</t>
+          <t>23:27</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -2540,7 +2540,7 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>V18</t>
+          <t>V20</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
@@ -2553,17 +2553,17 @@
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>销-销售2部</t>
+          <t>独-2部</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>二部徐超</t>
+          <t>独立2-肖品</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>会员本金,微信</t>
+          <t>会员本金</t>
         </is>
       </c>
       <c r="J40" t="n">
@@ -2579,11 +2579,11 @@
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>20210102039</v>
+        <v>20210102017</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>23:27</t>
+          <t>21:49</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -2593,7 +2593,7 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>V20</t>
+          <t>V18</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
@@ -2606,17 +2606,17 @@
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>独-2部</t>
+          <t>销-销售2部</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>独立2-肖品</t>
+          <t>二部徐超</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>会员本金</t>
+          <t>会员本金,微信</t>
         </is>
       </c>
       <c r="J41" t="n">
@@ -3321,11 +3321,11 @@
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>20210108026</v>
+        <v>20210108089</v>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>23:15</t>
+          <t>01:47</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -3335,25 +3335,25 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>V10</t>
+          <t>古驰</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>查理十世3000套餐</t>
+          <t>方块A套餐</t>
         </is>
       </c>
       <c r="F55" t="n">
-        <v>3000</v>
+        <v>1980</v>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>市场部</t>
+          <t>销-销售7部</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>市场部李丽</t>
+          <t>七部邓懿娜</t>
         </is>
       </c>
       <c r="I55" t="inlineStr">
@@ -3365,7 +3365,7 @@
         <v>1</v>
       </c>
       <c r="K55" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="L55" t="inlineStr"/>
       <c r="M55" t="inlineStr"/>
@@ -3374,11 +3374,11 @@
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>20210108005</v>
+        <v>20210108073</v>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>01:19</t>
+          <t>23:55</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -3388,16 +3388,16 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>V20</t>
+          <t>V01</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>5000方块A套餐</t>
+          <t>查理十世700单支套餐</t>
         </is>
       </c>
       <c r="F56" t="n">
-        <v>5000</v>
+        <v>780</v>
       </c>
       <c r="G56" t="inlineStr">
         <is>
@@ -3406,19 +3406,19 @@
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>一部李成</t>
+          <t>一部赵双</t>
         </is>
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>会员本金</t>
+          <t>微信</t>
         </is>
       </c>
       <c r="J56" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K56" t="n">
-        <v>200</v>
+        <v>60</v>
       </c>
       <c r="L56" t="inlineStr"/>
       <c r="M56" t="inlineStr"/>
@@ -3427,11 +3427,11 @@
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>20210108073</v>
+        <v>20210108026</v>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>23:55</t>
+          <t>23:15</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
@@ -3441,37 +3441,37 @@
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>V01</t>
+          <t>V10</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>查理十世700单支套餐</t>
+          <t>查理十世3000套餐</t>
         </is>
       </c>
       <c r="F57" t="n">
-        <v>780</v>
+        <v>3000</v>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>销-销售1部</t>
+          <t>市场部</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>一部赵双</t>
+          <t>市场部李丽</t>
         </is>
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>微信</t>
+          <t>会员本金</t>
         </is>
       </c>
       <c r="J57" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K57" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="L57" t="inlineStr"/>
       <c r="M57" t="inlineStr"/>
@@ -3480,11 +3480,11 @@
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>20210108089</v>
+        <v>20210108005</v>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>01:47</t>
+          <t>01:19</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
@@ -3494,25 +3494,25 @@
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>古驰</t>
+          <t>V20</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>方块A套餐</t>
+          <t>5000方块A套餐</t>
         </is>
       </c>
       <c r="F58" t="n">
-        <v>1980</v>
+        <v>5000</v>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>销-销售7部</t>
+          <t>销-销售1部</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>七部邓懿娜</t>
+          <t>一部李成</t>
         </is>
       </c>
       <c r="I58" t="inlineStr">
@@ -3524,7 +3524,7 @@
         <v>1</v>
       </c>
       <c r="K58" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="L58" t="inlineStr"/>
       <c r="M58" t="inlineStr"/>
@@ -4116,11 +4116,11 @@
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>20210113079</v>
+        <v>20210113045</v>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>00:23</t>
+          <t>21:57</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
@@ -4130,37 +4130,37 @@
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>V07</t>
+          <t>V25</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>V粉利口酒单支套</t>
+          <t>3000方块A套餐</t>
         </is>
       </c>
       <c r="F70" t="n">
-        <v>880</v>
+        <v>3000</v>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>会员中心</t>
+          <t>销-销售8部</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>王军</t>
+          <t>八部王涛</t>
         </is>
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t>微信</t>
+          <t>会员本金</t>
         </is>
       </c>
       <c r="J70" t="n">
         <v>1</v>
       </c>
       <c r="K70" t="n">
-        <v>50</v>
+        <v>-20</v>
       </c>
       <c r="L70" t="inlineStr"/>
       <c r="M70" t="inlineStr"/>
@@ -4169,11 +4169,11 @@
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>20210113045</v>
+        <v>20210113108</v>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>21:57</t>
+          <t>00:31</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
@@ -4188,32 +4188,32 @@
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>3000方块A套餐</t>
+          <t>查理十世3L单支套餐</t>
         </is>
       </c>
       <c r="F71" t="n">
-        <v>3000</v>
+        <v>2880</v>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>销-销售8部</t>
+          <t>销-销售7部</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>八部王涛</t>
+          <t>七部李忠语</t>
         </is>
       </c>
       <c r="I71" t="inlineStr">
         <is>
-          <t>会员本金</t>
+          <t>会员本金,微信</t>
         </is>
       </c>
       <c r="J71" t="n">
         <v>1</v>
       </c>
       <c r="K71" t="n">
-        <v>50</v>
+        <v>200</v>
       </c>
       <c r="L71" t="inlineStr"/>
       <c r="M71" t="inlineStr"/>
@@ -4222,11 +4222,11 @@
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>20210113020</v>
+        <v>20210113079</v>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>21:45</t>
+          <t>01:03</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
@@ -4236,37 +4236,37 @@
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>V20</t>
+          <t>V07</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>3000方块A套餐</t>
+          <t>查理十世700单支套餐</t>
         </is>
       </c>
       <c r="F72" t="n">
-        <v>3000</v>
+        <v>780</v>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>销-销售1部</t>
+          <t>会员中心</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>一部赵双</t>
+          <t>王军</t>
         </is>
       </c>
       <c r="I72" t="inlineStr">
         <is>
-          <t>会员本金</t>
+          <t>微信</t>
         </is>
       </c>
       <c r="J72" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K72" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="L72" t="inlineStr"/>
       <c r="M72" t="inlineStr"/>
@@ -4275,11 +4275,11 @@
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>20210113095</v>
+        <v>20210113020</v>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>00:07</t>
+          <t>21:45</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
@@ -4289,37 +4289,37 @@
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>V02</t>
+          <t>V20</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>气氛扇子</t>
+          <t>3000方块A套餐</t>
         </is>
       </c>
       <c r="F73" t="n">
-        <v>68</v>
+        <v>3000</v>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>销-销售8部</t>
+          <t>销-销售1部</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>八部任凯</t>
+          <t>一部赵双</t>
         </is>
       </c>
       <c r="I73" t="inlineStr">
         <is>
-          <t>微信</t>
+          <t>会员本金</t>
         </is>
       </c>
       <c r="J73" t="n">
         <v>1</v>
       </c>
       <c r="K73" t="n">
-        <v>10</v>
+        <v>-20</v>
       </c>
       <c r="L73" t="inlineStr"/>
       <c r="M73" t="inlineStr"/>
@@ -4328,11 +4328,11 @@
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>20210113095</v>
+        <v>20210113079</v>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>23:56</t>
+          <t>00:23</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
@@ -4342,37 +4342,37 @@
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>V02</t>
+          <t>V07</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>金钻香槟5000元套餐</t>
+          <t>V粉利口酒单支套</t>
         </is>
       </c>
       <c r="F74" t="n">
-        <v>5000</v>
+        <v>880</v>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>销-销售8部</t>
+          <t>会员中心</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>八部任凯</t>
+          <t>王军</t>
         </is>
       </c>
       <c r="I74" t="inlineStr">
         <is>
-          <t>会员本金,微信</t>
+          <t>微信</t>
         </is>
       </c>
       <c r="J74" t="n">
         <v>1</v>
       </c>
       <c r="K74" t="n">
-        <v>200</v>
+        <v>50</v>
       </c>
       <c r="L74" t="inlineStr"/>
       <c r="M74" t="inlineStr"/>
@@ -4381,11 +4381,11 @@
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>20210113020</v>
+        <v>20210113095</v>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>21:45</t>
+          <t>00:07</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
@@ -4395,37 +4395,37 @@
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>V20</t>
+          <t>V02</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>3000方块A套餐</t>
+          <t>气氛扇子</t>
         </is>
       </c>
       <c r="F75" t="n">
-        <v>3000</v>
+        <v>68</v>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>销-销售1部</t>
+          <t>销-销售8部</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>一部赵双</t>
+          <t>八部任凯</t>
         </is>
       </c>
       <c r="I75" t="inlineStr">
         <is>
-          <t>会员本金</t>
+          <t>微信</t>
         </is>
       </c>
       <c r="J75" t="n">
         <v>1</v>
       </c>
       <c r="K75" t="n">
-        <v>-20</v>
+        <v>10</v>
       </c>
       <c r="L75" t="inlineStr"/>
       <c r="M75" t="inlineStr"/>
@@ -4434,11 +4434,11 @@
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>20210113079</v>
+        <v>20210113020</v>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>01:03</t>
+          <t>21:45</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
@@ -4448,37 +4448,37 @@
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>V07</t>
+          <t>V20</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>查理十世700单支套餐</t>
+          <t>3000方块A套餐</t>
         </is>
       </c>
       <c r="F76" t="n">
-        <v>780</v>
+        <v>3000</v>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>会员中心</t>
+          <t>销-销售1部</t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>王军</t>
+          <t>一部赵双</t>
         </is>
       </c>
       <c r="I76" t="inlineStr">
         <is>
-          <t>微信</t>
+          <t>会员本金</t>
         </is>
       </c>
       <c r="J76" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K76" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="L76" t="inlineStr"/>
       <c r="M76" t="inlineStr"/>
@@ -4487,11 +4487,11 @@
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>20210113108</v>
+        <v>20210113045</v>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>00:31</t>
+          <t>21:57</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
@@ -4506,32 +4506,32 @@
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>查理十世3L单支套餐</t>
+          <t>3000方块A套餐</t>
         </is>
       </c>
       <c r="F77" t="n">
-        <v>2880</v>
+        <v>3000</v>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>销-销售7部</t>
+          <t>销-销售8部</t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>七部李忠语</t>
+          <t>八部王涛</t>
         </is>
       </c>
       <c r="I77" t="inlineStr">
         <is>
-          <t>会员本金,微信</t>
+          <t>会员本金</t>
         </is>
       </c>
       <c r="J77" t="n">
         <v>1</v>
       </c>
       <c r="K77" t="n">
-        <v>200</v>
+        <v>50</v>
       </c>
       <c r="L77" t="inlineStr"/>
       <c r="M77" t="inlineStr"/>
@@ -4540,11 +4540,11 @@
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>20210113045</v>
+        <v>20210113095</v>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>21:57</t>
+          <t>23:56</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
@@ -4554,16 +4554,16 @@
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>V25</t>
+          <t>V02</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>3000方块A套餐</t>
+          <t>金钻香槟5000元套餐</t>
         </is>
       </c>
       <c r="F78" t="n">
-        <v>3000</v>
+        <v>5000</v>
       </c>
       <c r="G78" t="inlineStr">
         <is>
@@ -4572,19 +4572,19 @@
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>八部王涛</t>
+          <t>八部任凯</t>
         </is>
       </c>
       <c r="I78" t="inlineStr">
         <is>
-          <t>会员本金</t>
+          <t>会员本金,微信</t>
         </is>
       </c>
       <c r="J78" t="n">
         <v>1</v>
       </c>
       <c r="K78" t="n">
-        <v>-20</v>
+        <v>200</v>
       </c>
       <c r="L78" t="inlineStr"/>
       <c r="M78" t="inlineStr"/>
@@ -4607,7 +4607,7 @@
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>V25</t>
+          <t>V20</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
@@ -4620,17 +4620,17 @@
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>资-B组</t>
+          <t>销-销售6部</t>
         </is>
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>杨雅琪</t>
+          <t>六部许鹏</t>
         </is>
       </c>
       <c r="I79" t="inlineStr">
         <is>
-          <t>会员本金</t>
+          <t>会员本金,微信</t>
         </is>
       </c>
       <c r="J79" t="n">
@@ -4646,11 +4646,11 @@
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>20210114046</v>
+        <v>20210114054</v>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>22:16</t>
+          <t>22:34</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
@@ -4660,7 +4660,7 @@
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>V16</t>
+          <t>V18</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
@@ -4683,7 +4683,7 @@
       </c>
       <c r="I80" t="inlineStr">
         <is>
-          <t>微信</t>
+          <t>商家卡,微信</t>
         </is>
       </c>
       <c r="J80" t="n">
@@ -4699,11 +4699,11 @@
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>20210114082</v>
+        <v>20210114042</v>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>00:46</t>
+          <t>22:54</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
@@ -4713,37 +4713,37 @@
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>K25</t>
+          <t>V01</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>气氛扇子</t>
+          <t>方块A套餐</t>
         </is>
       </c>
       <c r="F81" t="n">
-        <v>68</v>
+        <v>1980</v>
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>独-3部</t>
+          <t>先锋团</t>
         </is>
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>独立3-李祥美</t>
+          <t>先锋-刘松槐</t>
         </is>
       </c>
       <c r="I81" t="inlineStr">
         <is>
-          <t>微信</t>
+          <t>会员本金</t>
         </is>
       </c>
       <c r="J81" t="n">
         <v>1</v>
       </c>
       <c r="K81" t="n">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="L81" t="inlineStr"/>
       <c r="M81" t="inlineStr"/>
@@ -4752,11 +4752,11 @@
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>20210114101</v>
+        <v>20210114073</v>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>00:56</t>
+          <t>23:38</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
@@ -4766,7 +4766,7 @@
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>V25</t>
+          <t>V20</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
@@ -4779,17 +4779,17 @@
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>资-B组</t>
+          <t>销-销售6部</t>
         </is>
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>杨雅琪</t>
+          <t>六部许鹏</t>
         </is>
       </c>
       <c r="I82" t="inlineStr">
         <is>
-          <t>会员本金</t>
+          <t>会员本金,微信</t>
         </is>
       </c>
       <c r="J82" t="n">
@@ -4858,11 +4858,11 @@
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>20210115081</v>
+        <v>20210114082</v>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>01:22</t>
+          <t>00:46</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
@@ -4872,37 +4872,37 @@
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>V20</t>
+          <t>K25</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>3000方块A套餐</t>
+          <t>气氛扇子</t>
         </is>
       </c>
       <c r="F84" t="n">
-        <v>3000</v>
+        <v>68</v>
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>销-销售6部</t>
+          <t>独-3部</t>
         </is>
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>六部许鹏</t>
+          <t>独立3-李祥美</t>
         </is>
       </c>
       <c r="I84" t="inlineStr">
         <is>
-          <t>会员本金,微信</t>
+          <t>微信</t>
         </is>
       </c>
       <c r="J84" t="n">
         <v>1</v>
       </c>
       <c r="K84" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="L84" t="inlineStr"/>
       <c r="M84" t="inlineStr"/>
@@ -4911,11 +4911,11 @@
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>20210114073</v>
+        <v>20210114046</v>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>23:38</t>
+          <t>22:16</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
@@ -4925,37 +4925,37 @@
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>V20</t>
+          <t>V16</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>3000方块A套餐</t>
+          <t>小吃百元套</t>
         </is>
       </c>
       <c r="F85" t="n">
-        <v>3000</v>
+        <v>100</v>
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>销-销售6部</t>
+          <t>市场部</t>
         </is>
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>六部许鹏</t>
+          <t>市场曹梦倩</t>
         </is>
       </c>
       <c r="I85" t="inlineStr">
         <is>
-          <t>会员本金,微信</t>
+          <t>微信</t>
         </is>
       </c>
       <c r="J85" t="n">
         <v>1</v>
       </c>
       <c r="K85" t="n">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="L85" t="inlineStr"/>
       <c r="M85" t="inlineStr"/>
@@ -4964,11 +4964,11 @@
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>20210114042</v>
+        <v>20210115081</v>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>22:54</t>
+          <t>01:22</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
@@ -4978,25 +4978,25 @@
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>V01</t>
+          <t>V25</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>方块A套餐</t>
+          <t>3000方块A套餐</t>
         </is>
       </c>
       <c r="F86" t="n">
-        <v>1980</v>
+        <v>3000</v>
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>先锋团</t>
+          <t>资-B组</t>
         </is>
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>先锋-刘松槐</t>
+          <t>杨雅琪</t>
         </is>
       </c>
       <c r="I86" t="inlineStr">
@@ -5008,7 +5008,7 @@
         <v>1</v>
       </c>
       <c r="K86" t="n">
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="L86" t="inlineStr"/>
       <c r="M86" t="inlineStr"/>
@@ -5017,11 +5017,11 @@
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>20210114054</v>
+        <v>20210114101</v>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>22:34</t>
+          <t>00:56</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
@@ -5031,37 +5031,37 @@
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>V18</t>
+          <t>V25</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>小吃百元套</t>
+          <t>3000方块A套餐</t>
         </is>
       </c>
       <c r="F87" t="n">
-        <v>100</v>
+        <v>3000</v>
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>市场部</t>
+          <t>资-B组</t>
         </is>
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>市场曹梦倩</t>
+          <t>杨雅琪</t>
         </is>
       </c>
       <c r="I87" t="inlineStr">
         <is>
-          <t>商家卡,微信</t>
+          <t>会员本金</t>
         </is>
       </c>
       <c r="J87" t="n">
         <v>1</v>
       </c>
       <c r="K87" t="n">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="L87" t="inlineStr"/>
       <c r="M87" t="inlineStr"/>
@@ -5070,11 +5070,11 @@
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>20210114073</v>
+        <v>20210115111</v>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>23:38</t>
+          <t>01:50</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
@@ -5084,12 +5084,12 @@
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>V25</t>
+          <t>V09</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>3000方块A套餐</t>
+          <t>(375ml)经典黑桃A3000套</t>
         </is>
       </c>
       <c r="F88" t="n">
@@ -5102,19 +5102,19 @@
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>国际王正忠</t>
+          <t>国际何蔓宁</t>
         </is>
       </c>
       <c r="I88" t="inlineStr">
         <is>
-          <t>会员本金</t>
+          <t>微信</t>
         </is>
       </c>
       <c r="J88" t="n">
         <v>1</v>
       </c>
       <c r="K88" t="n">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="L88" t="inlineStr"/>
       <c r="M88" t="inlineStr"/>
@@ -5167,7 +5167,7 @@
         <v>1</v>
       </c>
       <c r="K89" t="n">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="L89" t="inlineStr"/>
       <c r="M89" t="inlineStr"/>
@@ -5176,11 +5176,11 @@
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>20210115090</v>
+        <v>20210114073</v>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>00:42</t>
+          <t>23:38</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
@@ -5190,37 +5190,37 @@
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>V09</t>
+          <t>V25</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>气氛扇子</t>
+          <t>3000方块A套餐</t>
         </is>
       </c>
       <c r="F90" t="n">
-        <v>68</v>
+        <v>3000</v>
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>销-销售1部</t>
+          <t>国际部</t>
         </is>
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>一部李龙</t>
+          <t>国际王正忠</t>
         </is>
       </c>
       <c r="I90" t="inlineStr">
         <is>
-          <t>微信</t>
+          <t>会员本金</t>
         </is>
       </c>
       <c r="J90" t="n">
         <v>1</v>
       </c>
       <c r="K90" t="n">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="L90" t="inlineStr"/>
       <c r="M90" t="inlineStr"/>
@@ -5229,11 +5229,11 @@
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>20210115081</v>
+        <v>20210115090</v>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>01:22</t>
+          <t>00:42</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
@@ -5243,37 +5243,37 @@
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>V25</t>
+          <t>V09</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>3000方块A套餐</t>
+          <t>气氛扇子</t>
         </is>
       </c>
       <c r="F91" t="n">
-        <v>3000</v>
+        <v>68</v>
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>国际部</t>
+          <t>销-销售1部</t>
         </is>
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>国际王正忠</t>
+          <t>一部李龙</t>
         </is>
       </c>
       <c r="I91" t="inlineStr">
         <is>
-          <t>会员本金</t>
+          <t>微信</t>
         </is>
       </c>
       <c r="J91" t="n">
         <v>1</v>
       </c>
       <c r="K91" t="n">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="L91" t="inlineStr"/>
       <c r="M91" t="inlineStr"/>
@@ -5282,11 +5282,11 @@
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>20210115111</v>
+        <v>20210115081</v>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>01:50</t>
+          <t>01:22</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
@@ -5296,12 +5296,12 @@
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>V09</t>
+          <t>V25</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>(375ml)经典黑桃A3000套</t>
+          <t>3000方块A套餐</t>
         </is>
       </c>
       <c r="F92" t="n">
@@ -5314,19 +5314,19 @@
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>国际何蔓宁</t>
+          <t>国际王正忠</t>
         </is>
       </c>
       <c r="I92" t="inlineStr">
         <is>
-          <t>微信</t>
+          <t>会员本金</t>
         </is>
       </c>
       <c r="J92" t="n">
         <v>1</v>
       </c>
       <c r="K92" t="n">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="L92" t="inlineStr"/>
       <c r="M92" t="inlineStr"/>
@@ -5379,7 +5379,7 @@
         <v>1</v>
       </c>
       <c r="K93" t="n">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="L93" t="inlineStr"/>
       <c r="M93" t="inlineStr"/>
@@ -5388,11 +5388,11 @@
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>20210116085</v>
+        <v>20210116047</v>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>00:05</t>
+          <t>01:00</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
@@ -5402,37 +5402,37 @@
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>V02</t>
+          <t>V07</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>查理十世1.5单支套餐</t>
+          <t>3000方块A套餐</t>
         </is>
       </c>
       <c r="F94" t="n">
-        <v>1480</v>
+        <v>3000</v>
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>礼宾部</t>
+          <t>独-3部</t>
         </is>
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>周建鑫</t>
+          <t>独立3-李文涛</t>
         </is>
       </c>
       <c r="I94" t="inlineStr">
         <is>
-          <t>会员本金,微信</t>
+          <t>挂账</t>
         </is>
       </c>
       <c r="J94" t="n">
         <v>1</v>
       </c>
       <c r="K94" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="L94" t="inlineStr"/>
       <c r="M94" t="inlineStr"/>
@@ -5441,11 +5441,11 @@
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>20210116009</v>
+        <v>20210116063</v>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>20:57</t>
+          <t>22:58</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
@@ -5455,37 +5455,37 @@
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>V08</t>
+          <t>V06</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>3000方块A套餐</t>
+          <t>方块A套餐</t>
         </is>
       </c>
       <c r="F95" t="n">
-        <v>3000</v>
+        <v>1980</v>
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>国际部</t>
+          <t>销-销售9部</t>
         </is>
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>国际何蔓宁</t>
+          <t>九部赵芸芸</t>
         </is>
       </c>
       <c r="I95" t="inlineStr">
         <is>
-          <t>会员本金,现金</t>
+          <t>会员本金,微信</t>
         </is>
       </c>
       <c r="J95" t="n">
         <v>1</v>
       </c>
       <c r="K95" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="L95" t="inlineStr"/>
       <c r="M95" t="inlineStr"/>
@@ -5494,11 +5494,11 @@
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>20210116006</v>
+        <v>20210116059</v>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>00:22</t>
+          <t>23:57</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
@@ -5508,25 +5508,25 @@
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>K12</t>
+          <t>V20</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>3000方块A套餐</t>
+          <t>V粉利口酒5000套</t>
         </is>
       </c>
       <c r="F96" t="n">
-        <v>3000</v>
+        <v>5000</v>
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>市场部</t>
+          <t>销-销售1部</t>
         </is>
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>市场部李丽</t>
+          <t>一部李成</t>
         </is>
       </c>
       <c r="I96" t="inlineStr">
@@ -5538,7 +5538,7 @@
         <v>1</v>
       </c>
       <c r="K96" t="n">
-        <v>50</v>
+        <v>200</v>
       </c>
       <c r="L96" t="inlineStr"/>
       <c r="M96" t="inlineStr"/>
@@ -5547,11 +5547,11 @@
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>20210116059</v>
+        <v>20210116085</v>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>23:51</t>
+          <t>00:05</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
@@ -5561,37 +5561,37 @@
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>V20</t>
+          <t>V02</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>3000方块A套餐</t>
+          <t>查理十世1.5单支套餐</t>
         </is>
       </c>
       <c r="F97" t="n">
-        <v>3000</v>
+        <v>1480</v>
       </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t>销-销售1部</t>
+          <t>礼宾部</t>
         </is>
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>一部李成</t>
+          <t>周建鑫</t>
         </is>
       </c>
       <c r="I97" t="inlineStr">
         <is>
-          <t>会员本金</t>
+          <t>会员本金,微信</t>
         </is>
       </c>
       <c r="J97" t="n">
         <v>1</v>
       </c>
       <c r="K97" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="L97" t="inlineStr"/>
       <c r="M97" t="inlineStr"/>
@@ -5600,11 +5600,11 @@
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>20210116059</v>
+        <v>20210116006</v>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>23:57</t>
+          <t>00:22</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
@@ -5614,25 +5614,25 @@
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>V20</t>
+          <t>K12</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>V粉利口酒5000套</t>
+          <t>3000方块A套餐</t>
         </is>
       </c>
       <c r="F98" t="n">
-        <v>5000</v>
+        <v>3000</v>
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>销-销售1部</t>
+          <t>市场部</t>
         </is>
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>一部李成</t>
+          <t>市场部李丽</t>
         </is>
       </c>
       <c r="I98" t="inlineStr">
@@ -5644,7 +5644,7 @@
         <v>1</v>
       </c>
       <c r="K98" t="n">
-        <v>200</v>
+        <v>50</v>
       </c>
       <c r="L98" t="inlineStr"/>
       <c r="M98" t="inlineStr"/>
@@ -5653,11 +5653,11 @@
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>20210116063</v>
+        <v>20210116009</v>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>22:58</t>
+          <t>20:57</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
@@ -5667,37 +5667,37 @@
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>V06</t>
+          <t>V08</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>方块A套餐</t>
+          <t>3000方块A套餐</t>
         </is>
       </c>
       <c r="F99" t="n">
-        <v>1980</v>
+        <v>3000</v>
       </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t>销-销售9部</t>
+          <t>国际部</t>
         </is>
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>九部赵芸芸</t>
+          <t>国际何蔓宁</t>
         </is>
       </c>
       <c r="I99" t="inlineStr">
         <is>
-          <t>会员本金,微信</t>
+          <t>会员本金,现金</t>
         </is>
       </c>
       <c r="J99" t="n">
         <v>1</v>
       </c>
       <c r="K99" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="L99" t="inlineStr"/>
       <c r="M99" t="inlineStr"/>
@@ -5706,11 +5706,11 @@
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>20210116047</v>
+        <v>20210116059</v>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>01:00</t>
+          <t>23:57</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
@@ -5720,7 +5720,7 @@
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>V07</t>
+          <t>V20</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
@@ -5733,24 +5733,24 @@
       </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t>独-3部</t>
+          <t>销-销售1部</t>
         </is>
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>独立3-李文涛</t>
+          <t>一部李成</t>
         </is>
       </c>
       <c r="I100" t="inlineStr">
         <is>
-          <t>挂账</t>
+          <t>会员本金</t>
         </is>
       </c>
       <c r="J100" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="K100" t="n">
-        <v>50</v>
+        <v>-50</v>
       </c>
       <c r="L100" t="inlineStr"/>
       <c r="M100" t="inlineStr"/>
@@ -5763,7 +5763,7 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>23:57</t>
+          <t>23:51</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
@@ -5800,10 +5800,10 @@
         </is>
       </c>
       <c r="J101" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="K101" t="n">
-        <v>-50</v>
+        <v>50</v>
       </c>
       <c r="L101" t="inlineStr"/>
       <c r="M101" t="inlineStr"/>
@@ -5865,11 +5865,11 @@
     </row>
     <row r="103">
       <c r="A103" t="n">
-        <v>20210118102</v>
+        <v>20210118059</v>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>01:26</t>
+          <t>23:56</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
@@ -5879,37 +5879,37 @@
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>S08</t>
+          <t>V12</t>
         </is>
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>气氛扇子</t>
+          <t>查理十世5000元套餐</t>
         </is>
       </c>
       <c r="F103" t="n">
-        <v>68</v>
+        <v>5000</v>
       </c>
       <c r="G103" t="inlineStr">
         <is>
-          <t>销-销售8部</t>
+          <t>出品部</t>
         </is>
       </c>
       <c r="H103" t="inlineStr">
         <is>
-          <t>八部王先胜</t>
+          <t>彭刚</t>
         </is>
       </c>
       <c r="I103" t="inlineStr">
         <is>
-          <t>微信</t>
+          <t>会员本金</t>
         </is>
       </c>
       <c r="J103" t="n">
         <v>1</v>
       </c>
       <c r="K103" t="n">
-        <v>10</v>
+        <v>200</v>
       </c>
       <c r="L103" t="inlineStr"/>
       <c r="M103" t="inlineStr"/>
@@ -5918,11 +5918,11 @@
     </row>
     <row r="104">
       <c r="A104" t="n">
-        <v>20210118064</v>
+        <v>20210118109</v>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>23:16</t>
+          <t>01:06</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
@@ -5932,16 +5932,16 @@
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>V25</t>
+          <t>空降房1</t>
         </is>
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>玛琳娜香槟5000元套餐</t>
+          <t>3000方块A套餐</t>
         </is>
       </c>
       <c r="F104" t="n">
-        <v>5000</v>
+        <v>3000</v>
       </c>
       <c r="G104" t="inlineStr">
         <is>
@@ -5950,19 +5950,19 @@
       </c>
       <c r="H104" t="inlineStr">
         <is>
-          <t>六部许鹏</t>
+          <t>六部孙浩</t>
         </is>
       </c>
       <c r="I104" t="inlineStr">
         <is>
-          <t>挂账</t>
+          <t>会员本金</t>
         </is>
       </c>
       <c r="J104" t="n">
         <v>1</v>
       </c>
       <c r="K104" t="n">
-        <v>200</v>
+        <v>50</v>
       </c>
       <c r="L104" t="inlineStr"/>
       <c r="M104" t="inlineStr"/>
@@ -5971,11 +5971,11 @@
     </row>
     <row r="105">
       <c r="A105" t="n">
-        <v>20210118080</v>
+        <v>20210118005</v>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>01:44</t>
+          <t>21:32</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
@@ -5985,37 +5985,37 @@
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>纪梵希</t>
+          <t>V25</t>
         </is>
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>方块A套餐</t>
+          <t>查理十世3000套餐</t>
         </is>
       </c>
       <c r="F105" t="n">
-        <v>1980</v>
+        <v>3000</v>
       </c>
       <c r="G105" t="inlineStr">
         <is>
-          <t>销-销售7部</t>
+          <t>国际部</t>
         </is>
       </c>
       <c r="H105" t="inlineStr">
         <is>
-          <t>七部邓懿娜</t>
+          <t>国际孙启鹏</t>
         </is>
       </c>
       <c r="I105" t="inlineStr">
         <is>
-          <t>微信</t>
+          <t>会员本金,微信</t>
         </is>
       </c>
       <c r="J105" t="n">
         <v>1</v>
       </c>
       <c r="K105" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="L105" t="inlineStr"/>
       <c r="M105" t="inlineStr"/>
@@ -6024,11 +6024,11 @@
     </row>
     <row r="106">
       <c r="A106" t="n">
-        <v>20210118109</v>
+        <v>20210118064</v>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>01:06</t>
+          <t>23:16</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
@@ -6038,16 +6038,16 @@
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>空降房1</t>
+          <t>V25</t>
         </is>
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>3000方块A套餐</t>
+          <t>玛琳娜香槟5000元套餐</t>
         </is>
       </c>
       <c r="F106" t="n">
-        <v>3000</v>
+        <v>5000</v>
       </c>
       <c r="G106" t="inlineStr">
         <is>
@@ -6056,19 +6056,19 @@
       </c>
       <c r="H106" t="inlineStr">
         <is>
-          <t>六部孙浩</t>
+          <t>六部许鹏</t>
         </is>
       </c>
       <c r="I106" t="inlineStr">
         <is>
-          <t>会员本金</t>
+          <t>挂账</t>
         </is>
       </c>
       <c r="J106" t="n">
         <v>1</v>
       </c>
       <c r="K106" t="n">
-        <v>50</v>
+        <v>200</v>
       </c>
       <c r="L106" t="inlineStr"/>
       <c r="M106" t="inlineStr"/>
@@ -6077,11 +6077,11 @@
     </row>
     <row r="107">
       <c r="A107" t="n">
-        <v>20210118059</v>
+        <v>20210118102</v>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>23:56</t>
+          <t>01:26</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
@@ -6091,37 +6091,37 @@
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>V12</t>
+          <t>S08</t>
         </is>
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>查理十世5000元套餐</t>
+          <t>气氛扇子</t>
         </is>
       </c>
       <c r="F107" t="n">
-        <v>5000</v>
+        <v>68</v>
       </c>
       <c r="G107" t="inlineStr">
         <is>
-          <t>出品部</t>
+          <t>销-销售8部</t>
         </is>
       </c>
       <c r="H107" t="inlineStr">
         <is>
-          <t>彭刚</t>
+          <t>八部王先胜</t>
         </is>
       </c>
       <c r="I107" t="inlineStr">
         <is>
-          <t>会员本金</t>
+          <t>微信</t>
         </is>
       </c>
       <c r="J107" t="n">
         <v>1</v>
       </c>
       <c r="K107" t="n">
-        <v>200</v>
+        <v>10</v>
       </c>
       <c r="L107" t="inlineStr"/>
       <c r="M107" t="inlineStr"/>
@@ -6130,11 +6130,11 @@
     </row>
     <row r="108">
       <c r="A108" t="n">
-        <v>20210118005</v>
+        <v>20210118080</v>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>21:32</t>
+          <t>01:44</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
@@ -6144,37 +6144,37 @@
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>V25</t>
+          <t>纪梵希</t>
         </is>
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>查理十世3000套餐</t>
+          <t>方块A套餐</t>
         </is>
       </c>
       <c r="F108" t="n">
-        <v>3000</v>
+        <v>1980</v>
       </c>
       <c r="G108" t="inlineStr">
         <is>
-          <t>国际部</t>
+          <t>销-销售7部</t>
         </is>
       </c>
       <c r="H108" t="inlineStr">
         <is>
-          <t>国际孙启鹏</t>
+          <t>七部邓懿娜</t>
         </is>
       </c>
       <c r="I108" t="inlineStr">
         <is>
-          <t>会员本金,微信</t>
+          <t>微信</t>
         </is>
       </c>
       <c r="J108" t="n">
         <v>1</v>
       </c>
       <c r="K108" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="L108" t="inlineStr"/>
       <c r="M108" t="inlineStr"/>
@@ -6183,11 +6183,11 @@
     </row>
     <row r="109">
       <c r="A109" t="n">
-        <v>20210119092</v>
+        <v>20210119032</v>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>01:39</t>
+          <t>22:08</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
@@ -6197,37 +6197,37 @@
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>纪梵希</t>
+          <t>V01</t>
         </is>
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>(伍仟)轩V*4</t>
+          <t>(叁仟)查理*4+R香槟*2</t>
         </is>
       </c>
       <c r="F109" t="n">
-        <v>5000</v>
+        <v>3000</v>
       </c>
       <c r="G109" t="inlineStr">
         <is>
-          <t>销-销售7部</t>
+          <t>市场部</t>
         </is>
       </c>
       <c r="H109" t="inlineStr">
         <is>
-          <t>七部邓懿娜</t>
+          <t>市场曹梦倩</t>
         </is>
       </c>
       <c r="I109" t="inlineStr">
         <is>
-          <t>挂账</t>
+          <t>会员本金</t>
         </is>
       </c>
       <c r="J109" t="n">
         <v>1</v>
       </c>
       <c r="K109" t="n">
-        <v>200</v>
+        <v>50</v>
       </c>
       <c r="L109" t="inlineStr"/>
       <c r="M109" t="inlineStr"/>
@@ -6236,11 +6236,11 @@
     </row>
     <row r="110">
       <c r="A110" t="n">
-        <v>20210119032</v>
+        <v>20210119035</v>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>22:08</t>
+          <t>01:36</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
@@ -6250,25 +6250,25 @@
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>V01</t>
+          <t>V08</t>
         </is>
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>(叁仟)查理*4+R香槟*2</t>
+          <t>(伍仟)查理*7</t>
         </is>
       </c>
       <c r="F110" t="n">
-        <v>3000</v>
+        <v>5000</v>
       </c>
       <c r="G110" t="inlineStr">
         <is>
-          <t>市场部</t>
+          <t>出品部</t>
         </is>
       </c>
       <c r="H110" t="inlineStr">
         <is>
-          <t>市场曹梦倩</t>
+          <t>彭健</t>
         </is>
       </c>
       <c r="I110" t="inlineStr">
@@ -6280,7 +6280,7 @@
         <v>1</v>
       </c>
       <c r="K110" t="n">
-        <v>50</v>
+        <v>200</v>
       </c>
       <c r="L110" t="inlineStr"/>
       <c r="M110" t="inlineStr"/>
@@ -6289,11 +6289,11 @@
     </row>
     <row r="111">
       <c r="A111" t="n">
-        <v>20210119035</v>
+        <v>20210119092</v>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>01:36</t>
+          <t>01:39</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
@@ -6303,12 +6303,12 @@
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>V08</t>
+          <t>纪梵希</t>
         </is>
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>(伍仟)查理*7</t>
+          <t>(伍仟)轩V*4</t>
         </is>
       </c>
       <c r="F111" t="n">
@@ -6316,17 +6316,17 @@
       </c>
       <c r="G111" t="inlineStr">
         <is>
-          <t>出品部</t>
+          <t>销-销售7部</t>
         </is>
       </c>
       <c r="H111" t="inlineStr">
         <is>
-          <t>彭健</t>
+          <t>七部邓懿娜</t>
         </is>
       </c>
       <c r="I111" t="inlineStr">
         <is>
-          <t>会员本金</t>
+          <t>挂账</t>
         </is>
       </c>
       <c r="J111" t="n">
@@ -6448,11 +6448,11 @@
     </row>
     <row r="114">
       <c r="A114" t="n">
-        <v>20210121030</v>
+        <v>20210121066</v>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>23:50</t>
+          <t>23:02</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
@@ -6462,37 +6462,37 @@
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>V05</t>
+          <t>V08</t>
         </is>
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>气氛扇子</t>
+          <t>(壹万)轩V*8</t>
         </is>
       </c>
       <c r="F114" t="n">
-        <v>68</v>
+        <v>10000</v>
       </c>
       <c r="G114" t="inlineStr">
         <is>
-          <t>市场部</t>
+          <t>销-销售7部</t>
         </is>
       </c>
       <c r="H114" t="inlineStr">
         <is>
-          <t>市场曹梦倩</t>
+          <t>七部李华</t>
         </is>
       </c>
       <c r="I114" t="inlineStr">
         <is>
-          <t>微信</t>
+          <t>会员本金,支付宝</t>
         </is>
       </c>
       <c r="J114" t="n">
         <v>1</v>
       </c>
       <c r="K114" t="n">
-        <v>10</v>
+        <v>300</v>
       </c>
       <c r="L114" t="inlineStr"/>
       <c r="M114" t="inlineStr"/>
@@ -6501,11 +6501,11 @@
     </row>
     <row r="115">
       <c r="A115" t="n">
-        <v>20210121096</v>
+        <v>20210121030</v>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>01:06</t>
+          <t>23:50</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
@@ -6515,37 +6515,37 @@
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>香奈儿</t>
+          <t>V05</t>
         </is>
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>(伍仟)轩V*4</t>
+          <t>气氛扇子</t>
         </is>
       </c>
       <c r="F115" t="n">
-        <v>5000</v>
+        <v>68</v>
       </c>
       <c r="G115" t="inlineStr">
         <is>
-          <t>销-销售7部</t>
+          <t>市场部</t>
         </is>
       </c>
       <c r="H115" t="inlineStr">
         <is>
-          <t>七部邓懿娜</t>
+          <t>市场曹梦倩</t>
         </is>
       </c>
       <c r="I115" t="inlineStr">
         <is>
-          <t>挂账</t>
+          <t>微信</t>
         </is>
       </c>
       <c r="J115" t="n">
         <v>1</v>
       </c>
       <c r="K115" t="n">
-        <v>200</v>
+        <v>10</v>
       </c>
       <c r="L115" t="inlineStr"/>
       <c r="M115" t="inlineStr"/>
@@ -6553,57 +6553,57 @@
       <c r="O115" t="inlineStr"/>
     </row>
     <row r="116">
-      <c r="A116" t="inlineStr"/>
-      <c r="B116" t="inlineStr"/>
+      <c r="A116" t="n">
+        <v>20210121096</v>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>01:06</t>
+        </is>
+      </c>
       <c r="C116" t="inlineStr">
         <is>
           <t>2021-01-21</t>
         </is>
       </c>
-      <c r="D116" t="inlineStr"/>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>香奈儿</t>
+        </is>
+      </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>气氛扇子</t>
+          <t>(伍仟)轩V*4</t>
         </is>
       </c>
       <c r="F116" t="n">
-        <v>68</v>
-      </c>
-      <c r="G116" t="inlineStr"/>
+        <v>5000</v>
+      </c>
+      <c r="G116" t="inlineStr">
+        <is>
+          <t>销-销售7部</t>
+        </is>
+      </c>
       <c r="H116" t="inlineStr">
         <is>
-          <t>市场曹梦倩</t>
+          <t>七部邓懿娜</t>
         </is>
       </c>
       <c r="I116" t="inlineStr">
         <is>
-          <t>微信</t>
+          <t>挂账</t>
         </is>
       </c>
       <c r="J116" t="n">
         <v>1</v>
       </c>
       <c r="K116" t="n">
-        <v>10</v>
-      </c>
-      <c r="L116" t="n">
-        <v>20210121030</v>
-      </c>
-      <c r="M116" t="inlineStr">
-        <is>
-          <t>23:50</t>
-        </is>
-      </c>
-      <c r="N116" t="inlineStr">
-        <is>
-          <t>V05</t>
-        </is>
-      </c>
-      <c r="O116" t="inlineStr">
-        <is>
-          <t>市场部</t>
-        </is>
-      </c>
+        <v>200</v>
+      </c>
+      <c r="L116" t="inlineStr"/>
+      <c r="M116" t="inlineStr"/>
+      <c r="N116" t="inlineStr"/>
+      <c r="O116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr"/>
@@ -6616,35 +6616,35 @@
       <c r="D117" t="inlineStr"/>
       <c r="E117" t="inlineStr">
         <is>
-          <t>(壹万)方块A*76</t>
+          <t>气氛扇子</t>
         </is>
       </c>
       <c r="F117" t="n">
-        <v>10000</v>
+        <v>68</v>
       </c>
       <c r="G117" t="inlineStr"/>
       <c r="H117" t="inlineStr">
         <is>
-          <t>一部赵双</t>
+          <t>市场曹梦倩</t>
         </is>
       </c>
       <c r="I117" t="inlineStr">
         <is>
-          <t>会员本金,微信</t>
+          <t>微信</t>
         </is>
       </c>
       <c r="J117" t="n">
         <v>1</v>
       </c>
       <c r="K117" t="n">
-        <v>300</v>
+        <v>10</v>
       </c>
       <c r="L117" t="n">
-        <v>20210121095</v>
+        <v>20210121030</v>
       </c>
       <c r="M117" t="inlineStr">
         <is>
-          <t>00:41</t>
+          <t>23:50</t>
         </is>
       </c>
       <c r="N117" t="inlineStr">
@@ -6654,29 +6654,19 @@
       </c>
       <c r="O117" t="inlineStr">
         <is>
-          <t>销-销售1部</t>
+          <t>市场部</t>
         </is>
       </c>
     </row>
     <row r="118">
-      <c r="A118" t="n">
-        <v>20210121095</v>
-      </c>
-      <c r="B118" t="inlineStr">
-        <is>
-          <t>00:41</t>
-        </is>
-      </c>
+      <c r="A118" t="inlineStr"/>
+      <c r="B118" t="inlineStr"/>
       <c r="C118" t="inlineStr">
         <is>
           <t>2021-01-21</t>
         </is>
       </c>
-      <c r="D118" t="inlineStr">
-        <is>
-          <t>V05</t>
-        </is>
-      </c>
+      <c r="D118" t="inlineStr"/>
       <c r="E118" t="inlineStr">
         <is>
           <t>(壹万)方块A*76</t>
@@ -6685,11 +6675,7 @@
       <c r="F118" t="n">
         <v>10000</v>
       </c>
-      <c r="G118" t="inlineStr">
-        <is>
-          <t>销-销售1部</t>
-        </is>
-      </c>
+      <c r="G118" t="inlineStr"/>
       <c r="H118" t="inlineStr">
         <is>
           <t>一部赵双</t>
@@ -6706,18 +6692,32 @@
       <c r="K118" t="n">
         <v>300</v>
       </c>
-      <c r="L118" t="inlineStr"/>
-      <c r="M118" t="inlineStr"/>
-      <c r="N118" t="inlineStr"/>
-      <c r="O118" t="inlineStr"/>
+      <c r="L118" t="n">
+        <v>20210121095</v>
+      </c>
+      <c r="M118" t="inlineStr">
+        <is>
+          <t>00:41</t>
+        </is>
+      </c>
+      <c r="N118" t="inlineStr">
+        <is>
+          <t>V05</t>
+        </is>
+      </c>
+      <c r="O118" t="inlineStr">
+        <is>
+          <t>销-销售1部</t>
+        </is>
+      </c>
     </row>
     <row r="119">
       <c r="A119" t="n">
-        <v>20210121066</v>
+        <v>20210121095</v>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>23:02</t>
+          <t>00:41</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
@@ -6727,12 +6727,12 @@
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>V08</t>
+          <t>V05</t>
         </is>
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>(壹万)轩V*8</t>
+          <t>(壹万)方块A*76</t>
         </is>
       </c>
       <c r="F119" t="n">
@@ -6740,17 +6740,17 @@
       </c>
       <c r="G119" t="inlineStr">
         <is>
-          <t>销-销售7部</t>
+          <t>销-销售1部</t>
         </is>
       </c>
       <c r="H119" t="inlineStr">
         <is>
-          <t>七部李华</t>
+          <t>一部赵双</t>
         </is>
       </c>
       <c r="I119" t="inlineStr">
         <is>
-          <t>会员本金,支付宝</t>
+          <t>会员本金,微信</t>
         </is>
       </c>
       <c r="J119" t="n">
@@ -6765,26 +6765,40 @@
       <c r="O119" t="inlineStr"/>
     </row>
     <row r="120">
-      <c r="A120" t="inlineStr"/>
-      <c r="B120" t="inlineStr"/>
+      <c r="A120" t="n">
+        <v>20210122013</v>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>21:07</t>
+        </is>
+      </c>
       <c r="C120" t="inlineStr">
         <is>
           <t>2021-01-22</t>
         </is>
       </c>
-      <c r="D120" t="inlineStr"/>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>V09</t>
+        </is>
+      </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>(叁仟)方块A*22</t>
+          <t>慕威单支套</t>
         </is>
       </c>
       <c r="F120" t="n">
-        <v>3000</v>
-      </c>
-      <c r="G120" t="inlineStr"/>
+        <v>880</v>
+      </c>
+      <c r="G120" t="inlineStr">
+        <is>
+          <t>销-销售7部</t>
+        </is>
+      </c>
       <c r="H120" t="inlineStr">
         <is>
-          <t>国际孙启鹏</t>
+          <t>七部李华</t>
         </is>
       </c>
       <c r="I120" t="inlineStr">
@@ -6798,46 +6812,46 @@
       <c r="K120" t="n">
         <v>50</v>
       </c>
-      <c r="L120" t="n">
+      <c r="L120" t="inlineStr"/>
+      <c r="M120" t="inlineStr"/>
+      <c r="N120" t="inlineStr"/>
+      <c r="O120" t="inlineStr"/>
+    </row>
+    <row r="121">
+      <c r="A121" t="n">
         <v>20210122003</v>
       </c>
-      <c r="M120" t="inlineStr">
+      <c r="B121" t="inlineStr">
         <is>
           <t>21:50</t>
         </is>
       </c>
-      <c r="N120" t="inlineStr">
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>2021-01-22</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
         <is>
           <t>V01</t>
         </is>
       </c>
-      <c r="O120" t="inlineStr">
+      <c r="E121" t="inlineStr">
+        <is>
+          <t>(叁仟)方块A*22</t>
+        </is>
+      </c>
+      <c r="F121" t="n">
+        <v>3000</v>
+      </c>
+      <c r="G121" t="inlineStr">
         <is>
           <t>国际部</t>
         </is>
       </c>
-    </row>
-    <row r="121">
-      <c r="A121" t="inlineStr"/>
-      <c r="B121" t="inlineStr"/>
-      <c r="C121" t="inlineStr">
-        <is>
-          <t>2021-01-22</t>
-        </is>
-      </c>
-      <c r="D121" t="inlineStr"/>
-      <c r="E121" t="inlineStr">
-        <is>
-          <t>慕威单支套</t>
-        </is>
-      </c>
-      <c r="F121" t="n">
-        <v>880</v>
-      </c>
-      <c r="G121" t="inlineStr"/>
       <c r="H121" t="inlineStr">
         <is>
-          <t>七部李华</t>
+          <t>国际孙启鹏</t>
         </is>
       </c>
       <c r="I121" t="inlineStr">
@@ -6851,44 +6865,20 @@
       <c r="K121" t="n">
         <v>50</v>
       </c>
-      <c r="L121" t="n">
-        <v>20210122013</v>
-      </c>
-      <c r="M121" t="inlineStr">
-        <is>
-          <t>21:07</t>
-        </is>
-      </c>
-      <c r="N121" t="inlineStr">
-        <is>
-          <t>V09</t>
-        </is>
-      </c>
-      <c r="O121" t="inlineStr">
-        <is>
-          <t>销-销售7部</t>
-        </is>
-      </c>
+      <c r="L121" t="inlineStr"/>
+      <c r="M121" t="inlineStr"/>
+      <c r="N121" t="inlineStr"/>
+      <c r="O121" t="inlineStr"/>
     </row>
     <row r="122">
-      <c r="A122" t="n">
-        <v>20210122003</v>
-      </c>
-      <c r="B122" t="inlineStr">
-        <is>
-          <t>21:50</t>
-        </is>
-      </c>
+      <c r="A122" t="inlineStr"/>
+      <c r="B122" t="inlineStr"/>
       <c r="C122" t="inlineStr">
         <is>
           <t>2021-01-22</t>
         </is>
       </c>
-      <c r="D122" t="inlineStr">
-        <is>
-          <t>V01</t>
-        </is>
-      </c>
+      <c r="D122" t="inlineStr"/>
       <c r="E122" t="inlineStr">
         <is>
           <t>(叁仟)方块A*22</t>
@@ -6897,11 +6887,7 @@
       <c r="F122" t="n">
         <v>3000</v>
       </c>
-      <c r="G122" t="inlineStr">
-        <is>
-          <t>国际部</t>
-        </is>
-      </c>
+      <c r="G122" t="inlineStr"/>
       <c r="H122" t="inlineStr">
         <is>
           <t>国际孙启鹏</t>
@@ -6918,30 +6904,34 @@
       <c r="K122" t="n">
         <v>50</v>
       </c>
-      <c r="L122" t="inlineStr"/>
-      <c r="M122" t="inlineStr"/>
-      <c r="N122" t="inlineStr"/>
-      <c r="O122" t="inlineStr"/>
+      <c r="L122" t="n">
+        <v>20210122003</v>
+      </c>
+      <c r="M122" t="inlineStr">
+        <is>
+          <t>21:50</t>
+        </is>
+      </c>
+      <c r="N122" t="inlineStr">
+        <is>
+          <t>V01</t>
+        </is>
+      </c>
+      <c r="O122" t="inlineStr">
+        <is>
+          <t>国际部</t>
+        </is>
+      </c>
     </row>
     <row r="123">
-      <c r="A123" t="n">
-        <v>20210122013</v>
-      </c>
-      <c r="B123" t="inlineStr">
-        <is>
-          <t>21:07</t>
-        </is>
-      </c>
+      <c r="A123" t="inlineStr"/>
+      <c r="B123" t="inlineStr"/>
       <c r="C123" t="inlineStr">
         <is>
           <t>2021-01-22</t>
         </is>
       </c>
-      <c r="D123" t="inlineStr">
-        <is>
-          <t>V09</t>
-        </is>
-      </c>
+      <c r="D123" t="inlineStr"/>
       <c r="E123" t="inlineStr">
         <is>
           <t>慕威单支套</t>
@@ -6950,11 +6940,7 @@
       <c r="F123" t="n">
         <v>880</v>
       </c>
-      <c r="G123" t="inlineStr">
-        <is>
-          <t>销-销售7部</t>
-        </is>
-      </c>
+      <c r="G123" t="inlineStr"/>
       <c r="H123" t="inlineStr">
         <is>
           <t>七部李华</t>
@@ -6971,10 +6957,24 @@
       <c r="K123" t="n">
         <v>50</v>
       </c>
-      <c r="L123" t="inlineStr"/>
-      <c r="M123" t="inlineStr"/>
-      <c r="N123" t="inlineStr"/>
-      <c r="O123" t="inlineStr"/>
+      <c r="L123" t="n">
+        <v>20210122013</v>
+      </c>
+      <c r="M123" t="inlineStr">
+        <is>
+          <t>21:07</t>
+        </is>
+      </c>
+      <c r="N123" t="inlineStr">
+        <is>
+          <t>V09</t>
+        </is>
+      </c>
+      <c r="O123" t="inlineStr">
+        <is>
+          <t>销-销售7部</t>
+        </is>
+      </c>
     </row>
     <row r="124">
       <c r="A124" t="n">
@@ -6982,7 +6982,7 @@
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>01:25</t>
+          <t>22:58</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
@@ -6997,11 +6997,11 @@
       </c>
       <c r="E124" t="inlineStr">
         <is>
-          <t>查理十世700单支套餐</t>
+          <t>查理十世1.5单支套餐</t>
         </is>
       </c>
       <c r="F124" t="n">
-        <v>780</v>
+        <v>1480</v>
       </c>
       <c r="G124" t="inlineStr">
         <is>
@@ -7022,7 +7022,7 @@
         <v>1</v>
       </c>
       <c r="K124" t="n">
-        <v>30</v>
+        <v>100</v>
       </c>
       <c r="L124" t="inlineStr"/>
       <c r="M124" t="inlineStr"/>
@@ -7030,24 +7030,14 @@
       <c r="O124" t="inlineStr"/>
     </row>
     <row r="125">
-      <c r="A125" t="n">
-        <v>20210123060</v>
-      </c>
-      <c r="B125" t="inlineStr">
-        <is>
-          <t>23:11</t>
-        </is>
-      </c>
+      <c r="A125" t="inlineStr"/>
+      <c r="B125" t="inlineStr"/>
       <c r="C125" t="inlineStr">
         <is>
           <t>2021-01-23</t>
         </is>
       </c>
-      <c r="D125" t="inlineStr">
-        <is>
-          <t>V15</t>
-        </is>
-      </c>
+      <c r="D125" t="inlineStr"/>
       <c r="E125" t="inlineStr">
         <is>
           <t>墨镜</t>
@@ -7056,11 +7046,7 @@
       <c r="F125" t="n">
         <v>58</v>
       </c>
-      <c r="G125" t="inlineStr">
-        <is>
-          <t>销-销售8部</t>
-        </is>
-      </c>
+      <c r="G125" t="inlineStr"/>
       <c r="H125" t="inlineStr">
         <is>
           <t>八部杨明山</t>
@@ -7077,10 +7063,24 @@
       <c r="K125" t="n">
         <v>10</v>
       </c>
-      <c r="L125" t="inlineStr"/>
-      <c r="M125" t="inlineStr"/>
-      <c r="N125" t="inlineStr"/>
-      <c r="O125" t="inlineStr"/>
+      <c r="L125" t="n">
+        <v>20210123060</v>
+      </c>
+      <c r="M125" t="inlineStr">
+        <is>
+          <t>23:11</t>
+        </is>
+      </c>
+      <c r="N125" t="inlineStr">
+        <is>
+          <t>V15</t>
+        </is>
+      </c>
+      <c r="O125" t="inlineStr">
+        <is>
+          <t>销-销售8部</t>
+        </is>
+      </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr"/>
@@ -7093,153 +7093,153 @@
       <c r="D126" t="inlineStr"/>
       <c r="E126" t="inlineStr">
         <is>
-          <t>查理十世700单支套餐</t>
+          <t>气氛扇子</t>
         </is>
       </c>
       <c r="F126" t="n">
-        <v>780</v>
+        <v>68</v>
       </c>
       <c r="G126" t="inlineStr"/>
       <c r="H126" t="inlineStr">
         <is>
+          <t>一部李龙</t>
+        </is>
+      </c>
+      <c r="I126" t="inlineStr">
+        <is>
+          <t>微信</t>
+        </is>
+      </c>
+      <c r="J126" t="n">
+        <v>1</v>
+      </c>
+      <c r="K126" t="n">
+        <v>10</v>
+      </c>
+      <c r="L126" t="n">
+        <v>20210123038</v>
+      </c>
+      <c r="M126" t="inlineStr">
+        <is>
+          <t>23:53</t>
+        </is>
+      </c>
+      <c r="N126" t="inlineStr">
+        <is>
+          <t>V01</t>
+        </is>
+      </c>
+      <c r="O126" t="inlineStr">
+        <is>
+          <t>销-销售1部</t>
+        </is>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr"/>
+      <c r="B127" t="inlineStr"/>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>2021-01-23</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr"/>
+      <c r="E127" t="inlineStr">
+        <is>
+          <t>查理十世1.5单支套餐</t>
+        </is>
+      </c>
+      <c r="F127" t="n">
+        <v>1480</v>
+      </c>
+      <c r="G127" t="inlineStr"/>
+      <c r="H127" t="inlineStr">
+        <is>
           <t>七部黄光耀</t>
         </is>
       </c>
-      <c r="I126" t="inlineStr">
+      <c r="I127" t="inlineStr">
         <is>
           <t>会员本金</t>
         </is>
       </c>
-      <c r="J126" t="n">
-        <v>1</v>
-      </c>
-      <c r="K126" t="n">
-        <v>30</v>
-      </c>
-      <c r="L126" t="n">
+      <c r="J127" t="n">
+        <v>1</v>
+      </c>
+      <c r="K127" t="n">
+        <v>100</v>
+      </c>
+      <c r="L127" t="n">
         <v>20210123076</v>
       </c>
-      <c r="M126" t="inlineStr">
-        <is>
-          <t>01:25</t>
-        </is>
-      </c>
-      <c r="N126" t="inlineStr">
+      <c r="M127" t="inlineStr">
+        <is>
+          <t>22:58</t>
+        </is>
+      </c>
+      <c r="N127" t="inlineStr">
         <is>
           <t>古驰</t>
         </is>
       </c>
-      <c r="O126" t="inlineStr">
+      <c r="O127" t="inlineStr">
         <is>
           <t>销-销售7部</t>
         </is>
       </c>
     </row>
-    <row r="127">
-      <c r="A127" t="n">
-        <v>20210123038</v>
-      </c>
-      <c r="B127" t="inlineStr">
-        <is>
-          <t>23:53</t>
-        </is>
-      </c>
-      <c r="C127" t="inlineStr">
+    <row r="128">
+      <c r="A128" t="n">
+        <v>20210123060</v>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>23:11</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
         <is>
           <t>2021-01-23</t>
         </is>
       </c>
-      <c r="D127" t="inlineStr">
-        <is>
-          <t>V01</t>
-        </is>
-      </c>
-      <c r="E127" t="inlineStr">
-        <is>
-          <t>气氛扇子</t>
-        </is>
-      </c>
-      <c r="F127" t="n">
-        <v>68</v>
-      </c>
-      <c r="G127" t="inlineStr">
-        <is>
-          <t>销-销售1部</t>
-        </is>
-      </c>
-      <c r="H127" t="inlineStr">
-        <is>
-          <t>一部李龙</t>
-        </is>
-      </c>
-      <c r="I127" t="inlineStr">
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>V15</t>
+        </is>
+      </c>
+      <c r="E128" t="inlineStr">
+        <is>
+          <t>墨镜</t>
+        </is>
+      </c>
+      <c r="F128" t="n">
+        <v>58</v>
+      </c>
+      <c r="G128" t="inlineStr">
+        <is>
+          <t>销-销售8部</t>
+        </is>
+      </c>
+      <c r="H128" t="inlineStr">
+        <is>
+          <t>八部杨明山</t>
+        </is>
+      </c>
+      <c r="I128" t="inlineStr">
         <is>
           <t>微信</t>
         </is>
       </c>
-      <c r="J127" t="n">
-        <v>1</v>
-      </c>
-      <c r="K127" t="n">
+      <c r="J128" t="n">
+        <v>1</v>
+      </c>
+      <c r="K128" t="n">
         <v>10</v>
       </c>
-      <c r="L127" t="inlineStr"/>
-      <c r="M127" t="inlineStr"/>
-      <c r="N127" t="inlineStr"/>
-      <c r="O127" t="inlineStr"/>
-    </row>
-    <row r="128">
-      <c r="A128" t="inlineStr"/>
-      <c r="B128" t="inlineStr"/>
-      <c r="C128" t="inlineStr">
-        <is>
-          <t>2021-01-23</t>
-        </is>
-      </c>
-      <c r="D128" t="inlineStr"/>
-      <c r="E128" t="inlineStr">
-        <is>
-          <t>查理十世1.5单支套餐</t>
-        </is>
-      </c>
-      <c r="F128" t="n">
-        <v>1480</v>
-      </c>
-      <c r="G128" t="inlineStr"/>
-      <c r="H128" t="inlineStr">
-        <is>
-          <t>七部黄光耀</t>
-        </is>
-      </c>
-      <c r="I128" t="inlineStr">
-        <is>
-          <t>会员本金</t>
-        </is>
-      </c>
-      <c r="J128" t="n">
-        <v>1</v>
-      </c>
-      <c r="K128" t="n">
-        <v>100</v>
-      </c>
-      <c r="L128" t="n">
-        <v>20210123076</v>
-      </c>
-      <c r="M128" t="inlineStr">
-        <is>
-          <t>22:58</t>
-        </is>
-      </c>
-      <c r="N128" t="inlineStr">
-        <is>
-          <t>古驰</t>
-        </is>
-      </c>
-      <c r="O128" t="inlineStr">
-        <is>
-          <t>销-销售7部</t>
-        </is>
-      </c>
+      <c r="L128" t="inlineStr"/>
+      <c r="M128" t="inlineStr"/>
+      <c r="N128" t="inlineStr"/>
+      <c r="O128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr"/>
@@ -7252,108 +7252,108 @@
       <c r="D129" t="inlineStr"/>
       <c r="E129" t="inlineStr">
         <is>
-          <t>气氛扇子</t>
+          <t>查理十世700单支套餐</t>
         </is>
       </c>
       <c r="F129" t="n">
-        <v>68</v>
+        <v>780</v>
       </c>
       <c r="G129" t="inlineStr"/>
       <c r="H129" t="inlineStr">
         <is>
-          <t>一部李龙</t>
+          <t>七部黄光耀</t>
         </is>
       </c>
       <c r="I129" t="inlineStr">
         <is>
-          <t>微信</t>
+          <t>会员本金</t>
         </is>
       </c>
       <c r="J129" t="n">
         <v>1</v>
       </c>
       <c r="K129" t="n">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="L129" t="n">
-        <v>20210123038</v>
+        <v>20210123076</v>
       </c>
       <c r="M129" t="inlineStr">
         <is>
-          <t>23:53</t>
+          <t>01:25</t>
         </is>
       </c>
       <c r="N129" t="inlineStr">
         <is>
-          <t>V01</t>
+          <t>古驰</t>
         </is>
       </c>
       <c r="O129" t="inlineStr">
         <is>
-          <t>销-销售1部</t>
+          <t>销-销售7部</t>
         </is>
       </c>
     </row>
     <row r="130">
-      <c r="A130" t="inlineStr"/>
-      <c r="B130" t="inlineStr"/>
+      <c r="A130" t="n">
+        <v>20210123076</v>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>01:25</t>
+        </is>
+      </c>
       <c r="C130" t="inlineStr">
         <is>
           <t>2021-01-23</t>
         </is>
       </c>
-      <c r="D130" t="inlineStr"/>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>古驰</t>
+        </is>
+      </c>
       <c r="E130" t="inlineStr">
         <is>
-          <t>墨镜</t>
+          <t>查理十世700单支套餐</t>
         </is>
       </c>
       <c r="F130" t="n">
-        <v>58</v>
-      </c>
-      <c r="G130" t="inlineStr"/>
+        <v>780</v>
+      </c>
+      <c r="G130" t="inlineStr">
+        <is>
+          <t>销-销售7部</t>
+        </is>
+      </c>
       <c r="H130" t="inlineStr">
         <is>
-          <t>八部杨明山</t>
+          <t>七部黄光耀</t>
         </is>
       </c>
       <c r="I130" t="inlineStr">
         <is>
-          <t>微信</t>
+          <t>会员本金</t>
         </is>
       </c>
       <c r="J130" t="n">
         <v>1</v>
       </c>
       <c r="K130" t="n">
-        <v>10</v>
-      </c>
-      <c r="L130" t="n">
-        <v>20210123060</v>
-      </c>
-      <c r="M130" t="inlineStr">
-        <is>
-          <t>23:11</t>
-        </is>
-      </c>
-      <c r="N130" t="inlineStr">
-        <is>
-          <t>V15</t>
-        </is>
-      </c>
-      <c r="O130" t="inlineStr">
-        <is>
-          <t>销-销售8部</t>
-        </is>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="L130" t="inlineStr"/>
+      <c r="M130" t="inlineStr"/>
+      <c r="N130" t="inlineStr"/>
+      <c r="O130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" t="n">
-        <v>20210123076</v>
+        <v>20210123038</v>
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>22:58</t>
+          <t>23:53</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
@@ -7363,37 +7363,37 @@
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>古驰</t>
+          <t>V01</t>
         </is>
       </c>
       <c r="E131" t="inlineStr">
         <is>
-          <t>查理十世1.5单支套餐</t>
+          <t>气氛扇子</t>
         </is>
       </c>
       <c r="F131" t="n">
-        <v>1480</v>
+        <v>68</v>
       </c>
       <c r="G131" t="inlineStr">
         <is>
-          <t>销-销售7部</t>
+          <t>销-销售1部</t>
         </is>
       </c>
       <c r="H131" t="inlineStr">
         <is>
-          <t>七部黄光耀</t>
+          <t>一部李龙</t>
         </is>
       </c>
       <c r="I131" t="inlineStr">
         <is>
-          <t>会员本金</t>
+          <t>微信</t>
         </is>
       </c>
       <c r="J131" t="n">
         <v>1</v>
       </c>
       <c r="K131" t="n">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="L131" t="inlineStr"/>
       <c r="M131" t="inlineStr"/>
@@ -7406,7 +7406,7 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>00:11</t>
+          <t>22:12</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
@@ -7416,7 +7416,7 @@
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>K15</t>
+          <t>V18</t>
         </is>
       </c>
       <c r="E132" t="inlineStr">
@@ -7429,12 +7429,12 @@
       </c>
       <c r="G132" t="inlineStr">
         <is>
-          <t>销-销售1部</t>
+          <t>销-销售7部</t>
         </is>
       </c>
       <c r="H132" t="inlineStr">
         <is>
-          <t>一部李成</t>
+          <t>七部王涛</t>
         </is>
       </c>
       <c r="I132" t="inlineStr">
@@ -7454,67 +7454,77 @@
       <c r="O132" t="inlineStr"/>
     </row>
     <row r="133">
-      <c r="A133" t="n">
-        <v>20210124088</v>
-      </c>
-      <c r="B133" t="inlineStr">
-        <is>
-          <t>01:06</t>
-        </is>
-      </c>
+      <c r="A133" t="inlineStr"/>
+      <c r="B133" t="inlineStr"/>
       <c r="C133" t="inlineStr">
         <is>
           <t>2021-01-24</t>
         </is>
       </c>
-      <c r="D133" t="inlineStr">
-        <is>
-          <t>纪梵希</t>
-        </is>
-      </c>
+      <c r="D133" t="inlineStr"/>
       <c r="E133" t="inlineStr">
         <is>
-          <t>(伍仟)轩V*4</t>
+          <t>查理十世1.5单支套餐</t>
         </is>
       </c>
       <c r="F133" t="n">
-        <v>5000</v>
-      </c>
-      <c r="G133" t="inlineStr">
-        <is>
-          <t>销-销售7部</t>
-        </is>
-      </c>
+        <v>1480</v>
+      </c>
+      <c r="G133" t="inlineStr"/>
       <c r="H133" t="inlineStr">
         <is>
-          <t>七部邓懿娜</t>
+          <t>国际金艳飞</t>
         </is>
       </c>
       <c r="I133" t="inlineStr">
         <is>
-          <t>会员本金</t>
+          <t>会员本金,微信</t>
         </is>
       </c>
       <c r="J133" t="n">
         <v>1</v>
       </c>
       <c r="K133" t="n">
-        <v>200</v>
-      </c>
-      <c r="L133" t="inlineStr"/>
-      <c r="M133" t="inlineStr"/>
-      <c r="N133" t="inlineStr"/>
-      <c r="O133" t="inlineStr"/>
+        <v>100</v>
+      </c>
+      <c r="L133" t="n">
+        <v>20210124021</v>
+      </c>
+      <c r="M133" t="inlineStr">
+        <is>
+          <t>21:25</t>
+        </is>
+      </c>
+      <c r="N133" t="inlineStr">
+        <is>
+          <t>V07</t>
+        </is>
+      </c>
+      <c r="O133" t="inlineStr">
+        <is>
+          <t>国际部</t>
+        </is>
+      </c>
     </row>
     <row r="134">
-      <c r="A134" t="inlineStr"/>
-      <c r="B134" t="inlineStr"/>
+      <c r="A134" t="n">
+        <v>20210124021</v>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>21:25</t>
+        </is>
+      </c>
       <c r="C134" t="inlineStr">
         <is>
           <t>2021-01-24</t>
         </is>
       </c>
-      <c r="D134" t="inlineStr"/>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>V07</t>
+        </is>
+      </c>
       <c r="E134" t="inlineStr">
         <is>
           <t>查理十世1.5单支套餐</t>
@@ -7523,7 +7533,11 @@
       <c r="F134" t="n">
         <v>1480</v>
       </c>
-      <c r="G134" t="inlineStr"/>
+      <c r="G134" t="inlineStr">
+        <is>
+          <t>国际部</t>
+        </is>
+      </c>
       <c r="H134" t="inlineStr">
         <is>
           <t>国际金艳飞</t>
@@ -7540,24 +7554,10 @@
       <c r="K134" t="n">
         <v>100</v>
       </c>
-      <c r="L134" t="n">
-        <v>20210124021</v>
-      </c>
-      <c r="M134" t="inlineStr">
-        <is>
-          <t>21:25</t>
-        </is>
-      </c>
-      <c r="N134" t="inlineStr">
-        <is>
-          <t>V07</t>
-        </is>
-      </c>
-      <c r="O134" t="inlineStr">
-        <is>
-          <t>国际部</t>
-        </is>
-      </c>
+      <c r="L134" t="inlineStr"/>
+      <c r="M134" t="inlineStr"/>
+      <c r="N134" t="inlineStr"/>
+      <c r="O134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" t="n">
@@ -7565,7 +7565,7 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>21:25</t>
+          <t>00:11</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
@@ -7575,37 +7575,37 @@
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>V07</t>
+          <t>K15</t>
         </is>
       </c>
       <c r="E135" t="inlineStr">
         <is>
-          <t>查理十世1.5单支套餐</t>
+          <t>爱洛*45</t>
         </is>
       </c>
       <c r="F135" t="n">
-        <v>1480</v>
+        <v>1000</v>
       </c>
       <c r="G135" t="inlineStr">
         <is>
-          <t>国际部</t>
+          <t>销-销售1部</t>
         </is>
       </c>
       <c r="H135" t="inlineStr">
         <is>
-          <t>国际金艳飞</t>
+          <t>一部李成</t>
         </is>
       </c>
       <c r="I135" t="inlineStr">
         <is>
-          <t>会员本金,微信</t>
+          <t>会员本金</t>
         </is>
       </c>
       <c r="J135" t="n">
         <v>1</v>
       </c>
       <c r="K135" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="L135" t="inlineStr"/>
       <c r="M135" t="inlineStr"/>
@@ -7614,11 +7614,11 @@
     </row>
     <row r="136">
       <c r="A136" t="n">
-        <v>20210124021</v>
+        <v>20210124088</v>
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>22:12</t>
+          <t>01:06</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
@@ -7628,16 +7628,16 @@
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>V18</t>
+          <t>纪梵希</t>
         </is>
       </c>
       <c r="E136" t="inlineStr">
         <is>
-          <t>爱洛*45</t>
+          <t>(伍仟)轩V*4</t>
         </is>
       </c>
       <c r="F136" t="n">
-        <v>1000</v>
+        <v>5000</v>
       </c>
       <c r="G136" t="inlineStr">
         <is>
@@ -7646,7 +7646,7 @@
       </c>
       <c r="H136" t="inlineStr">
         <is>
-          <t>七部王涛</t>
+          <t>七部邓懿娜</t>
         </is>
       </c>
       <c r="I136" t="inlineStr">
@@ -7658,7 +7658,7 @@
         <v>1</v>
       </c>
       <c r="K136" t="n">
-        <v>50</v>
+        <v>200</v>
       </c>
       <c r="L136" t="inlineStr"/>
       <c r="M136" t="inlineStr"/>
@@ -7666,236 +7666,226 @@
       <c r="O136" t="inlineStr"/>
     </row>
     <row r="137">
-      <c r="A137" t="inlineStr"/>
-      <c r="B137" t="inlineStr"/>
+      <c r="A137" t="n">
+        <v>20210125091</v>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>00:39</t>
+        </is>
+      </c>
       <c r="C137" t="inlineStr">
         <is>
           <t>2021-01-25</t>
         </is>
       </c>
-      <c r="D137" t="inlineStr"/>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>V18</t>
+        </is>
+      </c>
       <c r="E137" t="inlineStr">
         <is>
+          <t>方块A *1打</t>
+        </is>
+      </c>
+      <c r="F137" t="n">
+        <v>1980</v>
+      </c>
+      <c r="G137" t="inlineStr">
+        <is>
+          <t>独-2部</t>
+        </is>
+      </c>
+      <c r="H137" t="inlineStr">
+        <is>
+          <t>独立2-王凤</t>
+        </is>
+      </c>
+      <c r="I137" t="inlineStr">
+        <is>
+          <t>会员本金,支付宝</t>
+        </is>
+      </c>
+      <c r="J137" t="n">
+        <v>1</v>
+      </c>
+      <c r="K137" t="n">
+        <v>100</v>
+      </c>
+      <c r="L137" t="inlineStr"/>
+      <c r="M137" t="inlineStr"/>
+      <c r="N137" t="inlineStr"/>
+      <c r="O137" t="inlineStr"/>
+    </row>
+    <row r="138">
+      <c r="A138" t="n">
+        <v>20210125003</v>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>22:06</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>2021-01-25</t>
+        </is>
+      </c>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>V05</t>
+        </is>
+      </c>
+      <c r="E138" t="inlineStr">
+        <is>
+          <t>(叁仟)方块A*22</t>
+        </is>
+      </c>
+      <c r="F138" t="n">
+        <v>3000</v>
+      </c>
+      <c r="G138" t="inlineStr">
+        <is>
+          <t>国际部</t>
+        </is>
+      </c>
+      <c r="H138" t="inlineStr">
+        <is>
+          <t>国际王小雪</t>
+        </is>
+      </c>
+      <c r="I138" t="inlineStr">
+        <is>
+          <t>会员本金,微信</t>
+        </is>
+      </c>
+      <c r="J138" t="n">
+        <v>1</v>
+      </c>
+      <c r="K138" t="n">
+        <v>50</v>
+      </c>
+      <c r="L138" t="inlineStr"/>
+      <c r="M138" t="inlineStr"/>
+      <c r="N138" t="inlineStr"/>
+      <c r="O138" t="inlineStr"/>
+    </row>
+    <row r="139">
+      <c r="A139" t="n">
+        <v>20210125030</v>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>21:49</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>2021-01-25</t>
+        </is>
+      </c>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t>V08</t>
+        </is>
+      </c>
+      <c r="E139" t="inlineStr">
+        <is>
           <t>(壹万)方块A*76</t>
         </is>
       </c>
-      <c r="F137" t="n">
+      <c r="F139" t="n">
         <v>10000</v>
       </c>
-      <c r="G137" t="inlineStr"/>
-      <c r="H137" t="inlineStr">
+      <c r="G139" t="inlineStr">
+        <is>
+          <t>销-销售6部</t>
+        </is>
+      </c>
+      <c r="H139" t="inlineStr">
         <is>
           <t>六部许鹏</t>
         </is>
       </c>
-      <c r="I137" t="inlineStr">
+      <c r="I139" t="inlineStr">
         <is>
           <t>会员本金</t>
         </is>
       </c>
-      <c r="J137" t="n">
-        <v>1</v>
-      </c>
-      <c r="K137" t="n">
+      <c r="J139" t="n">
+        <v>1</v>
+      </c>
+      <c r="K139" t="n">
         <v>300</v>
       </c>
-      <c r="L137" t="n">
+      <c r="L139" t="inlineStr"/>
+      <c r="M139" t="inlineStr"/>
+      <c r="N139" t="inlineStr"/>
+      <c r="O139" t="inlineStr"/>
+    </row>
+    <row r="140">
+      <c r="A140" t="n">
         <v>20210125030</v>
       </c>
-      <c r="M137" t="inlineStr">
+      <c r="B140" t="inlineStr">
         <is>
           <t>21:49</t>
         </is>
       </c>
-      <c r="N137" t="inlineStr">
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>2021-01-25</t>
+        </is>
+      </c>
+      <c r="D140" t="inlineStr">
         <is>
           <t>V08</t>
         </is>
       </c>
-      <c r="O137" t="inlineStr">
+      <c r="E140" t="inlineStr">
+        <is>
+          <t>(壹万)查理*15</t>
+        </is>
+      </c>
+      <c r="F140" t="n">
+        <v>10000</v>
+      </c>
+      <c r="G140" t="inlineStr">
         <is>
           <t>销-销售6部</t>
         </is>
       </c>
-    </row>
-    <row r="138">
-      <c r="A138" t="inlineStr"/>
-      <c r="B138" t="inlineStr"/>
-      <c r="C138" t="inlineStr">
+      <c r="H140" t="inlineStr">
+        <is>
+          <t>六部许鹏</t>
+        </is>
+      </c>
+      <c r="I140" t="inlineStr">
+        <is>
+          <t>会员本金</t>
+        </is>
+      </c>
+      <c r="J140" t="n">
+        <v>1</v>
+      </c>
+      <c r="K140" t="n">
+        <v>300</v>
+      </c>
+      <c r="L140" t="inlineStr"/>
+      <c r="M140" t="inlineStr"/>
+      <c r="N140" t="inlineStr"/>
+      <c r="O140" t="inlineStr"/>
+    </row>
+    <row r="141">
+      <c r="A141" t="inlineStr"/>
+      <c r="B141" t="inlineStr"/>
+      <c r="C141" t="inlineStr">
         <is>
           <t>2021-01-25</t>
         </is>
       </c>
-      <c r="D138" t="inlineStr"/>
-      <c r="E138" t="inlineStr">
-        <is>
-          <t>(壹万)查理*15</t>
-        </is>
-      </c>
-      <c r="F138" t="n">
-        <v>10000</v>
-      </c>
-      <c r="G138" t="inlineStr"/>
-      <c r="H138" t="inlineStr">
-        <is>
-          <t>六部许鹏</t>
-        </is>
-      </c>
-      <c r="I138" t="inlineStr">
-        <is>
-          <t>会员本金</t>
-        </is>
-      </c>
-      <c r="J138" t="n">
-        <v>1</v>
-      </c>
-      <c r="K138" t="n">
-        <v>300</v>
-      </c>
-      <c r="L138" t="n">
-        <v>20210125030</v>
-      </c>
-      <c r="M138" t="inlineStr">
-        <is>
-          <t>21:49</t>
-        </is>
-      </c>
-      <c r="N138" t="inlineStr">
-        <is>
-          <t>V08</t>
-        </is>
-      </c>
-      <c r="O138" t="inlineStr">
-        <is>
-          <t>销-销售6部</t>
-        </is>
-      </c>
-    </row>
-    <row r="139">
-      <c r="A139" t="inlineStr"/>
-      <c r="B139" t="inlineStr"/>
-      <c r="C139" t="inlineStr">
-        <is>
-          <t>2021-01-25</t>
-        </is>
-      </c>
-      <c r="D139" t="inlineStr"/>
-      <c r="E139" t="inlineStr">
-        <is>
-          <t>方块A *1打</t>
-        </is>
-      </c>
-      <c r="F139" t="n">
-        <v>1980</v>
-      </c>
-      <c r="G139" t="inlineStr"/>
-      <c r="H139" t="inlineStr">
-        <is>
-          <t>独立2-王凤</t>
-        </is>
-      </c>
-      <c r="I139" t="inlineStr">
-        <is>
-          <t>会员本金,支付宝</t>
-        </is>
-      </c>
-      <c r="J139" t="n">
-        <v>1</v>
-      </c>
-      <c r="K139" t="n">
-        <v>100</v>
-      </c>
-      <c r="L139" t="n">
-        <v>20210125091</v>
-      </c>
-      <c r="M139" t="inlineStr">
-        <is>
-          <t>00:39</t>
-        </is>
-      </c>
-      <c r="N139" t="inlineStr">
-        <is>
-          <t>V18</t>
-        </is>
-      </c>
-      <c r="O139" t="inlineStr">
-        <is>
-          <t>独-2部</t>
-        </is>
-      </c>
-    </row>
-    <row r="140">
-      <c r="A140" t="inlineStr"/>
-      <c r="B140" t="inlineStr"/>
-      <c r="C140" t="inlineStr">
-        <is>
-          <t>2021-01-25</t>
-        </is>
-      </c>
-      <c r="D140" t="inlineStr"/>
-      <c r="E140" t="inlineStr">
-        <is>
-          <t>(叁仟)方块A*22</t>
-        </is>
-      </c>
-      <c r="F140" t="n">
-        <v>3000</v>
-      </c>
-      <c r="G140" t="inlineStr"/>
-      <c r="H140" t="inlineStr">
-        <is>
-          <t>国际王小雪</t>
-        </is>
-      </c>
-      <c r="I140" t="inlineStr">
-        <is>
-          <t>会员本金,微信</t>
-        </is>
-      </c>
-      <c r="J140" t="n">
-        <v>1</v>
-      </c>
-      <c r="K140" t="n">
-        <v>50</v>
-      </c>
-      <c r="L140" t="n">
-        <v>20210125003</v>
-      </c>
-      <c r="M140" t="inlineStr">
-        <is>
-          <t>22:06</t>
-        </is>
-      </c>
-      <c r="N140" t="inlineStr">
-        <is>
-          <t>V05</t>
-        </is>
-      </c>
-      <c r="O140" t="inlineStr">
-        <is>
-          <t>国际部</t>
-        </is>
-      </c>
-    </row>
-    <row r="141">
-      <c r="A141" t="n">
-        <v>20210125030</v>
-      </c>
-      <c r="B141" t="inlineStr">
-        <is>
-          <t>21:49</t>
-        </is>
-      </c>
-      <c r="C141" t="inlineStr">
-        <is>
-          <t>2021-01-25</t>
-        </is>
-      </c>
-      <c r="D141" t="inlineStr">
-        <is>
-          <t>V08</t>
-        </is>
-      </c>
+      <c r="D141" t="inlineStr"/>
       <c r="E141" t="inlineStr">
         <is>
           <t>(壹万)查理*15</t>
@@ -7904,11 +7894,7 @@
       <c r="F141" t="n">
         <v>10000</v>
       </c>
-      <c r="G141" t="inlineStr">
-        <is>
-          <t>销-销售6部</t>
-        </is>
-      </c>
+      <c r="G141" t="inlineStr"/>
       <c r="H141" t="inlineStr">
         <is>
           <t>六部许鹏</t>
@@ -7925,169 +7911,183 @@
       <c r="K141" t="n">
         <v>300</v>
       </c>
-      <c r="L141" t="inlineStr"/>
-      <c r="M141" t="inlineStr"/>
-      <c r="N141" t="inlineStr"/>
-      <c r="O141" t="inlineStr"/>
+      <c r="L141" t="n">
+        <v>20210125030</v>
+      </c>
+      <c r="M141" t="inlineStr">
+        <is>
+          <t>21:49</t>
+        </is>
+      </c>
+      <c r="N141" t="inlineStr">
+        <is>
+          <t>V08</t>
+        </is>
+      </c>
+      <c r="O141" t="inlineStr">
+        <is>
+          <t>销-销售6部</t>
+        </is>
+      </c>
     </row>
     <row r="142">
-      <c r="A142" t="n">
+      <c r="A142" t="inlineStr"/>
+      <c r="B142" t="inlineStr"/>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>2021-01-25</t>
+        </is>
+      </c>
+      <c r="D142" t="inlineStr"/>
+      <c r="E142" t="inlineStr">
+        <is>
+          <t>方块A *1打</t>
+        </is>
+      </c>
+      <c r="F142" t="n">
+        <v>1980</v>
+      </c>
+      <c r="G142" t="inlineStr"/>
+      <c r="H142" t="inlineStr">
+        <is>
+          <t>独立2-王凤</t>
+        </is>
+      </c>
+      <c r="I142" t="inlineStr">
+        <is>
+          <t>会员本金,支付宝</t>
+        </is>
+      </c>
+      <c r="J142" t="n">
+        <v>1</v>
+      </c>
+      <c r="K142" t="n">
+        <v>100</v>
+      </c>
+      <c r="L142" t="n">
+        <v>20210125091</v>
+      </c>
+      <c r="M142" t="inlineStr">
+        <is>
+          <t>00:39</t>
+        </is>
+      </c>
+      <c r="N142" t="inlineStr">
+        <is>
+          <t>V18</t>
+        </is>
+      </c>
+      <c r="O142" t="inlineStr">
+        <is>
+          <t>独-2部</t>
+        </is>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="inlineStr"/>
+      <c r="B143" t="inlineStr"/>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>2021-01-25</t>
+        </is>
+      </c>
+      <c r="D143" t="inlineStr"/>
+      <c r="E143" t="inlineStr">
+        <is>
+          <t>(壹万)方块A*76</t>
+        </is>
+      </c>
+      <c r="F143" t="n">
+        <v>10000</v>
+      </c>
+      <c r="G143" t="inlineStr"/>
+      <c r="H143" t="inlineStr">
+        <is>
+          <t>六部许鹏</t>
+        </is>
+      </c>
+      <c r="I143" t="inlineStr">
+        <is>
+          <t>会员本金</t>
+        </is>
+      </c>
+      <c r="J143" t="n">
+        <v>1</v>
+      </c>
+      <c r="K143" t="n">
+        <v>300</v>
+      </c>
+      <c r="L143" t="n">
         <v>20210125030</v>
       </c>
-      <c r="B142" t="inlineStr">
+      <c r="M143" t="inlineStr">
         <is>
           <t>21:49</t>
         </is>
       </c>
-      <c r="C142" t="inlineStr">
+      <c r="N143" t="inlineStr">
+        <is>
+          <t>V08</t>
+        </is>
+      </c>
+      <c r="O143" t="inlineStr">
+        <is>
+          <t>销-销售6部</t>
+        </is>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="inlineStr"/>
+      <c r="B144" t="inlineStr"/>
+      <c r="C144" t="inlineStr">
         <is>
           <t>2021-01-25</t>
         </is>
       </c>
-      <c r="D142" t="inlineStr">
-        <is>
-          <t>V08</t>
-        </is>
-      </c>
-      <c r="E142" t="inlineStr">
-        <is>
-          <t>(壹万)方块A*76</t>
-        </is>
-      </c>
-      <c r="F142" t="n">
-        <v>10000</v>
-      </c>
-      <c r="G142" t="inlineStr">
-        <is>
-          <t>销-销售6部</t>
-        </is>
-      </c>
-      <c r="H142" t="inlineStr">
-        <is>
-          <t>六部许鹏</t>
-        </is>
-      </c>
-      <c r="I142" t="inlineStr">
-        <is>
-          <t>会员本金</t>
-        </is>
-      </c>
-      <c r="J142" t="n">
-        <v>1</v>
-      </c>
-      <c r="K142" t="n">
-        <v>300</v>
-      </c>
-      <c r="L142" t="inlineStr"/>
-      <c r="M142" t="inlineStr"/>
-      <c r="N142" t="inlineStr"/>
-      <c r="O142" t="inlineStr"/>
-    </row>
-    <row r="143">
-      <c r="A143" t="n">
+      <c r="D144" t="inlineStr"/>
+      <c r="E144" t="inlineStr">
+        <is>
+          <t>(叁仟)方块A*22</t>
+        </is>
+      </c>
+      <c r="F144" t="n">
+        <v>3000</v>
+      </c>
+      <c r="G144" t="inlineStr"/>
+      <c r="H144" t="inlineStr">
+        <is>
+          <t>国际王小雪</t>
+        </is>
+      </c>
+      <c r="I144" t="inlineStr">
+        <is>
+          <t>会员本金,微信</t>
+        </is>
+      </c>
+      <c r="J144" t="n">
+        <v>1</v>
+      </c>
+      <c r="K144" t="n">
+        <v>50</v>
+      </c>
+      <c r="L144" t="n">
         <v>20210125003</v>
       </c>
-      <c r="B143" t="inlineStr">
+      <c r="M144" t="inlineStr">
         <is>
           <t>22:06</t>
         </is>
       </c>
-      <c r="C143" t="inlineStr">
-        <is>
-          <t>2021-01-25</t>
-        </is>
-      </c>
-      <c r="D143" t="inlineStr">
+      <c r="N144" t="inlineStr">
         <is>
           <t>V05</t>
         </is>
       </c>
-      <c r="E143" t="inlineStr">
-        <is>
-          <t>(叁仟)方块A*22</t>
-        </is>
-      </c>
-      <c r="F143" t="n">
-        <v>3000</v>
-      </c>
-      <c r="G143" t="inlineStr">
+      <c r="O144" t="inlineStr">
         <is>
           <t>国际部</t>
         </is>
       </c>
-      <c r="H143" t="inlineStr">
-        <is>
-          <t>国际王小雪</t>
-        </is>
-      </c>
-      <c r="I143" t="inlineStr">
-        <is>
-          <t>会员本金,微信</t>
-        </is>
-      </c>
-      <c r="J143" t="n">
-        <v>1</v>
-      </c>
-      <c r="K143" t="n">
-        <v>50</v>
-      </c>
-      <c r="L143" t="inlineStr"/>
-      <c r="M143" t="inlineStr"/>
-      <c r="N143" t="inlineStr"/>
-      <c r="O143" t="inlineStr"/>
-    </row>
-    <row r="144">
-      <c r="A144" t="n">
-        <v>20210125091</v>
-      </c>
-      <c r="B144" t="inlineStr">
-        <is>
-          <t>00:39</t>
-        </is>
-      </c>
-      <c r="C144" t="inlineStr">
-        <is>
-          <t>2021-01-25</t>
-        </is>
-      </c>
-      <c r="D144" t="inlineStr">
-        <is>
-          <t>V18</t>
-        </is>
-      </c>
-      <c r="E144" t="inlineStr">
-        <is>
-          <t>方块A *1打</t>
-        </is>
-      </c>
-      <c r="F144" t="n">
-        <v>1980</v>
-      </c>
-      <c r="G144" t="inlineStr">
-        <is>
-          <t>独-2部</t>
-        </is>
-      </c>
-      <c r="H144" t="inlineStr">
-        <is>
-          <t>独立2-王凤</t>
-        </is>
-      </c>
-      <c r="I144" t="inlineStr">
-        <is>
-          <t>会员本金,支付宝</t>
-        </is>
-      </c>
-      <c r="J144" t="n">
-        <v>1</v>
-      </c>
-      <c r="K144" t="n">
-        <v>100</v>
-      </c>
-      <c r="L144" t="inlineStr"/>
-      <c r="M144" t="inlineStr"/>
-      <c r="N144" t="inlineStr"/>
-      <c r="O144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr"/>
@@ -8100,21 +8100,21 @@
       <c r="D145" t="inlineStr"/>
       <c r="E145" t="inlineStr">
         <is>
-          <t>(叁仟)方块A*22</t>
+          <t>慕威单支套</t>
         </is>
       </c>
       <c r="F145" t="n">
-        <v>3000</v>
+        <v>880</v>
       </c>
       <c r="G145" t="inlineStr"/>
       <c r="H145" t="inlineStr">
         <is>
-          <t>市场曹梦倩</t>
+          <t>一部赵双</t>
         </is>
       </c>
       <c r="I145" t="inlineStr">
         <is>
-          <t>会员本金</t>
+          <t>会员本金,微信</t>
         </is>
       </c>
       <c r="J145" t="n">
@@ -8124,21 +8124,21 @@
         <v>50</v>
       </c>
       <c r="L145" t="n">
-        <v>20210126012</v>
+        <v>20210126006</v>
       </c>
       <c r="M145" t="inlineStr">
         <is>
-          <t>23:58</t>
+          <t>21:08</t>
         </is>
       </c>
       <c r="N145" t="inlineStr">
         <is>
-          <t>V01</t>
+          <t>V06</t>
         </is>
       </c>
       <c r="O145" t="inlineStr">
         <is>
-          <t>市场部</t>
+          <t>销-销售1部</t>
         </is>
       </c>
     </row>
@@ -8148,7 +8148,7 @@
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>21:20</t>
+          <t>23:58</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
@@ -8163,11 +8163,11 @@
       </c>
       <c r="E146" t="inlineStr">
         <is>
-          <t>(伍仟)查理*7</t>
+          <t>(叁仟)方块A*22</t>
         </is>
       </c>
       <c r="F146" t="n">
-        <v>5000</v>
+        <v>3000</v>
       </c>
       <c r="G146" t="inlineStr">
         <is>
@@ -8181,14 +8181,14 @@
       </c>
       <c r="I146" t="inlineStr">
         <is>
-          <t>会员本金,微信</t>
+          <t>会员本金</t>
         </is>
       </c>
       <c r="J146" t="n">
         <v>1</v>
       </c>
       <c r="K146" t="n">
-        <v>200</v>
+        <v>50</v>
       </c>
       <c r="L146" t="inlineStr"/>
       <c r="M146" t="inlineStr"/>
@@ -8196,26 +8196,40 @@
       <c r="O146" t="inlineStr"/>
     </row>
     <row r="147">
-      <c r="A147" t="inlineStr"/>
-      <c r="B147" t="inlineStr"/>
+      <c r="A147" t="n">
+        <v>20210126006</v>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>21:08</t>
+        </is>
+      </c>
       <c r="C147" t="inlineStr">
         <is>
           <t>2021-01-26</t>
         </is>
       </c>
-      <c r="D147" t="inlineStr"/>
+      <c r="D147" t="inlineStr">
+        <is>
+          <t>V06</t>
+        </is>
+      </c>
       <c r="E147" t="inlineStr">
         <is>
-          <t>(伍仟)查理*7</t>
+          <t>慕威单支套</t>
         </is>
       </c>
       <c r="F147" t="n">
-        <v>5000</v>
-      </c>
-      <c r="G147" t="inlineStr"/>
+        <v>880</v>
+      </c>
+      <c r="G147" t="inlineStr">
+        <is>
+          <t>销-销售1部</t>
+        </is>
+      </c>
       <c r="H147" t="inlineStr">
         <is>
-          <t>市场曹梦倩</t>
+          <t>一部赵双</t>
         </is>
       </c>
       <c r="I147" t="inlineStr">
@@ -8227,46 +8241,22 @@
         <v>1</v>
       </c>
       <c r="K147" t="n">
-        <v>200</v>
-      </c>
-      <c r="L147" t="n">
-        <v>20210126012</v>
-      </c>
-      <c r="M147" t="inlineStr">
-        <is>
-          <t>21:20</t>
-        </is>
-      </c>
-      <c r="N147" t="inlineStr">
-        <is>
-          <t>V01</t>
-        </is>
-      </c>
-      <c r="O147" t="inlineStr">
-        <is>
-          <t>市场部</t>
-        </is>
-      </c>
+        <v>50</v>
+      </c>
+      <c r="L147" t="inlineStr"/>
+      <c r="M147" t="inlineStr"/>
+      <c r="N147" t="inlineStr"/>
+      <c r="O147" t="inlineStr"/>
     </row>
     <row r="148">
-      <c r="A148" t="n">
-        <v>20210126058</v>
-      </c>
-      <c r="B148" t="inlineStr">
-        <is>
-          <t>23:03</t>
-        </is>
-      </c>
+      <c r="A148" t="inlineStr"/>
+      <c r="B148" t="inlineStr"/>
       <c r="C148" t="inlineStr">
         <is>
           <t>2021-01-26</t>
         </is>
       </c>
-      <c r="D148" t="inlineStr">
-        <is>
-          <t>V20</t>
-        </is>
-      </c>
+      <c r="D148" t="inlineStr"/>
       <c r="E148" t="inlineStr">
         <is>
           <t>方块A *1打</t>
@@ -8275,11 +8265,7 @@
       <c r="F148" t="n">
         <v>1980</v>
       </c>
-      <c r="G148" t="inlineStr">
-        <is>
-          <t>先锋团</t>
-        </is>
-      </c>
+      <c r="G148" t="inlineStr"/>
       <c r="H148" t="inlineStr">
         <is>
           <t>先锋杨秀兰</t>
@@ -8296,46 +8282,46 @@
       <c r="K148" t="n">
         <v>100</v>
       </c>
-      <c r="L148" t="inlineStr"/>
-      <c r="M148" t="inlineStr"/>
-      <c r="N148" t="inlineStr"/>
-      <c r="O148" t="inlineStr"/>
+      <c r="L148" t="n">
+        <v>20210126058</v>
+      </c>
+      <c r="M148" t="inlineStr">
+        <is>
+          <t>23:03</t>
+        </is>
+      </c>
+      <c r="N148" t="inlineStr">
+        <is>
+          <t>V20</t>
+        </is>
+      </c>
+      <c r="O148" t="inlineStr">
+        <is>
+          <t>先锋团</t>
+        </is>
+      </c>
     </row>
     <row r="149">
-      <c r="A149" t="n">
-        <v>20210126006</v>
-      </c>
-      <c r="B149" t="inlineStr">
-        <is>
-          <t>21:08</t>
-        </is>
-      </c>
+      <c r="A149" t="inlineStr"/>
+      <c r="B149" t="inlineStr"/>
       <c r="C149" t="inlineStr">
         <is>
           <t>2021-01-26</t>
         </is>
       </c>
-      <c r="D149" t="inlineStr">
-        <is>
-          <t>V06</t>
-        </is>
-      </c>
+      <c r="D149" t="inlineStr"/>
       <c r="E149" t="inlineStr">
         <is>
-          <t>慕威单支套</t>
+          <t>(伍仟)查理*7</t>
         </is>
       </c>
       <c r="F149" t="n">
-        <v>880</v>
-      </c>
-      <c r="G149" t="inlineStr">
-        <is>
-          <t>销-销售1部</t>
-        </is>
-      </c>
+        <v>5000</v>
+      </c>
+      <c r="G149" t="inlineStr"/>
       <c r="H149" t="inlineStr">
         <is>
-          <t>一部赵双</t>
+          <t>市场曹梦倩</t>
         </is>
       </c>
       <c r="I149" t="inlineStr">
@@ -8347,12 +8333,26 @@
         <v>1</v>
       </c>
       <c r="K149" t="n">
-        <v>50</v>
-      </c>
-      <c r="L149" t="inlineStr"/>
-      <c r="M149" t="inlineStr"/>
-      <c r="N149" t="inlineStr"/>
-      <c r="O149" t="inlineStr"/>
+        <v>200</v>
+      </c>
+      <c r="L149" t="n">
+        <v>20210126012</v>
+      </c>
+      <c r="M149" t="inlineStr">
+        <is>
+          <t>21:20</t>
+        </is>
+      </c>
+      <c r="N149" t="inlineStr">
+        <is>
+          <t>V01</t>
+        </is>
+      </c>
+      <c r="O149" t="inlineStr">
+        <is>
+          <t>市场部</t>
+        </is>
+      </c>
     </row>
     <row r="150">
       <c r="A150" t="n">
@@ -8360,7 +8360,7 @@
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>23:58</t>
+          <t>21:20</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
@@ -8375,11 +8375,11 @@
       </c>
       <c r="E150" t="inlineStr">
         <is>
-          <t>(叁仟)方块A*22</t>
+          <t>(伍仟)查理*7</t>
         </is>
       </c>
       <c r="F150" t="n">
-        <v>3000</v>
+        <v>5000</v>
       </c>
       <c r="G150" t="inlineStr">
         <is>
@@ -8393,14 +8393,14 @@
       </c>
       <c r="I150" t="inlineStr">
         <is>
-          <t>会员本金</t>
+          <t>会员本金,微信</t>
         </is>
       </c>
       <c r="J150" t="n">
         <v>1</v>
       </c>
       <c r="K150" t="n">
-        <v>50</v>
+        <v>200</v>
       </c>
       <c r="L150" t="inlineStr"/>
       <c r="M150" t="inlineStr"/>
@@ -8418,100 +8418,100 @@
       <c r="D151" t="inlineStr"/>
       <c r="E151" t="inlineStr">
         <is>
-          <t>方块A *1打</t>
+          <t>(叁仟)方块A*22</t>
         </is>
       </c>
       <c r="F151" t="n">
-        <v>1980</v>
+        <v>3000</v>
       </c>
       <c r="G151" t="inlineStr"/>
       <c r="H151" t="inlineStr">
         <is>
+          <t>市场曹梦倩</t>
+        </is>
+      </c>
+      <c r="I151" t="inlineStr">
+        <is>
+          <t>会员本金</t>
+        </is>
+      </c>
+      <c r="J151" t="n">
+        <v>1</v>
+      </c>
+      <c r="K151" t="n">
+        <v>50</v>
+      </c>
+      <c r="L151" t="n">
+        <v>20210126012</v>
+      </c>
+      <c r="M151" t="inlineStr">
+        <is>
+          <t>23:58</t>
+        </is>
+      </c>
+      <c r="N151" t="inlineStr">
+        <is>
+          <t>V01</t>
+        </is>
+      </c>
+      <c r="O151" t="inlineStr">
+        <is>
+          <t>市场部</t>
+        </is>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="n">
+        <v>20210126058</v>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>23:03</t>
+        </is>
+      </c>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t>2021-01-26</t>
+        </is>
+      </c>
+      <c r="D152" t="inlineStr">
+        <is>
+          <t>V20</t>
+        </is>
+      </c>
+      <c r="E152" t="inlineStr">
+        <is>
+          <t>方块A *1打</t>
+        </is>
+      </c>
+      <c r="F152" t="n">
+        <v>1980</v>
+      </c>
+      <c r="G152" t="inlineStr">
+        <is>
+          <t>先锋团</t>
+        </is>
+      </c>
+      <c r="H152" t="inlineStr">
+        <is>
           <t>先锋杨秀兰</t>
         </is>
       </c>
-      <c r="I151" t="inlineStr">
+      <c r="I152" t="inlineStr">
         <is>
           <t>会员本金,微信</t>
         </is>
       </c>
-      <c r="J151" t="n">
-        <v>1</v>
-      </c>
-      <c r="K151" t="n">
+      <c r="J152" t="n">
+        <v>1</v>
+      </c>
+      <c r="K152" t="n">
         <v>100</v>
       </c>
-      <c r="L151" t="n">
-        <v>20210126058</v>
-      </c>
-      <c r="M151" t="inlineStr">
-        <is>
-          <t>23:03</t>
-        </is>
-      </c>
-      <c r="N151" t="inlineStr">
-        <is>
-          <t>V20</t>
-        </is>
-      </c>
-      <c r="O151" t="inlineStr">
-        <is>
-          <t>先锋团</t>
-        </is>
-      </c>
-    </row>
-    <row r="152">
-      <c r="A152" t="inlineStr"/>
-      <c r="B152" t="inlineStr"/>
-      <c r="C152" t="inlineStr">
-        <is>
-          <t>2021-01-26</t>
-        </is>
-      </c>
-      <c r="D152" t="inlineStr"/>
-      <c r="E152" t="inlineStr">
-        <is>
-          <t>慕威单支套</t>
-        </is>
-      </c>
-      <c r="F152" t="n">
-        <v>880</v>
-      </c>
-      <c r="G152" t="inlineStr"/>
-      <c r="H152" t="inlineStr">
-        <is>
-          <t>一部赵双</t>
-        </is>
-      </c>
-      <c r="I152" t="inlineStr">
-        <is>
-          <t>会员本金,微信</t>
-        </is>
-      </c>
-      <c r="J152" t="n">
-        <v>1</v>
-      </c>
-      <c r="K152" t="n">
-        <v>50</v>
-      </c>
-      <c r="L152" t="n">
-        <v>20210126006</v>
-      </c>
-      <c r="M152" t="inlineStr">
-        <is>
-          <t>21:08</t>
-        </is>
-      </c>
-      <c r="N152" t="inlineStr">
-        <is>
-          <t>V06</t>
-        </is>
-      </c>
-      <c r="O152" t="inlineStr">
-        <is>
-          <t>销-销售1部</t>
-        </is>
-      </c>
+      <c r="L152" t="inlineStr"/>
+      <c r="M152" t="inlineStr"/>
+      <c r="N152" t="inlineStr"/>
+      <c r="O152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" t="n">
@@ -8832,14 +8832,24 @@
       <c r="O158" t="inlineStr"/>
     </row>
     <row r="159">
-      <c r="A159" t="inlineStr"/>
-      <c r="B159" t="inlineStr"/>
+      <c r="A159" t="n">
+        <v>20210128037</v>
+      </c>
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>22:43</t>
+        </is>
+      </c>
       <c r="C159" t="inlineStr">
         <is>
           <t>2021-01-28</t>
         </is>
       </c>
-      <c r="D159" t="inlineStr"/>
+      <c r="D159" t="inlineStr">
+        <is>
+          <t>V25</t>
+        </is>
+      </c>
       <c r="E159" t="inlineStr">
         <is>
           <t>(叁仟)查理*4+R香槟*2</t>
@@ -8848,7 +8858,11 @@
       <c r="F159" t="n">
         <v>3000</v>
       </c>
-      <c r="G159" t="inlineStr"/>
+      <c r="G159" t="inlineStr">
+        <is>
+          <t>出品部</t>
+        </is>
+      </c>
       <c r="H159" t="inlineStr">
         <is>
           <t>收银韩群会</t>
@@ -8865,44 +8879,20 @@
       <c r="K159" t="n">
         <v>50</v>
       </c>
-      <c r="L159" t="n">
-        <v>20210128037</v>
-      </c>
-      <c r="M159" t="inlineStr">
-        <is>
-          <t>22:43</t>
-        </is>
-      </c>
-      <c r="N159" t="inlineStr">
-        <is>
-          <t>V25</t>
-        </is>
-      </c>
-      <c r="O159" t="inlineStr">
-        <is>
-          <t>出品部</t>
-        </is>
-      </c>
+      <c r="L159" t="inlineStr"/>
+      <c r="M159" t="inlineStr"/>
+      <c r="N159" t="inlineStr"/>
+      <c r="O159" t="inlineStr"/>
     </row>
     <row r="160">
-      <c r="A160" t="n">
-        <v>20210128068</v>
-      </c>
-      <c r="B160" t="inlineStr">
-        <is>
-          <t>00:45</t>
-        </is>
-      </c>
+      <c r="A160" t="inlineStr"/>
+      <c r="B160" t="inlineStr"/>
       <c r="C160" t="inlineStr">
         <is>
           <t>2021-01-28</t>
         </is>
       </c>
-      <c r="D160" t="inlineStr">
-        <is>
-          <t>V25</t>
-        </is>
-      </c>
+      <c r="D160" t="inlineStr"/>
       <c r="E160" t="inlineStr">
         <is>
           <t>(叁仟)方块A*22</t>
@@ -8911,11 +8901,7 @@
       <c r="F160" t="n">
         <v>3000</v>
       </c>
-      <c r="G160" t="inlineStr">
-        <is>
-          <t>先锋团</t>
-        </is>
-      </c>
+      <c r="G160" t="inlineStr"/>
       <c r="H160" t="inlineStr">
         <is>
           <t>先锋-聂登雄</t>
@@ -8932,20 +8918,44 @@
       <c r="K160" t="n">
         <v>50</v>
       </c>
-      <c r="L160" t="inlineStr"/>
-      <c r="M160" t="inlineStr"/>
-      <c r="N160" t="inlineStr"/>
-      <c r="O160" t="inlineStr"/>
+      <c r="L160" t="n">
+        <v>20210128068</v>
+      </c>
+      <c r="M160" t="inlineStr">
+        <is>
+          <t>00:45</t>
+        </is>
+      </c>
+      <c r="N160" t="inlineStr">
+        <is>
+          <t>V25</t>
+        </is>
+      </c>
+      <c r="O160" t="inlineStr">
+        <is>
+          <t>先锋团</t>
+        </is>
+      </c>
     </row>
     <row r="161">
-      <c r="A161" t="inlineStr"/>
-      <c r="B161" t="inlineStr"/>
+      <c r="A161" t="n">
+        <v>20210128052</v>
+      </c>
+      <c r="B161" t="inlineStr">
+        <is>
+          <t>00:54</t>
+        </is>
+      </c>
       <c r="C161" t="inlineStr">
         <is>
           <t>2021-01-28</t>
         </is>
       </c>
-      <c r="D161" t="inlineStr"/>
+      <c r="D161" t="inlineStr">
+        <is>
+          <t>V16+</t>
+        </is>
+      </c>
       <c r="E161" t="inlineStr">
         <is>
           <t>气氛扇子</t>
@@ -8954,7 +8964,11 @@
       <c r="F161" t="n">
         <v>68</v>
       </c>
-      <c r="G161" t="inlineStr"/>
+      <c r="G161" t="inlineStr">
+        <is>
+          <t>销-销售6部</t>
+        </is>
+      </c>
       <c r="H161" t="inlineStr">
         <is>
           <t>六部费义伦</t>
@@ -8971,34 +8985,30 @@
       <c r="K161" t="n">
         <v>10</v>
       </c>
-      <c r="L161" t="n">
-        <v>20210128052</v>
-      </c>
-      <c r="M161" t="inlineStr">
-        <is>
-          <t>00:54</t>
-        </is>
-      </c>
-      <c r="N161" t="inlineStr">
-        <is>
-          <t>V16+</t>
-        </is>
-      </c>
-      <c r="O161" t="inlineStr">
-        <is>
-          <t>销-销售6部</t>
-        </is>
-      </c>
+      <c r="L161" t="inlineStr"/>
+      <c r="M161" t="inlineStr"/>
+      <c r="N161" t="inlineStr"/>
+      <c r="O161" t="inlineStr"/>
     </row>
     <row r="162">
-      <c r="A162" t="inlineStr"/>
-      <c r="B162" t="inlineStr"/>
+      <c r="A162" t="n">
+        <v>20210128068</v>
+      </c>
+      <c r="B162" t="inlineStr">
+        <is>
+          <t>00:45</t>
+        </is>
+      </c>
       <c r="C162" t="inlineStr">
         <is>
           <t>2021-01-28</t>
         </is>
       </c>
-      <c r="D162" t="inlineStr"/>
+      <c r="D162" t="inlineStr">
+        <is>
+          <t>V25</t>
+        </is>
+      </c>
       <c r="E162" t="inlineStr">
         <is>
           <t>(叁仟)方块A*22</t>
@@ -9007,7 +9017,11 @@
       <c r="F162" t="n">
         <v>3000</v>
       </c>
-      <c r="G162" t="inlineStr"/>
+      <c r="G162" t="inlineStr">
+        <is>
+          <t>先锋团</t>
+        </is>
+      </c>
       <c r="H162" t="inlineStr">
         <is>
           <t>先锋-聂登雄</t>
@@ -9024,130 +9038,116 @@
       <c r="K162" t="n">
         <v>50</v>
       </c>
-      <c r="L162" t="n">
-        <v>20210128068</v>
-      </c>
-      <c r="M162" t="inlineStr">
-        <is>
-          <t>00:45</t>
-        </is>
-      </c>
-      <c r="N162" t="inlineStr">
+      <c r="L162" t="inlineStr"/>
+      <c r="M162" t="inlineStr"/>
+      <c r="N162" t="inlineStr"/>
+      <c r="O162" t="inlineStr"/>
+    </row>
+    <row r="163">
+      <c r="A163" t="inlineStr"/>
+      <c r="B163" t="inlineStr"/>
+      <c r="C163" t="inlineStr">
+        <is>
+          <t>2021-01-28</t>
+        </is>
+      </c>
+      <c r="D163" t="inlineStr"/>
+      <c r="E163" t="inlineStr">
+        <is>
+          <t>(叁仟)查理*4+R香槟*2</t>
+        </is>
+      </c>
+      <c r="F163" t="n">
+        <v>3000</v>
+      </c>
+      <c r="G163" t="inlineStr"/>
+      <c r="H163" t="inlineStr">
+        <is>
+          <t>收银韩群会</t>
+        </is>
+      </c>
+      <c r="I163" t="inlineStr">
+        <is>
+          <t>会员本金,支付宝</t>
+        </is>
+      </c>
+      <c r="J163" t="n">
+        <v>1</v>
+      </c>
+      <c r="K163" t="n">
+        <v>50</v>
+      </c>
+      <c r="L163" t="n">
+        <v>20210128037</v>
+      </c>
+      <c r="M163" t="inlineStr">
+        <is>
+          <t>22:43</t>
+        </is>
+      </c>
+      <c r="N163" t="inlineStr">
         <is>
           <t>V25</t>
         </is>
       </c>
-      <c r="O162" t="inlineStr">
-        <is>
-          <t>先锋团</t>
-        </is>
-      </c>
-    </row>
-    <row r="163">
-      <c r="A163" t="n">
+      <c r="O163" t="inlineStr">
+        <is>
+          <t>出品部</t>
+        </is>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="inlineStr"/>
+      <c r="B164" t="inlineStr"/>
+      <c r="C164" t="inlineStr">
+        <is>
+          <t>2021-01-28</t>
+        </is>
+      </c>
+      <c r="D164" t="inlineStr"/>
+      <c r="E164" t="inlineStr">
+        <is>
+          <t>气氛扇子</t>
+        </is>
+      </c>
+      <c r="F164" t="n">
+        <v>68</v>
+      </c>
+      <c r="G164" t="inlineStr"/>
+      <c r="H164" t="inlineStr">
+        <is>
+          <t>六部费义伦</t>
+        </is>
+      </c>
+      <c r="I164" t="inlineStr">
+        <is>
+          <t>微信</t>
+        </is>
+      </c>
+      <c r="J164" t="n">
+        <v>1</v>
+      </c>
+      <c r="K164" t="n">
+        <v>10</v>
+      </c>
+      <c r="L164" t="n">
         <v>20210128052</v>
       </c>
-      <c r="B163" t="inlineStr">
+      <c r="M164" t="inlineStr">
         <is>
           <t>00:54</t>
         </is>
       </c>
-      <c r="C163" t="inlineStr">
-        <is>
-          <t>2021-01-28</t>
-        </is>
-      </c>
-      <c r="D163" t="inlineStr">
+      <c r="N164" t="inlineStr">
         <is>
           <t>V16+</t>
         </is>
       </c>
-      <c r="E163" t="inlineStr">
-        <is>
-          <t>气氛扇子</t>
-        </is>
-      </c>
-      <c r="F163" t="n">
-        <v>68</v>
-      </c>
-      <c r="G163" t="inlineStr">
+      <c r="O164" t="inlineStr">
         <is>
           <t>销-销售6部</t>
         </is>
       </c>
-      <c r="H163" t="inlineStr">
-        <is>
-          <t>六部费义伦</t>
-        </is>
-      </c>
-      <c r="I163" t="inlineStr">
-        <is>
-          <t>微信</t>
-        </is>
-      </c>
-      <c r="J163" t="n">
-        <v>1</v>
-      </c>
-      <c r="K163" t="n">
-        <v>10</v>
-      </c>
-      <c r="L163" t="inlineStr"/>
-      <c r="M163" t="inlineStr"/>
-      <c r="N163" t="inlineStr"/>
-      <c r="O163" t="inlineStr"/>
-    </row>
-    <row r="164">
-      <c r="A164" t="n">
-        <v>20210128037</v>
-      </c>
-      <c r="B164" t="inlineStr">
-        <is>
-          <t>22:43</t>
-        </is>
-      </c>
-      <c r="C164" t="inlineStr">
-        <is>
-          <t>2021-01-28</t>
-        </is>
-      </c>
-      <c r="D164" t="inlineStr">
-        <is>
-          <t>V25</t>
-        </is>
-      </c>
-      <c r="E164" t="inlineStr">
-        <is>
-          <t>(叁仟)查理*4+R香槟*2</t>
-        </is>
-      </c>
-      <c r="F164" t="n">
-        <v>3000</v>
-      </c>
-      <c r="G164" t="inlineStr">
-        <is>
-          <t>出品部</t>
-        </is>
-      </c>
-      <c r="H164" t="inlineStr">
-        <is>
-          <t>收银韩群会</t>
-        </is>
-      </c>
-      <c r="I164" t="inlineStr">
-        <is>
-          <t>会员本金,支付宝</t>
-        </is>
-      </c>
-      <c r="J164" t="n">
-        <v>1</v>
-      </c>
-      <c r="K164" t="n">
-        <v>50</v>
-      </c>
-      <c r="L164" t="inlineStr"/>
-      <c r="M164" t="inlineStr"/>
-      <c r="N164" t="inlineStr"/>
-      <c r="O164" t="inlineStr"/>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr"/>
@@ -9188,7 +9188,7 @@
       </c>
       <c r="M165" t="inlineStr">
         <is>
-          <t>22:58</t>
+          <t>23:12</t>
         </is>
       </c>
       <c r="N165" t="inlineStr">
@@ -9208,7 +9208,7 @@
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>23:12</t>
+          <t>22:58</t>
         </is>
       </c>
       <c r="C166" t="inlineStr">
@@ -9256,24 +9256,14 @@
       <c r="O166" t="inlineStr"/>
     </row>
     <row r="167">
-      <c r="A167" t="n">
-        <v>20210129036</v>
-      </c>
-      <c r="B167" t="inlineStr">
-        <is>
-          <t>22:58</t>
-        </is>
-      </c>
+      <c r="A167" t="inlineStr"/>
+      <c r="B167" t="inlineStr"/>
       <c r="C167" t="inlineStr">
         <is>
           <t>2021-01-29</t>
         </is>
       </c>
-      <c r="D167" t="inlineStr">
-        <is>
-          <t>K09</t>
-        </is>
-      </c>
+      <c r="D167" t="inlineStr"/>
       <c r="E167" t="inlineStr">
         <is>
           <t>气氛扇子</t>
@@ -9282,11 +9272,7 @@
       <c r="F167" t="n">
         <v>68</v>
       </c>
-      <c r="G167" t="inlineStr">
-        <is>
-          <t>销-销售2部</t>
-        </is>
-      </c>
+      <c r="G167" t="inlineStr"/>
       <c r="H167" t="inlineStr">
         <is>
           <t>二部李梅梅</t>
@@ -9303,20 +9289,44 @@
       <c r="K167" t="n">
         <v>10</v>
       </c>
-      <c r="L167" t="inlineStr"/>
-      <c r="M167" t="inlineStr"/>
-      <c r="N167" t="inlineStr"/>
-      <c r="O167" t="inlineStr"/>
+      <c r="L167" t="n">
+        <v>20210129036</v>
+      </c>
+      <c r="M167" t="inlineStr">
+        <is>
+          <t>22:58</t>
+        </is>
+      </c>
+      <c r="N167" t="inlineStr">
+        <is>
+          <t>K09</t>
+        </is>
+      </c>
+      <c r="O167" t="inlineStr">
+        <is>
+          <t>销-销售2部</t>
+        </is>
+      </c>
     </row>
     <row r="168">
-      <c r="A168" t="inlineStr"/>
-      <c r="B168" t="inlineStr"/>
+      <c r="A168" t="n">
+        <v>20210129036</v>
+      </c>
+      <c r="B168" t="inlineStr">
+        <is>
+          <t>23:12</t>
+        </is>
+      </c>
       <c r="C168" t="inlineStr">
         <is>
           <t>2021-01-29</t>
         </is>
       </c>
-      <c r="D168" t="inlineStr"/>
+      <c r="D168" t="inlineStr">
+        <is>
+          <t>K09</t>
+        </is>
+      </c>
       <c r="E168" t="inlineStr">
         <is>
           <t>气氛扇子</t>
@@ -9325,7 +9335,11 @@
       <c r="F168" t="n">
         <v>68</v>
       </c>
-      <c r="G168" t="inlineStr"/>
+      <c r="G168" t="inlineStr">
+        <is>
+          <t>销-销售2部</t>
+        </is>
+      </c>
       <c r="H168" t="inlineStr">
         <is>
           <t>二部李梅梅</t>
@@ -9342,24 +9356,10 @@
       <c r="K168" t="n">
         <v>10</v>
       </c>
-      <c r="L168" t="n">
-        <v>20210129036</v>
-      </c>
-      <c r="M168" t="inlineStr">
-        <is>
-          <t>23:12</t>
-        </is>
-      </c>
-      <c r="N168" t="inlineStr">
-        <is>
-          <t>K09</t>
-        </is>
-      </c>
-      <c r="O168" t="inlineStr">
-        <is>
-          <t>销-销售2部</t>
-        </is>
-      </c>
+      <c r="L168" t="inlineStr"/>
+      <c r="M168" t="inlineStr"/>
+      <c r="N168" t="inlineStr"/>
+      <c r="O168" t="inlineStr"/>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr"/>
@@ -9372,100 +9372,100 @@
       <c r="D169" t="inlineStr"/>
       <c r="E169" t="inlineStr">
         <is>
-          <t>(伍仟)慕威*7</t>
+          <t>方块A *1打</t>
         </is>
       </c>
       <c r="F169" t="n">
-        <v>5000</v>
+        <v>1980</v>
       </c>
       <c r="G169" t="inlineStr"/>
       <c r="H169" t="inlineStr">
         <is>
-          <t>一部管毓寿</t>
+          <t>二部徐超</t>
         </is>
       </c>
       <c r="I169" t="inlineStr">
         <is>
+          <t>微信</t>
+        </is>
+      </c>
+      <c r="J169" t="n">
+        <v>1</v>
+      </c>
+      <c r="K169" t="n">
+        <v>100</v>
+      </c>
+      <c r="L169" t="n">
+        <v>20210130082</v>
+      </c>
+      <c r="M169" t="inlineStr">
+        <is>
+          <t>02:07</t>
+        </is>
+      </c>
+      <c r="N169" t="inlineStr">
+        <is>
+          <t>空降5</t>
+        </is>
+      </c>
+      <c r="O169" t="inlineStr">
+        <is>
+          <t>销-销售2部</t>
+        </is>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="n">
+        <v>20210130007</v>
+      </c>
+      <c r="B170" t="inlineStr">
+        <is>
+          <t>20:07</t>
+        </is>
+      </c>
+      <c r="C170" t="inlineStr">
+        <is>
+          <t>2021-01-30</t>
+        </is>
+      </c>
+      <c r="D170" t="inlineStr">
+        <is>
+          <t>V25</t>
+        </is>
+      </c>
+      <c r="E170" t="inlineStr">
+        <is>
+          <t>(伍仟)慕威*7</t>
+        </is>
+      </c>
+      <c r="F170" t="n">
+        <v>5000</v>
+      </c>
+      <c r="G170" t="inlineStr">
+        <is>
+          <t>国际部</t>
+        </is>
+      </c>
+      <c r="H170" t="inlineStr">
+        <is>
+          <t>国际孙启鹏</t>
+        </is>
+      </c>
+      <c r="I170" t="inlineStr">
+        <is>
           <t>挂账</t>
         </is>
       </c>
-      <c r="J169" t="n">
-        <v>1</v>
-      </c>
-      <c r="K169" t="n">
+      <c r="J170" t="n">
+        <v>1</v>
+      </c>
+      <c r="K170" t="n">
         <v>200</v>
       </c>
-      <c r="L169" t="n">
-        <v>20210130074</v>
-      </c>
-      <c r="M169" t="inlineStr">
-        <is>
-          <t>01:08</t>
-        </is>
-      </c>
-      <c r="N169" t="inlineStr">
-        <is>
-          <t>空降2</t>
-        </is>
-      </c>
-      <c r="O169" t="inlineStr">
-        <is>
-          <t>销-销售1部</t>
-        </is>
-      </c>
-    </row>
-    <row r="170">
-      <c r="A170" t="inlineStr"/>
-      <c r="B170" t="inlineStr"/>
-      <c r="C170" t="inlineStr">
-        <is>
-          <t>2021-01-30</t>
-        </is>
-      </c>
-      <c r="D170" t="inlineStr"/>
-      <c r="E170" t="inlineStr">
-        <is>
-          <t>(叁仟)方块A*22</t>
-        </is>
-      </c>
-      <c r="F170" t="n">
-        <v>3000</v>
-      </c>
-      <c r="G170" t="inlineStr"/>
-      <c r="H170" t="inlineStr">
-        <is>
-          <t>陶汝维</t>
-        </is>
-      </c>
-      <c r="I170" t="inlineStr">
-        <is>
-          <t>微信</t>
-        </is>
-      </c>
-      <c r="J170" t="n">
-        <v>1</v>
-      </c>
-      <c r="K170" t="n">
-        <v>50</v>
-      </c>
-      <c r="L170" t="n">
-        <v>20210130057</v>
-      </c>
-      <c r="M170" t="inlineStr">
-        <is>
-          <t>00:26</t>
-        </is>
-      </c>
-      <c r="N170" t="inlineStr">
-        <is>
-          <t>K13</t>
-        </is>
-      </c>
-      <c r="O170" t="inlineStr">
-        <is>
-          <t>总-行政</t>
-        </is>
-      </c>
+      <c r="L170" t="inlineStr"/>
+      <c r="M170" t="inlineStr"/>
+      <c r="N170" t="inlineStr"/>
+      <c r="O170" t="inlineStr"/>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr"/>
@@ -9478,7 +9478,7 @@
       <c r="D171" t="inlineStr"/>
       <c r="E171" t="inlineStr">
         <is>
-          <t>(叁仟)V粉*5</t>
+          <t>(叁仟)方块A*22</t>
         </is>
       </c>
       <c r="F171" t="n">
@@ -9487,12 +9487,12 @@
       <c r="G171" t="inlineStr"/>
       <c r="H171" t="inlineStr">
         <is>
-          <t>一部赵双</t>
+          <t>陶汝维</t>
         </is>
       </c>
       <c r="I171" t="inlineStr">
         <is>
-          <t>支付宝</t>
+          <t>会员本金,微信</t>
         </is>
       </c>
       <c r="J171" t="n">
@@ -9502,31 +9502,31 @@
         <v>50</v>
       </c>
       <c r="L171" t="n">
-        <v>20210130046</v>
+        <v>20210130014</v>
       </c>
       <c r="M171" t="inlineStr">
         <is>
-          <t>22:14</t>
+          <t>20:37</t>
         </is>
       </c>
       <c r="N171" t="inlineStr">
         <is>
-          <t>空降房1</t>
+          <t>V18</t>
         </is>
       </c>
       <c r="O171" t="inlineStr">
         <is>
-          <t>销-销售1部</t>
+          <t>总-行政</t>
         </is>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="n">
-        <v>20210130082</v>
+        <v>20210130064</v>
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>02:07</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
@@ -9536,16 +9536,16 @@
       </c>
       <c r="D172" t="inlineStr">
         <is>
-          <t>空降5</t>
+          <t>666</t>
         </is>
       </c>
       <c r="E172" t="inlineStr">
         <is>
-          <t>方块A *1打</t>
+          <t>(叁仟)方块A*22</t>
         </is>
       </c>
       <c r="F172" t="n">
-        <v>1980</v>
+        <v>3000</v>
       </c>
       <c r="G172" t="inlineStr">
         <is>
@@ -9554,19 +9554,19 @@
       </c>
       <c r="H172" t="inlineStr">
         <is>
-          <t>二部徐超</t>
+          <t>二部安祖培</t>
         </is>
       </c>
       <c r="I172" t="inlineStr">
         <is>
-          <t>微信</t>
+          <t>会员本金,微信</t>
         </is>
       </c>
       <c r="J172" t="n">
         <v>1</v>
       </c>
       <c r="K172" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="L172" t="inlineStr"/>
       <c r="M172" t="inlineStr"/>
@@ -9574,118 +9574,118 @@
       <c r="O172" t="inlineStr"/>
     </row>
     <row r="173">
-      <c r="A173" t="inlineStr"/>
-      <c r="B173" t="inlineStr"/>
+      <c r="A173" t="n">
+        <v>20210130014</v>
+      </c>
+      <c r="B173" t="inlineStr">
+        <is>
+          <t>20:37</t>
+        </is>
+      </c>
       <c r="C173" t="inlineStr">
         <is>
           <t>2021-01-30</t>
         </is>
       </c>
-      <c r="D173" t="inlineStr"/>
+      <c r="D173" t="inlineStr">
+        <is>
+          <t>V18</t>
+        </is>
+      </c>
       <c r="E173" t="inlineStr">
         <is>
+          <t>(叁仟)方块A*22</t>
+        </is>
+      </c>
+      <c r="F173" t="n">
+        <v>3000</v>
+      </c>
+      <c r="G173" t="inlineStr">
+        <is>
+          <t>总-行政</t>
+        </is>
+      </c>
+      <c r="H173" t="inlineStr">
+        <is>
+          <t>陶汝维</t>
+        </is>
+      </c>
+      <c r="I173" t="inlineStr">
+        <is>
+          <t>会员本金,微信</t>
+        </is>
+      </c>
+      <c r="J173" t="n">
+        <v>1</v>
+      </c>
+      <c r="K173" t="n">
+        <v>50</v>
+      </c>
+      <c r="L173" t="inlineStr"/>
+      <c r="M173" t="inlineStr"/>
+      <c r="N173" t="inlineStr"/>
+      <c r="O173" t="inlineStr"/>
+    </row>
+    <row r="174">
+      <c r="A174" t="n">
+        <v>20210130047</v>
+      </c>
+      <c r="B174" t="inlineStr">
+        <is>
+          <t>23:30</t>
+        </is>
+      </c>
+      <c r="C174" t="inlineStr">
+        <is>
+          <t>2021-01-30</t>
+        </is>
+      </c>
+      <c r="D174" t="inlineStr">
+        <is>
+          <t>K19</t>
+        </is>
+      </c>
+      <c r="E174" t="inlineStr">
+        <is>
           <t>气氛扇子</t>
         </is>
       </c>
-      <c r="F173" t="n">
+      <c r="F174" t="n">
         <v>68</v>
       </c>
-      <c r="G173" t="inlineStr"/>
-      <c r="H173" t="inlineStr">
+      <c r="G174" t="inlineStr">
+        <is>
+          <t>运营部</t>
+        </is>
+      </c>
+      <c r="H174" t="inlineStr">
         <is>
           <t>运营李健康</t>
         </is>
       </c>
-      <c r="I173" t="inlineStr">
+      <c r="I174" t="inlineStr">
         <is>
           <t>微信</t>
         </is>
       </c>
-      <c r="J173" t="n">
-        <v>1</v>
-      </c>
-      <c r="K173" t="n">
+      <c r="J174" t="n">
+        <v>1</v>
+      </c>
+      <c r="K174" t="n">
         <v>10</v>
       </c>
-      <c r="L173" t="n">
-        <v>20210130047</v>
-      </c>
-      <c r="M173" t="inlineStr">
-        <is>
-          <t>23:30</t>
-        </is>
-      </c>
-      <c r="N173" t="inlineStr">
-        <is>
-          <t>K19</t>
-        </is>
-      </c>
-      <c r="O173" t="inlineStr">
-        <is>
-          <t>运营部</t>
-        </is>
-      </c>
-    </row>
-    <row r="174">
-      <c r="A174" t="inlineStr"/>
-      <c r="B174" t="inlineStr"/>
-      <c r="C174" t="inlineStr">
-        <is>
-          <t>2021-01-30</t>
-        </is>
-      </c>
-      <c r="D174" t="inlineStr"/>
-      <c r="E174" t="inlineStr">
-        <is>
-          <t>(叁仟)方块A*22</t>
-        </is>
-      </c>
-      <c r="F174" t="n">
-        <v>3000</v>
-      </c>
-      <c r="G174" t="inlineStr"/>
-      <c r="H174" t="inlineStr">
-        <is>
-          <t>二部安祖培</t>
-        </is>
-      </c>
-      <c r="I174" t="inlineStr">
-        <is>
-          <t>会员本金,微信</t>
-        </is>
-      </c>
-      <c r="J174" t="n">
-        <v>1</v>
-      </c>
-      <c r="K174" t="n">
-        <v>50</v>
-      </c>
-      <c r="L174" t="n">
-        <v>20210130064</v>
-      </c>
-      <c r="M174" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
-      <c r="N174" t="inlineStr">
-        <is>
-          <t>666</t>
-        </is>
-      </c>
-      <c r="O174" t="inlineStr">
-        <is>
-          <t>销-销售2部</t>
-        </is>
-      </c>
+      <c r="L174" t="inlineStr"/>
+      <c r="M174" t="inlineStr"/>
+      <c r="N174" t="inlineStr"/>
+      <c r="O174" t="inlineStr"/>
     </row>
     <row r="175">
       <c r="A175" t="n">
-        <v>20210130064</v>
+        <v>20210130049</v>
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>00:29</t>
+          <t>22:22</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
@@ -9695,7 +9695,7 @@
       </c>
       <c r="D175" t="inlineStr">
         <is>
-          <t>666</t>
+          <t>V01</t>
         </is>
       </c>
       <c r="E175" t="inlineStr">
@@ -9708,17 +9708,17 @@
       </c>
       <c r="G175" t="inlineStr">
         <is>
-          <t>销-销售2部</t>
+          <t>国际部</t>
         </is>
       </c>
       <c r="H175" t="inlineStr">
         <is>
-          <t>二部安祖培</t>
+          <t>国际杨菊</t>
         </is>
       </c>
       <c r="I175" t="inlineStr">
         <is>
-          <t>会员本金</t>
+          <t>会员本金,微信</t>
         </is>
       </c>
       <c r="J175" t="n">
@@ -9733,67 +9733,77 @@
       <c r="O175" t="inlineStr"/>
     </row>
     <row r="176">
-      <c r="A176" t="inlineStr"/>
-      <c r="B176" t="inlineStr"/>
+      <c r="A176" t="n">
+        <v>20210130057</v>
+      </c>
+      <c r="B176" t="inlineStr">
+        <is>
+          <t>00:26</t>
+        </is>
+      </c>
       <c r="C176" t="inlineStr">
         <is>
           <t>2021-01-30</t>
         </is>
       </c>
-      <c r="D176" t="inlineStr"/>
+      <c r="D176" t="inlineStr">
+        <is>
+          <t>K13</t>
+        </is>
+      </c>
       <c r="E176" t="inlineStr">
         <is>
-          <t>(伍仟)方块A*37</t>
+          <t>(叁仟)方块A*22</t>
         </is>
       </c>
       <c r="F176" t="n">
-        <v>5000</v>
-      </c>
-      <c r="G176" t="inlineStr"/>
+        <v>3000</v>
+      </c>
+      <c r="G176" t="inlineStr">
+        <is>
+          <t>总-行政</t>
+        </is>
+      </c>
       <c r="H176" t="inlineStr">
         <is>
-          <t>二部安祖培</t>
+          <t>陶汝维</t>
         </is>
       </c>
       <c r="I176" t="inlineStr">
         <is>
-          <t>会员本金</t>
+          <t>微信</t>
         </is>
       </c>
       <c r="J176" t="n">
         <v>1</v>
       </c>
       <c r="K176" t="n">
-        <v>200</v>
-      </c>
-      <c r="L176" t="n">
-        <v>20210130064</v>
-      </c>
-      <c r="M176" t="inlineStr">
-        <is>
-          <t>00:29</t>
-        </is>
-      </c>
-      <c r="N176" t="inlineStr">
-        <is>
-          <t>666</t>
-        </is>
-      </c>
-      <c r="O176" t="inlineStr">
-        <is>
-          <t>销-销售2部</t>
-        </is>
-      </c>
+        <v>50</v>
+      </c>
+      <c r="L176" t="inlineStr"/>
+      <c r="M176" t="inlineStr"/>
+      <c r="N176" t="inlineStr"/>
+      <c r="O176" t="inlineStr"/>
     </row>
     <row r="177">
-      <c r="A177" t="inlineStr"/>
-      <c r="B177" t="inlineStr"/>
+      <c r="A177" t="n">
+        <v>20210130043</v>
+      </c>
+      <c r="B177" t="inlineStr">
+        <is>
+          <t>22:05</t>
+        </is>
+      </c>
       <c r="C177" t="inlineStr">
         <is>
           <t>2021-01-30</t>
         </is>
       </c>
-      <c r="D177" t="inlineStr"/>
+      <c r="D177" t="inlineStr">
+        <is>
+          <t>V20</t>
+        </is>
+      </c>
       <c r="E177" t="inlineStr">
         <is>
           <t>(伍仟)方块A*37</t>
@@ -9802,15 +9812,19 @@
       <c r="F177" t="n">
         <v>5000</v>
       </c>
-      <c r="G177" t="inlineStr"/>
+      <c r="G177" t="inlineStr">
+        <is>
+          <t>销-销售6部</t>
+        </is>
+      </c>
       <c r="H177" t="inlineStr">
         <is>
-          <t>国际杨菊</t>
+          <t>六部许鹏</t>
         </is>
       </c>
       <c r="I177" t="inlineStr">
         <is>
-          <t>会员本金,微信</t>
+          <t>挂账</t>
         </is>
       </c>
       <c r="J177" t="n">
@@ -9819,87 +9833,83 @@
       <c r="K177" t="n">
         <v>200</v>
       </c>
-      <c r="L177" t="n">
-        <v>20210130049</v>
-      </c>
-      <c r="M177" t="inlineStr">
-        <is>
-          <t>22:22</t>
-        </is>
-      </c>
-      <c r="N177" t="inlineStr">
-        <is>
-          <t>V01</t>
-        </is>
-      </c>
-      <c r="O177" t="inlineStr">
-        <is>
-          <t>国际部</t>
-        </is>
-      </c>
+      <c r="L177" t="inlineStr"/>
+      <c r="M177" t="inlineStr"/>
+      <c r="N177" t="inlineStr"/>
+      <c r="O177" t="inlineStr"/>
     </row>
     <row r="178">
-      <c r="A178" t="inlineStr"/>
-      <c r="B178" t="inlineStr"/>
+      <c r="A178" t="n">
+        <v>20210130046</v>
+      </c>
+      <c r="B178" t="inlineStr">
+        <is>
+          <t>22:14</t>
+        </is>
+      </c>
       <c r="C178" t="inlineStr">
         <is>
           <t>2021-01-30</t>
         </is>
       </c>
-      <c r="D178" t="inlineStr"/>
+      <c r="D178" t="inlineStr">
+        <is>
+          <t>空降房1</t>
+        </is>
+      </c>
       <c r="E178" t="inlineStr">
         <is>
-          <t>(伍仟)方块A*37</t>
+          <t>(叁仟)V粉*5</t>
         </is>
       </c>
       <c r="F178" t="n">
-        <v>5000</v>
-      </c>
-      <c r="G178" t="inlineStr"/>
+        <v>3000</v>
+      </c>
+      <c r="G178" t="inlineStr">
+        <is>
+          <t>销-销售1部</t>
+        </is>
+      </c>
       <c r="H178" t="inlineStr">
         <is>
-          <t>六部许鹏</t>
+          <t>一部赵双</t>
         </is>
       </c>
       <c r="I178" t="inlineStr">
         <is>
-          <t>挂账</t>
+          <t>支付宝</t>
         </is>
       </c>
       <c r="J178" t="n">
         <v>1</v>
       </c>
       <c r="K178" t="n">
-        <v>200</v>
-      </c>
-      <c r="L178" t="n">
-        <v>20210130043</v>
-      </c>
-      <c r="M178" t="inlineStr">
-        <is>
-          <t>22:05</t>
-        </is>
-      </c>
-      <c r="N178" t="inlineStr">
-        <is>
-          <t>V20</t>
-        </is>
-      </c>
-      <c r="O178" t="inlineStr">
-        <is>
-          <t>销-销售6部</t>
-        </is>
-      </c>
+        <v>50</v>
+      </c>
+      <c r="L178" t="inlineStr"/>
+      <c r="M178" t="inlineStr"/>
+      <c r="N178" t="inlineStr"/>
+      <c r="O178" t="inlineStr"/>
     </row>
     <row r="179">
-      <c r="A179" t="inlineStr"/>
-      <c r="B179" t="inlineStr"/>
+      <c r="A179" t="n">
+        <v>20210130074</v>
+      </c>
+      <c r="B179" t="inlineStr">
+        <is>
+          <t>01:08</t>
+        </is>
+      </c>
       <c r="C179" t="inlineStr">
         <is>
           <t>2021-01-30</t>
         </is>
       </c>
-      <c r="D179" t="inlineStr"/>
+      <c r="D179" t="inlineStr">
+        <is>
+          <t>空降2</t>
+        </is>
+      </c>
       <c r="E179" t="inlineStr">
         <is>
           <t>(伍仟)慕威*7</t>
@@ -9908,10 +9918,14 @@
       <c r="F179" t="n">
         <v>5000</v>
       </c>
-      <c r="G179" t="inlineStr"/>
+      <c r="G179" t="inlineStr">
+        <is>
+          <t>销-销售1部</t>
+        </is>
+      </c>
       <c r="H179" t="inlineStr">
         <is>
-          <t>国际孙启鹏</t>
+          <t>一部管毓寿</t>
         </is>
       </c>
       <c r="I179" t="inlineStr">
@@ -9925,97 +9939,73 @@
       <c r="K179" t="n">
         <v>200</v>
       </c>
-      <c r="L179" t="n">
-        <v>20210130007</v>
-      </c>
-      <c r="M179" t="inlineStr">
-        <is>
-          <t>20:07</t>
-        </is>
-      </c>
-      <c r="N179" t="inlineStr">
-        <is>
-          <t>V25</t>
-        </is>
-      </c>
-      <c r="O179" t="inlineStr">
-        <is>
-          <t>国际部</t>
-        </is>
-      </c>
+      <c r="L179" t="inlineStr"/>
+      <c r="M179" t="inlineStr"/>
+      <c r="N179" t="inlineStr"/>
+      <c r="O179" t="inlineStr"/>
     </row>
     <row r="180">
-      <c r="A180" t="n">
-        <v>20210130046</v>
-      </c>
-      <c r="B180" t="inlineStr">
-        <is>
-          <t>22:14</t>
-        </is>
-      </c>
+      <c r="A180" t="inlineStr"/>
+      <c r="B180" t="inlineStr"/>
       <c r="C180" t="inlineStr">
         <is>
           <t>2021-01-30</t>
         </is>
       </c>
-      <c r="D180" t="inlineStr">
-        <is>
-          <t>空降房1</t>
-        </is>
-      </c>
+      <c r="D180" t="inlineStr"/>
       <c r="E180" t="inlineStr">
         <is>
-          <t>(叁仟)V粉*5</t>
+          <t>(伍仟)方块A*37</t>
         </is>
       </c>
       <c r="F180" t="n">
-        <v>3000</v>
-      </c>
-      <c r="G180" t="inlineStr">
-        <is>
-          <t>销-销售1部</t>
-        </is>
-      </c>
+        <v>5000</v>
+      </c>
+      <c r="G180" t="inlineStr"/>
       <c r="H180" t="inlineStr">
         <is>
-          <t>一部赵双</t>
+          <t>六部许鹏</t>
         </is>
       </c>
       <c r="I180" t="inlineStr">
         <is>
-          <t>支付宝</t>
+          <t>挂账</t>
         </is>
       </c>
       <c r="J180" t="n">
         <v>1</v>
       </c>
       <c r="K180" t="n">
-        <v>50</v>
-      </c>
-      <c r="L180" t="inlineStr"/>
-      <c r="M180" t="inlineStr"/>
-      <c r="N180" t="inlineStr"/>
-      <c r="O180" t="inlineStr"/>
+        <v>200</v>
+      </c>
+      <c r="L180" t="n">
+        <v>20210130043</v>
+      </c>
+      <c r="M180" t="inlineStr">
+        <is>
+          <t>22:05</t>
+        </is>
+      </c>
+      <c r="N180" t="inlineStr">
+        <is>
+          <t>V20</t>
+        </is>
+      </c>
+      <c r="O180" t="inlineStr">
+        <is>
+          <t>销-销售6部</t>
+        </is>
+      </c>
     </row>
     <row r="181">
-      <c r="A181" t="n">
-        <v>20210130043</v>
-      </c>
-      <c r="B181" t="inlineStr">
-        <is>
-          <t>22:05</t>
-        </is>
-      </c>
+      <c r="A181" t="inlineStr"/>
+      <c r="B181" t="inlineStr"/>
       <c r="C181" t="inlineStr">
         <is>
           <t>2021-01-30</t>
         </is>
       </c>
-      <c r="D181" t="inlineStr">
-        <is>
-          <t>V20</t>
-        </is>
-      </c>
+      <c r="D181" t="inlineStr"/>
       <c r="E181" t="inlineStr">
         <is>
           <t>(伍仟)方块A*37</t>
@@ -10024,19 +10014,15 @@
       <c r="F181" t="n">
         <v>5000</v>
       </c>
-      <c r="G181" t="inlineStr">
-        <is>
-          <t>销-销售6部</t>
-        </is>
-      </c>
+      <c r="G181" t="inlineStr"/>
       <c r="H181" t="inlineStr">
         <is>
-          <t>六部许鹏</t>
+          <t>国际杨菊</t>
         </is>
       </c>
       <c r="I181" t="inlineStr">
         <is>
-          <t>挂账</t>
+          <t>会员本金,微信</t>
         </is>
       </c>
       <c r="J181" t="n">
@@ -10045,71 +10031,85 @@
       <c r="K181" t="n">
         <v>200</v>
       </c>
-      <c r="L181" t="inlineStr"/>
-      <c r="M181" t="inlineStr"/>
-      <c r="N181" t="inlineStr"/>
-      <c r="O181" t="inlineStr"/>
+      <c r="L181" t="n">
+        <v>20210130049</v>
+      </c>
+      <c r="M181" t="inlineStr">
+        <is>
+          <t>22:22</t>
+        </is>
+      </c>
+      <c r="N181" t="inlineStr">
+        <is>
+          <t>V01</t>
+        </is>
+      </c>
+      <c r="O181" t="inlineStr">
+        <is>
+          <t>国际部</t>
+        </is>
+      </c>
     </row>
     <row r="182">
-      <c r="A182" t="n">
-        <v>20210130057</v>
-      </c>
-      <c r="B182" t="inlineStr">
-        <is>
-          <t>00:26</t>
-        </is>
-      </c>
+      <c r="A182" t="inlineStr"/>
+      <c r="B182" t="inlineStr"/>
       <c r="C182" t="inlineStr">
         <is>
           <t>2021-01-30</t>
         </is>
       </c>
-      <c r="D182" t="inlineStr">
-        <is>
-          <t>K13</t>
-        </is>
-      </c>
+      <c r="D182" t="inlineStr"/>
       <c r="E182" t="inlineStr">
         <is>
-          <t>(叁仟)方块A*22</t>
+          <t>(伍仟)方块A*37</t>
         </is>
       </c>
       <c r="F182" t="n">
-        <v>3000</v>
-      </c>
-      <c r="G182" t="inlineStr">
-        <is>
-          <t>总-行政</t>
-        </is>
-      </c>
+        <v>5000</v>
+      </c>
+      <c r="G182" t="inlineStr"/>
       <c r="H182" t="inlineStr">
         <is>
-          <t>陶汝维</t>
+          <t>二部安祖培</t>
         </is>
       </c>
       <c r="I182" t="inlineStr">
         <is>
-          <t>微信</t>
+          <t>会员本金</t>
         </is>
       </c>
       <c r="J182" t="n">
         <v>1</v>
       </c>
       <c r="K182" t="n">
-        <v>50</v>
-      </c>
-      <c r="L182" t="inlineStr"/>
-      <c r="M182" t="inlineStr"/>
-      <c r="N182" t="inlineStr"/>
-      <c r="O182" t="inlineStr"/>
+        <v>200</v>
+      </c>
+      <c r="L182" t="n">
+        <v>20210130064</v>
+      </c>
+      <c r="M182" t="inlineStr">
+        <is>
+          <t>00:29</t>
+        </is>
+      </c>
+      <c r="N182" t="inlineStr">
+        <is>
+          <t>666</t>
+        </is>
+      </c>
+      <c r="O182" t="inlineStr">
+        <is>
+          <t>销-销售2部</t>
+        </is>
+      </c>
     </row>
     <row r="183">
       <c r="A183" t="n">
-        <v>20210130049</v>
+        <v>20210130064</v>
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>22:22</t>
+          <t>00:29</t>
         </is>
       </c>
       <c r="C183" t="inlineStr">
@@ -10119,7 +10119,7 @@
       </c>
       <c r="D183" t="inlineStr">
         <is>
-          <t>V01</t>
+          <t>666</t>
         </is>
       </c>
       <c r="E183" t="inlineStr">
@@ -10132,17 +10132,17 @@
       </c>
       <c r="G183" t="inlineStr">
         <is>
-          <t>国际部</t>
+          <t>销-销售2部</t>
         </is>
       </c>
       <c r="H183" t="inlineStr">
         <is>
-          <t>国际杨菊</t>
+          <t>二部安祖培</t>
         </is>
       </c>
       <c r="I183" t="inlineStr">
         <is>
-          <t>会员本金,微信</t>
+          <t>会员本金</t>
         </is>
       </c>
       <c r="J183" t="n">
@@ -10157,118 +10157,118 @@
       <c r="O183" t="inlineStr"/>
     </row>
     <row r="184">
-      <c r="A184" t="n">
+      <c r="A184" t="inlineStr"/>
+      <c r="B184" t="inlineStr"/>
+      <c r="C184" t="inlineStr">
+        <is>
+          <t>2021-01-30</t>
+        </is>
+      </c>
+      <c r="D184" t="inlineStr"/>
+      <c r="E184" t="inlineStr">
+        <is>
+          <t>(叁仟)方块A*22</t>
+        </is>
+      </c>
+      <c r="F184" t="n">
+        <v>3000</v>
+      </c>
+      <c r="G184" t="inlineStr"/>
+      <c r="H184" t="inlineStr">
+        <is>
+          <t>二部安祖培</t>
+        </is>
+      </c>
+      <c r="I184" t="inlineStr">
+        <is>
+          <t>会员本金,微信</t>
+        </is>
+      </c>
+      <c r="J184" t="n">
+        <v>1</v>
+      </c>
+      <c r="K184" t="n">
+        <v>50</v>
+      </c>
+      <c r="L184" t="n">
+        <v>20210130064</v>
+      </c>
+      <c r="M184" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="N184" t="inlineStr">
+        <is>
+          <t>666</t>
+        </is>
+      </c>
+      <c r="O184" t="inlineStr">
+        <is>
+          <t>销-销售2部</t>
+        </is>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="inlineStr"/>
+      <c r="B185" t="inlineStr"/>
+      <c r="C185" t="inlineStr">
+        <is>
+          <t>2021-01-30</t>
+        </is>
+      </c>
+      <c r="D185" t="inlineStr"/>
+      <c r="E185" t="inlineStr">
+        <is>
+          <t>气氛扇子</t>
+        </is>
+      </c>
+      <c r="F185" t="n">
+        <v>68</v>
+      </c>
+      <c r="G185" t="inlineStr"/>
+      <c r="H185" t="inlineStr">
+        <is>
+          <t>运营李健康</t>
+        </is>
+      </c>
+      <c r="I185" t="inlineStr">
+        <is>
+          <t>微信</t>
+        </is>
+      </c>
+      <c r="J185" t="n">
+        <v>1</v>
+      </c>
+      <c r="K185" t="n">
+        <v>10</v>
+      </c>
+      <c r="L185" t="n">
         <v>20210130047</v>
       </c>
-      <c r="B184" t="inlineStr">
+      <c r="M185" t="inlineStr">
         <is>
           <t>23:30</t>
         </is>
       </c>
-      <c r="C184" t="inlineStr">
-        <is>
-          <t>2021-01-30</t>
-        </is>
-      </c>
-      <c r="D184" t="inlineStr">
+      <c r="N185" t="inlineStr">
         <is>
           <t>K19</t>
         </is>
       </c>
-      <c r="E184" t="inlineStr">
-        <is>
-          <t>气氛扇子</t>
-        </is>
-      </c>
-      <c r="F184" t="n">
-        <v>68</v>
-      </c>
-      <c r="G184" t="inlineStr">
+      <c r="O185" t="inlineStr">
         <is>
           <t>运营部</t>
         </is>
       </c>
-      <c r="H184" t="inlineStr">
-        <is>
-          <t>运营李健康</t>
-        </is>
-      </c>
-      <c r="I184" t="inlineStr">
-        <is>
-          <t>微信</t>
-        </is>
-      </c>
-      <c r="J184" t="n">
-        <v>1</v>
-      </c>
-      <c r="K184" t="n">
-        <v>10</v>
-      </c>
-      <c r="L184" t="inlineStr"/>
-      <c r="M184" t="inlineStr"/>
-      <c r="N184" t="inlineStr"/>
-      <c r="O184" t="inlineStr"/>
-    </row>
-    <row r="185">
-      <c r="A185" t="n">
-        <v>20210130014</v>
-      </c>
-      <c r="B185" t="inlineStr">
-        <is>
-          <t>20:37</t>
-        </is>
-      </c>
-      <c r="C185" t="inlineStr">
-        <is>
-          <t>2021-01-30</t>
-        </is>
-      </c>
-      <c r="D185" t="inlineStr">
-        <is>
-          <t>V18</t>
-        </is>
-      </c>
-      <c r="E185" t="inlineStr">
-        <is>
-          <t>(叁仟)方块A*22</t>
-        </is>
-      </c>
-      <c r="F185" t="n">
-        <v>3000</v>
-      </c>
-      <c r="G185" t="inlineStr">
-        <is>
-          <t>总-行政</t>
-        </is>
-      </c>
-      <c r="H185" t="inlineStr">
-        <is>
-          <t>陶汝维</t>
-        </is>
-      </c>
-      <c r="I185" t="inlineStr">
-        <is>
-          <t>会员本金,微信</t>
-        </is>
-      </c>
-      <c r="J185" t="n">
-        <v>1</v>
-      </c>
-      <c r="K185" t="n">
-        <v>50</v>
-      </c>
-      <c r="L185" t="inlineStr"/>
-      <c r="M185" t="inlineStr"/>
-      <c r="N185" t="inlineStr"/>
-      <c r="O185" t="inlineStr"/>
     </row>
     <row r="186">
       <c r="A186" t="n">
-        <v>20210130064</v>
+        <v>20210130082</v>
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>02:07</t>
         </is>
       </c>
       <c r="C186" t="inlineStr">
@@ -10278,16 +10278,16 @@
       </c>
       <c r="D186" t="inlineStr">
         <is>
-          <t>666</t>
+          <t>空降5</t>
         </is>
       </c>
       <c r="E186" t="inlineStr">
         <is>
-          <t>(叁仟)方块A*22</t>
+          <t>方块A *1打</t>
         </is>
       </c>
       <c r="F186" t="n">
-        <v>3000</v>
+        <v>1980</v>
       </c>
       <c r="G186" t="inlineStr">
         <is>
@@ -10296,19 +10296,19 @@
       </c>
       <c r="H186" t="inlineStr">
         <is>
-          <t>二部安祖培</t>
+          <t>二部徐超</t>
         </is>
       </c>
       <c r="I186" t="inlineStr">
         <is>
-          <t>会员本金,微信</t>
+          <t>微信</t>
         </is>
       </c>
       <c r="J186" t="n">
         <v>1</v>
       </c>
       <c r="K186" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="L186" t="inlineStr"/>
       <c r="M186" t="inlineStr"/>
@@ -10326,7 +10326,7 @@
       <c r="D187" t="inlineStr"/>
       <c r="E187" t="inlineStr">
         <is>
-          <t>(叁仟)方块A*22</t>
+          <t>(叁仟)V粉*5</t>
         </is>
       </c>
       <c r="F187" t="n">
@@ -10335,12 +10335,12 @@
       <c r="G187" t="inlineStr"/>
       <c r="H187" t="inlineStr">
         <is>
-          <t>陶汝维</t>
+          <t>一部赵双</t>
         </is>
       </c>
       <c r="I187" t="inlineStr">
         <is>
-          <t>会员本金,微信</t>
+          <t>支付宝</t>
         </is>
       </c>
       <c r="J187" t="n">
@@ -10350,76 +10350,76 @@
         <v>50</v>
       </c>
       <c r="L187" t="n">
-        <v>20210130014</v>
+        <v>20210130046</v>
       </c>
       <c r="M187" t="inlineStr">
         <is>
-          <t>20:37</t>
+          <t>22:14</t>
         </is>
       </c>
       <c r="N187" t="inlineStr">
         <is>
-          <t>V18</t>
+          <t>空降房1</t>
         </is>
       </c>
       <c r="O187" t="inlineStr">
         <is>
+          <t>销-销售1部</t>
+        </is>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="inlineStr"/>
+      <c r="B188" t="inlineStr"/>
+      <c r="C188" t="inlineStr">
+        <is>
+          <t>2021-01-30</t>
+        </is>
+      </c>
+      <c r="D188" t="inlineStr"/>
+      <c r="E188" t="inlineStr">
+        <is>
+          <t>(叁仟)方块A*22</t>
+        </is>
+      </c>
+      <c r="F188" t="n">
+        <v>3000</v>
+      </c>
+      <c r="G188" t="inlineStr"/>
+      <c r="H188" t="inlineStr">
+        <is>
+          <t>陶汝维</t>
+        </is>
+      </c>
+      <c r="I188" t="inlineStr">
+        <is>
+          <t>微信</t>
+        </is>
+      </c>
+      <c r="J188" t="n">
+        <v>1</v>
+      </c>
+      <c r="K188" t="n">
+        <v>50</v>
+      </c>
+      <c r="L188" t="n">
+        <v>20210130057</v>
+      </c>
+      <c r="M188" t="inlineStr">
+        <is>
+          <t>00:26</t>
+        </is>
+      </c>
+      <c r="N188" t="inlineStr">
+        <is>
+          <t>K13</t>
+        </is>
+      </c>
+      <c r="O188" t="inlineStr">
+        <is>
           <t>总-行政</t>
         </is>
       </c>
-    </row>
-    <row r="188">
-      <c r="A188" t="n">
-        <v>20210130007</v>
-      </c>
-      <c r="B188" t="inlineStr">
-        <is>
-          <t>20:07</t>
-        </is>
-      </c>
-      <c r="C188" t="inlineStr">
-        <is>
-          <t>2021-01-30</t>
-        </is>
-      </c>
-      <c r="D188" t="inlineStr">
-        <is>
-          <t>V25</t>
-        </is>
-      </c>
-      <c r="E188" t="inlineStr">
-        <is>
-          <t>(伍仟)慕威*7</t>
-        </is>
-      </c>
-      <c r="F188" t="n">
-        <v>5000</v>
-      </c>
-      <c r="G188" t="inlineStr">
-        <is>
-          <t>国际部</t>
-        </is>
-      </c>
-      <c r="H188" t="inlineStr">
-        <is>
-          <t>国际孙启鹏</t>
-        </is>
-      </c>
-      <c r="I188" t="inlineStr">
-        <is>
-          <t>挂账</t>
-        </is>
-      </c>
-      <c r="J188" t="n">
-        <v>1</v>
-      </c>
-      <c r="K188" t="n">
-        <v>200</v>
-      </c>
-      <c r="L188" t="inlineStr"/>
-      <c r="M188" t="inlineStr"/>
-      <c r="N188" t="inlineStr"/>
-      <c r="O188" t="inlineStr"/>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr"/>
@@ -10432,67 +10432,57 @@
       <c r="D189" t="inlineStr"/>
       <c r="E189" t="inlineStr">
         <is>
-          <t>方块A *1打</t>
+          <t>(伍仟)慕威*7</t>
         </is>
       </c>
       <c r="F189" t="n">
-        <v>1980</v>
+        <v>5000</v>
       </c>
       <c r="G189" t="inlineStr"/>
       <c r="H189" t="inlineStr">
         <is>
-          <t>二部徐超</t>
+          <t>一部管毓寿</t>
         </is>
       </c>
       <c r="I189" t="inlineStr">
         <is>
-          <t>微信</t>
+          <t>挂账</t>
         </is>
       </c>
       <c r="J189" t="n">
         <v>1</v>
       </c>
       <c r="K189" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="L189" t="n">
-        <v>20210130082</v>
+        <v>20210130074</v>
       </c>
       <c r="M189" t="inlineStr">
         <is>
-          <t>02:07</t>
+          <t>01:08</t>
         </is>
       </c>
       <c r="N189" t="inlineStr">
         <is>
-          <t>空降5</t>
+          <t>空降2</t>
         </is>
       </c>
       <c r="O189" t="inlineStr">
         <is>
-          <t>销-销售2部</t>
+          <t>销-销售1部</t>
         </is>
       </c>
     </row>
     <row r="190">
-      <c r="A190" t="n">
-        <v>20210130074</v>
-      </c>
-      <c r="B190" t="inlineStr">
-        <is>
-          <t>01:08</t>
-        </is>
-      </c>
+      <c r="A190" t="inlineStr"/>
+      <c r="B190" t="inlineStr"/>
       <c r="C190" t="inlineStr">
         <is>
           <t>2021-01-30</t>
         </is>
       </c>
-      <c r="D190" t="inlineStr">
-        <is>
-          <t>空降2</t>
-        </is>
-      </c>
+      <c r="D190" t="inlineStr"/>
       <c r="E190" t="inlineStr">
         <is>
           <t>(伍仟)慕威*7</t>
@@ -10501,14 +10491,10 @@
       <c r="F190" t="n">
         <v>5000</v>
       </c>
-      <c r="G190" t="inlineStr">
-        <is>
-          <t>销-销售1部</t>
-        </is>
-      </c>
+      <c r="G190" t="inlineStr"/>
       <c r="H190" t="inlineStr">
         <is>
-          <t>一部管毓寿</t>
+          <t>国际孙启鹏</t>
         </is>
       </c>
       <c r="I190" t="inlineStr">
@@ -10522,10 +10508,24 @@
       <c r="K190" t="n">
         <v>200</v>
       </c>
-      <c r="L190" t="inlineStr"/>
-      <c r="M190" t="inlineStr"/>
-      <c r="N190" t="inlineStr"/>
-      <c r="O190" t="inlineStr"/>
+      <c r="L190" t="n">
+        <v>20210130007</v>
+      </c>
+      <c r="M190" t="inlineStr">
+        <is>
+          <t>20:07</t>
+        </is>
+      </c>
+      <c r="N190" t="inlineStr">
+        <is>
+          <t>V25</t>
+        </is>
+      </c>
+      <c r="O190" t="inlineStr">
+        <is>
+          <t>国际部</t>
+        </is>
+      </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr"/>
@@ -10538,45 +10538,45 @@
       <c r="D191" t="inlineStr"/>
       <c r="E191" t="inlineStr">
         <is>
-          <t>查理十世700单支套餐</t>
+          <t>(叁仟)慕威*4</t>
         </is>
       </c>
       <c r="F191" t="n">
-        <v>780</v>
+        <v>3000</v>
       </c>
       <c r="G191" t="inlineStr"/>
       <c r="H191" t="inlineStr">
         <is>
-          <t>七部黄光耀</t>
+          <t>彭刚</t>
         </is>
       </c>
       <c r="I191" t="inlineStr">
         <is>
-          <t>会员本金,微信</t>
+          <t>会员本金</t>
         </is>
       </c>
       <c r="J191" t="n">
         <v>1</v>
       </c>
       <c r="K191" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="L191" t="n">
-        <v>20210201063</v>
+        <v>20210201040</v>
       </c>
       <c r="M191" t="inlineStr">
         <is>
-          <t>23:41</t>
+          <t>01:21</t>
         </is>
       </c>
       <c r="N191" t="inlineStr">
         <is>
-          <t>纪梵希</t>
+          <t>888</t>
         </is>
       </c>
       <c r="O191" t="inlineStr">
         <is>
-          <t>销-销售7部</t>
+          <t>出品部</t>
         </is>
       </c>
     </row>
@@ -10591,45 +10591,45 @@
       <c r="D192" t="inlineStr"/>
       <c r="E192" t="inlineStr">
         <is>
-          <t>(叁仟)慕威*4</t>
+          <t>查理十世700单支套餐</t>
         </is>
       </c>
       <c r="F192" t="n">
-        <v>3000</v>
+        <v>780</v>
       </c>
       <c r="G192" t="inlineStr"/>
       <c r="H192" t="inlineStr">
         <is>
-          <t>彭刚</t>
+          <t>七部黄光耀</t>
         </is>
       </c>
       <c r="I192" t="inlineStr">
         <is>
-          <t>会员本金</t>
+          <t>会员本金,微信</t>
         </is>
       </c>
       <c r="J192" t="n">
         <v>1</v>
       </c>
       <c r="K192" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="L192" t="n">
-        <v>20210201040</v>
+        <v>20210201063</v>
       </c>
       <c r="M192" t="inlineStr">
         <is>
-          <t>01:21</t>
+          <t>23:41</t>
         </is>
       </c>
       <c r="N192" t="inlineStr">
         <is>
-          <t>888</t>
+          <t>纪梵希</t>
         </is>
       </c>
       <c r="O192" t="inlineStr">
         <is>
-          <t>出品部</t>
+          <t>销-销售7部</t>
         </is>
       </c>
     </row>
@@ -10909,45 +10909,45 @@
       <c r="D198" t="inlineStr"/>
       <c r="E198" t="inlineStr">
         <is>
-          <t>查理十世1.5单支套餐</t>
+          <t>气氛扇子</t>
         </is>
       </c>
       <c r="F198" t="n">
-        <v>1480</v>
+        <v>68</v>
       </c>
       <c r="G198" t="inlineStr"/>
       <c r="H198" t="inlineStr">
         <is>
-          <t>彭刚</t>
+          <t>六部费义伦</t>
         </is>
       </c>
       <c r="I198" t="inlineStr">
         <is>
-          <t>支付宝</t>
+          <t>微信</t>
         </is>
       </c>
       <c r="J198" t="n">
         <v>1</v>
       </c>
       <c r="K198" t="n">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="L198" t="n">
-        <v>20210204050</v>
+        <v>20210204036</v>
       </c>
       <c r="M198" t="inlineStr">
         <is>
-          <t>02:06</t>
+          <t>22:22</t>
         </is>
       </c>
       <c r="N198" t="inlineStr">
         <is>
-          <t>香奈儿</t>
+          <t>K01</t>
         </is>
       </c>
       <c r="O198" t="inlineStr">
         <is>
-          <t>出品部</t>
+          <t>销-销售6部</t>
         </is>
       </c>
     </row>
@@ -10962,11 +10962,11 @@
       <c r="D199" t="inlineStr"/>
       <c r="E199" t="inlineStr">
         <is>
-          <t>(叁仟)方块A*22</t>
+          <t>(伍仟)慕威*7</t>
         </is>
       </c>
       <c r="F199" t="n">
-        <v>3000</v>
+        <v>5000</v>
       </c>
       <c r="G199" t="inlineStr"/>
       <c r="H199" t="inlineStr">
@@ -10983,14 +10983,14 @@
         <v>1</v>
       </c>
       <c r="K199" t="n">
-        <v>50</v>
+        <v>200</v>
       </c>
       <c r="L199" t="n">
         <v>20210204017</v>
       </c>
       <c r="M199" t="inlineStr">
         <is>
-          <t>01:42</t>
+          <t>23:52</t>
         </is>
       </c>
       <c r="N199" t="inlineStr">
@@ -11015,45 +11015,45 @@
       <c r="D200" t="inlineStr"/>
       <c r="E200" t="inlineStr">
         <is>
-          <t>(叁仟)方块A*22</t>
+          <t>查理十世700单支套餐</t>
         </is>
       </c>
       <c r="F200" t="n">
-        <v>3000</v>
+        <v>780</v>
       </c>
       <c r="G200" t="inlineStr"/>
       <c r="H200" t="inlineStr">
         <is>
-          <t>一部赵双</t>
+          <t>七部李华贵</t>
         </is>
       </c>
       <c r="I200" t="inlineStr">
         <is>
-          <t>会员本金</t>
+          <t>微信</t>
         </is>
       </c>
       <c r="J200" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K200" t="n">
-        <v>100</v>
+        <v>30</v>
       </c>
       <c r="L200" t="n">
-        <v>20210204017</v>
+        <v>20210204054</v>
       </c>
       <c r="M200" t="inlineStr">
         <is>
-          <t>23:17</t>
+          <t>22:38</t>
         </is>
       </c>
       <c r="N200" t="inlineStr">
         <is>
-          <t>V05</t>
+          <t>V20</t>
         </is>
       </c>
       <c r="O200" t="inlineStr">
         <is>
-          <t>销-销售1部</t>
+          <t>销-销售7部</t>
         </is>
       </c>
     </row>
@@ -11068,11 +11068,11 @@
       <c r="D201" t="inlineStr"/>
       <c r="E201" t="inlineStr">
         <is>
-          <t>(伍仟)慕威*7</t>
+          <t>(叁仟)方块A*22</t>
         </is>
       </c>
       <c r="F201" t="n">
-        <v>5000</v>
+        <v>3000</v>
       </c>
       <c r="G201" t="inlineStr"/>
       <c r="H201" t="inlineStr">
@@ -11089,14 +11089,14 @@
         <v>1</v>
       </c>
       <c r="K201" t="n">
-        <v>200</v>
+        <v>50</v>
       </c>
       <c r="L201" t="n">
         <v>20210204017</v>
       </c>
       <c r="M201" t="inlineStr">
         <is>
-          <t>23:52</t>
+          <t>01:42</t>
         </is>
       </c>
       <c r="N201" t="inlineStr">
@@ -11121,45 +11121,45 @@
       <c r="D202" t="inlineStr"/>
       <c r="E202" t="inlineStr">
         <is>
-          <t>气氛扇子</t>
+          <t>查理十世1.5单支套餐</t>
         </is>
       </c>
       <c r="F202" t="n">
-        <v>68</v>
+        <v>1480</v>
       </c>
       <c r="G202" t="inlineStr"/>
       <c r="H202" t="inlineStr">
         <is>
-          <t>六部费义伦</t>
+          <t>彭刚</t>
         </is>
       </c>
       <c r="I202" t="inlineStr">
         <is>
-          <t>微信</t>
+          <t>支付宝</t>
         </is>
       </c>
       <c r="J202" t="n">
         <v>1</v>
       </c>
       <c r="K202" t="n">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="L202" t="n">
-        <v>20210204036</v>
+        <v>20210204050</v>
       </c>
       <c r="M202" t="inlineStr">
         <is>
-          <t>22:22</t>
+          <t>02:06</t>
         </is>
       </c>
       <c r="N202" t="inlineStr">
         <is>
-          <t>K01</t>
+          <t>香奈儿</t>
         </is>
       </c>
       <c r="O202" t="inlineStr">
         <is>
-          <t>销-销售6部</t>
+          <t>出品部</t>
         </is>
       </c>
     </row>
@@ -11174,45 +11174,45 @@
       <c r="D203" t="inlineStr"/>
       <c r="E203" t="inlineStr">
         <is>
-          <t>查理十世700单支套餐</t>
+          <t>(叁仟)方块A*22</t>
         </is>
       </c>
       <c r="F203" t="n">
-        <v>780</v>
+        <v>3000</v>
       </c>
       <c r="G203" t="inlineStr"/>
       <c r="H203" t="inlineStr">
         <is>
-          <t>七部李华贵</t>
+          <t>一部赵双</t>
         </is>
       </c>
       <c r="I203" t="inlineStr">
         <is>
-          <t>微信</t>
+          <t>会员本金</t>
         </is>
       </c>
       <c r="J203" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K203" t="n">
-        <v>30</v>
+        <v>100</v>
       </c>
       <c r="L203" t="n">
-        <v>20210204054</v>
+        <v>20210204017</v>
       </c>
       <c r="M203" t="inlineStr">
         <is>
-          <t>22:38</t>
+          <t>23:17</t>
         </is>
       </c>
       <c r="N203" t="inlineStr">
         <is>
-          <t>V20</t>
+          <t>V05</t>
         </is>
       </c>
       <c r="O203" t="inlineStr">
         <is>
-          <t>销-销售7部</t>
+          <t>销-销售1部</t>
         </is>
       </c>
     </row>
@@ -11333,16 +11333,16 @@
       <c r="D206" t="inlineStr"/>
       <c r="E206" t="inlineStr">
         <is>
-          <t>(叁仟)方块A*22</t>
+          <t>(伍仟)玛琳娜*15</t>
         </is>
       </c>
       <c r="F206" t="n">
-        <v>3000</v>
+        <v>5000</v>
       </c>
       <c r="G206" t="inlineStr"/>
       <c r="H206" t="inlineStr">
         <is>
-          <t>二部徐超</t>
+          <t>六部许鹏</t>
         </is>
       </c>
       <c r="I206" t="inlineStr">
@@ -11354,24 +11354,24 @@
         <v>1</v>
       </c>
       <c r="K206" t="n">
-        <v>50</v>
+        <v>200</v>
       </c>
       <c r="L206" t="n">
-        <v>20210206060</v>
+        <v>20210206053</v>
       </c>
       <c r="M206" t="inlineStr">
         <is>
-          <t>22:54</t>
+          <t>22:44</t>
         </is>
       </c>
       <c r="N206" t="inlineStr">
         <is>
-          <t>V13</t>
+          <t>V20</t>
         </is>
       </c>
       <c r="O206" t="inlineStr">
         <is>
-          <t>销-销售2部</t>
+          <t>销-销售6部</t>
         </is>
       </c>
     </row>
@@ -11386,45 +11386,45 @@
       <c r="D207" t="inlineStr"/>
       <c r="E207" t="inlineStr">
         <is>
-          <t>查理十世700单支套餐</t>
+          <t>(叁仟)方块A*22</t>
         </is>
       </c>
       <c r="F207" t="n">
-        <v>780</v>
+        <v>3000</v>
       </c>
       <c r="G207" t="inlineStr"/>
       <c r="H207" t="inlineStr">
         <is>
-          <t>六部许鹏</t>
+          <t>二部徐超</t>
         </is>
       </c>
       <c r="I207" t="inlineStr">
         <is>
-          <t>微信</t>
+          <t>会员本金</t>
         </is>
       </c>
       <c r="J207" t="n">
         <v>1</v>
       </c>
       <c r="K207" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="L207" t="n">
-        <v>20210206059</v>
+        <v>20210206060</v>
       </c>
       <c r="M207" t="inlineStr">
         <is>
-          <t>22:50</t>
+          <t>22:54</t>
         </is>
       </c>
       <c r="N207" t="inlineStr">
         <is>
-          <t>V08</t>
+          <t>V13</t>
         </is>
       </c>
       <c r="O207" t="inlineStr">
         <is>
-          <t>销-销售6部</t>
+          <t>销-销售2部</t>
         </is>
       </c>
     </row>
@@ -11439,11 +11439,11 @@
       <c r="D208" t="inlineStr"/>
       <c r="E208" t="inlineStr">
         <is>
-          <t>墨镜</t>
+          <t>查理十世700单支套餐</t>
         </is>
       </c>
       <c r="F208" t="n">
-        <v>58</v>
+        <v>780</v>
       </c>
       <c r="G208" t="inlineStr"/>
       <c r="H208" t="inlineStr">
@@ -11460,19 +11460,19 @@
         <v>1</v>
       </c>
       <c r="K208" t="n">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="L208" t="n">
-        <v>20210206053</v>
+        <v>20210206059</v>
       </c>
       <c r="M208" t="inlineStr">
         <is>
-          <t>23:50</t>
+          <t>22:50</t>
         </is>
       </c>
       <c r="N208" t="inlineStr">
         <is>
-          <t>V20</t>
+          <t>V08</t>
         </is>
       </c>
       <c r="O208" t="inlineStr">
@@ -11492,45 +11492,45 @@
       <c r="D209" t="inlineStr"/>
       <c r="E209" t="inlineStr">
         <is>
-          <t>(叁仟)方块A*22</t>
+          <t>墨镜</t>
         </is>
       </c>
       <c r="F209" t="n">
-        <v>3000</v>
+        <v>58</v>
       </c>
       <c r="G209" t="inlineStr"/>
       <c r="H209" t="inlineStr">
         <is>
-          <t>二部安祖培</t>
+          <t>六部许鹏</t>
         </is>
       </c>
       <c r="I209" t="inlineStr">
         <is>
-          <t>会员本金</t>
+          <t>微信</t>
         </is>
       </c>
       <c r="J209" t="n">
         <v>1</v>
       </c>
       <c r="K209" t="n">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="L209" t="n">
-        <v>20210206068</v>
+        <v>20210206053</v>
       </c>
       <c r="M209" t="inlineStr">
         <is>
-          <t>23:41</t>
+          <t>23:50</t>
         </is>
       </c>
       <c r="N209" t="inlineStr">
         <is>
-          <t>V18</t>
+          <t>V20</t>
         </is>
       </c>
       <c r="O209" t="inlineStr">
         <is>
-          <t>销-销售2部</t>
+          <t>销-销售6部</t>
         </is>
       </c>
     </row>
@@ -11545,16 +11545,16 @@
       <c r="D210" t="inlineStr"/>
       <c r="E210" t="inlineStr">
         <is>
-          <t>(伍仟)方块A*37</t>
+          <t>(叁仟)方块A*22</t>
         </is>
       </c>
       <c r="F210" t="n">
-        <v>5000</v>
+        <v>3000</v>
       </c>
       <c r="G210" t="inlineStr"/>
       <c r="H210" t="inlineStr">
         <is>
-          <t>八部罗豪</t>
+          <t>二部安祖培</t>
         </is>
       </c>
       <c r="I210" t="inlineStr">
@@ -11566,24 +11566,24 @@
         <v>1</v>
       </c>
       <c r="K210" t="n">
-        <v>200</v>
+        <v>50</v>
       </c>
       <c r="L210" t="n">
-        <v>20210206052</v>
+        <v>20210206068</v>
       </c>
       <c r="M210" t="inlineStr">
         <is>
-          <t>22:28</t>
+          <t>23:41</t>
         </is>
       </c>
       <c r="N210" t="inlineStr">
         <is>
-          <t>V25</t>
+          <t>V18</t>
         </is>
       </c>
       <c r="O210" t="inlineStr">
         <is>
-          <t>销-销售8部</t>
+          <t>销-销售2部</t>
         </is>
       </c>
     </row>
@@ -11598,45 +11598,45 @@
       <c r="D211" t="inlineStr"/>
       <c r="E211" t="inlineStr">
         <is>
-          <t>气氛扇子</t>
+          <t>(伍仟)方块A*37</t>
         </is>
       </c>
       <c r="F211" t="n">
-        <v>68</v>
+        <v>5000</v>
       </c>
       <c r="G211" t="inlineStr"/>
       <c r="H211" t="inlineStr">
         <is>
-          <t>独立刘松</t>
+          <t>八部罗豪</t>
         </is>
       </c>
       <c r="I211" t="inlineStr">
         <is>
-          <t>微信</t>
+          <t>会员本金</t>
         </is>
       </c>
       <c r="J211" t="n">
         <v>1</v>
       </c>
       <c r="K211" t="n">
-        <v>10</v>
+        <v>200</v>
       </c>
       <c r="L211" t="n">
-        <v>20210206003</v>
+        <v>20210206052</v>
       </c>
       <c r="M211" t="inlineStr">
         <is>
-          <t>23:58</t>
+          <t>22:28</t>
         </is>
       </c>
       <c r="N211" t="inlineStr">
         <is>
-          <t>K15</t>
+          <t>V25</t>
         </is>
       </c>
       <c r="O211" t="inlineStr">
         <is>
-          <t>独-1部</t>
+          <t>销-销售8部</t>
         </is>
       </c>
     </row>
@@ -11651,45 +11651,45 @@
       <c r="D212" t="inlineStr"/>
       <c r="E212" t="inlineStr">
         <is>
-          <t>(伍仟)玛琳娜*15</t>
+          <t>气氛扇子</t>
         </is>
       </c>
       <c r="F212" t="n">
-        <v>5000</v>
+        <v>68</v>
       </c>
       <c r="G212" t="inlineStr"/>
       <c r="H212" t="inlineStr">
         <is>
-          <t>六部许鹏</t>
+          <t>独立刘松</t>
         </is>
       </c>
       <c r="I212" t="inlineStr">
         <is>
-          <t>会员本金</t>
+          <t>微信</t>
         </is>
       </c>
       <c r="J212" t="n">
         <v>1</v>
       </c>
       <c r="K212" t="n">
-        <v>200</v>
+        <v>10</v>
       </c>
       <c r="L212" t="n">
-        <v>20210206053</v>
+        <v>20210206003</v>
       </c>
       <c r="M212" t="inlineStr">
         <is>
-          <t>22:44</t>
+          <t>23:58</t>
         </is>
       </c>
       <c r="N212" t="inlineStr">
         <is>
-          <t>V20</t>
+          <t>K15</t>
         </is>
       </c>
       <c r="O212" t="inlineStr">
         <is>
-          <t>销-销售6部</t>
+          <t>独-1部</t>
         </is>
       </c>
     </row>
@@ -11757,16 +11757,16 @@
       <c r="D214" t="inlineStr"/>
       <c r="E214" t="inlineStr">
         <is>
-          <t>气氛扇子</t>
+          <t>慕威单支套</t>
         </is>
       </c>
       <c r="F214" t="n">
-        <v>68</v>
+        <v>880</v>
       </c>
       <c r="G214" t="inlineStr"/>
       <c r="H214" t="inlineStr">
         <is>
-          <t>七部王涛</t>
+          <t>蒋盼盼</t>
         </is>
       </c>
       <c r="I214" t="inlineStr">
@@ -11778,24 +11778,24 @@
         <v>1</v>
       </c>
       <c r="K214" t="n">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="L214" t="n">
-        <v>20210207056</v>
+        <v>20210207058</v>
       </c>
       <c r="M214" t="inlineStr">
         <is>
-          <t>23:58</t>
+          <t>23:30</t>
         </is>
       </c>
       <c r="N214" t="inlineStr">
         <is>
-          <t>666</t>
+          <t>V16+</t>
         </is>
       </c>
       <c r="O214" t="inlineStr">
         <is>
-          <t>销-销售7部</t>
+          <t>会员中心</t>
         </is>
       </c>
     </row>
@@ -11810,45 +11810,45 @@
       <c r="D215" t="inlineStr"/>
       <c r="E215" t="inlineStr">
         <is>
-          <t>查理十世700单支套餐</t>
+          <t>气氛扇子</t>
         </is>
       </c>
       <c r="F215" t="n">
-        <v>780</v>
+        <v>68</v>
       </c>
       <c r="G215" t="inlineStr"/>
       <c r="H215" t="inlineStr">
         <is>
-          <t>丁丹</t>
+          <t>二部安祖培</t>
         </is>
       </c>
       <c r="I215" t="inlineStr">
         <is>
-          <t>会员本金</t>
+          <t>微信</t>
         </is>
       </c>
       <c r="J215" t="n">
         <v>1</v>
       </c>
       <c r="K215" t="n">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="L215" t="n">
-        <v>20210207039</v>
+        <v>20210207006</v>
       </c>
       <c r="M215" t="inlineStr">
         <is>
-          <t>22:26</t>
+          <t>22:43</t>
         </is>
       </c>
       <c r="N215" t="inlineStr">
         <is>
-          <t>V20</t>
+          <t>V08</t>
         </is>
       </c>
       <c r="O215" t="inlineStr">
         <is>
-          <t>出品部</t>
+          <t>销-销售2部</t>
         </is>
       </c>
     </row>
@@ -11863,45 +11863,45 @@
       <c r="D216" t="inlineStr"/>
       <c r="E216" t="inlineStr">
         <is>
-          <t>查理十世700单支套餐</t>
+          <t>气氛扇子</t>
         </is>
       </c>
       <c r="F216" t="n">
-        <v>780</v>
+        <v>68</v>
       </c>
       <c r="G216" t="inlineStr"/>
       <c r="H216" t="inlineStr">
         <is>
-          <t>彭刚</t>
+          <t>一部李龙</t>
         </is>
       </c>
       <c r="I216" t="inlineStr">
         <is>
-          <t>会员本金</t>
+          <t>微信</t>
         </is>
       </c>
       <c r="J216" t="n">
         <v>1</v>
       </c>
       <c r="K216" t="n">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="L216" t="n">
-        <v>20210207054</v>
+        <v>20210207079</v>
       </c>
       <c r="M216" t="inlineStr">
         <is>
-          <t>23:02</t>
+          <t>00:33</t>
         </is>
       </c>
       <c r="N216" t="inlineStr">
         <is>
-          <t>V25</t>
+          <t>空降房1</t>
         </is>
       </c>
       <c r="O216" t="inlineStr">
         <is>
-          <t>出品部</t>
+          <t>销-销售1部</t>
         </is>
       </c>
     </row>
@@ -11916,45 +11916,45 @@
       <c r="D217" t="inlineStr"/>
       <c r="E217" t="inlineStr">
         <is>
-          <t>气氛扇子</t>
+          <t>查理十世700单支套餐</t>
         </is>
       </c>
       <c r="F217" t="n">
-        <v>68</v>
+        <v>780</v>
       </c>
       <c r="G217" t="inlineStr"/>
       <c r="H217" t="inlineStr">
         <is>
-          <t>二部安祖培</t>
+          <t>丁丹</t>
         </is>
       </c>
       <c r="I217" t="inlineStr">
         <is>
-          <t>微信</t>
+          <t>会员本金</t>
         </is>
       </c>
       <c r="J217" t="n">
         <v>1</v>
       </c>
       <c r="K217" t="n">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="L217" t="n">
-        <v>20210207006</v>
+        <v>20210207039</v>
       </c>
       <c r="M217" t="inlineStr">
         <is>
-          <t>22:43</t>
+          <t>22:26</t>
         </is>
       </c>
       <c r="N217" t="inlineStr">
         <is>
-          <t>V08</t>
+          <t>V20</t>
         </is>
       </c>
       <c r="O217" t="inlineStr">
         <is>
-          <t>销-销售2部</t>
+          <t>出品部</t>
         </is>
       </c>
     </row>
@@ -11969,16 +11969,16 @@
       <c r="D218" t="inlineStr"/>
       <c r="E218" t="inlineStr">
         <is>
-          <t>慕威单支套</t>
+          <t>气氛扇子</t>
         </is>
       </c>
       <c r="F218" t="n">
-        <v>880</v>
+        <v>68</v>
       </c>
       <c r="G218" t="inlineStr"/>
       <c r="H218" t="inlineStr">
         <is>
-          <t>蒋盼盼</t>
+          <t>七部王涛</t>
         </is>
       </c>
       <c r="I218" t="inlineStr">
@@ -11990,24 +11990,24 @@
         <v>1</v>
       </c>
       <c r="K218" t="n">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="L218" t="n">
-        <v>20210207058</v>
+        <v>20210207056</v>
       </c>
       <c r="M218" t="inlineStr">
         <is>
-          <t>23:30</t>
+          <t>23:58</t>
         </is>
       </c>
       <c r="N218" t="inlineStr">
         <is>
-          <t>V16+</t>
+          <t>666</t>
         </is>
       </c>
       <c r="O218" t="inlineStr">
         <is>
-          <t>会员中心</t>
+          <t>销-销售7部</t>
         </is>
       </c>
     </row>
@@ -12022,45 +12022,98 @@
       <c r="D219" t="inlineStr"/>
       <c r="E219" t="inlineStr">
         <is>
-          <t>气氛扇子</t>
+          <t>查理十世700单支套餐</t>
         </is>
       </c>
       <c r="F219" t="n">
-        <v>68</v>
+        <v>780</v>
       </c>
       <c r="G219" t="inlineStr"/>
       <c r="H219" t="inlineStr">
         <is>
-          <t>一部李龙</t>
+          <t>彭刚</t>
         </is>
       </c>
       <c r="I219" t="inlineStr">
         <is>
+          <t>会员本金</t>
+        </is>
+      </c>
+      <c r="J219" t="n">
+        <v>1</v>
+      </c>
+      <c r="K219" t="n">
+        <v>30</v>
+      </c>
+      <c r="L219" t="n">
+        <v>20210207054</v>
+      </c>
+      <c r="M219" t="inlineStr">
+        <is>
+          <t>23:02</t>
+        </is>
+      </c>
+      <c r="N219" t="inlineStr">
+        <is>
+          <t>V25</t>
+        </is>
+      </c>
+      <c r="O219" t="inlineStr">
+        <is>
+          <t>出品部</t>
+        </is>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" t="inlineStr"/>
+      <c r="B220" t="inlineStr"/>
+      <c r="C220" t="inlineStr">
+        <is>
+          <t>2021-02-08</t>
+        </is>
+      </c>
+      <c r="D220" t="inlineStr"/>
+      <c r="E220" t="inlineStr">
+        <is>
+          <t>气氛扇子</t>
+        </is>
+      </c>
+      <c r="F220" t="n">
+        <v>68</v>
+      </c>
+      <c r="G220" t="inlineStr"/>
+      <c r="H220" t="inlineStr">
+        <is>
+          <t>五部陈永勇</t>
+        </is>
+      </c>
+      <c r="I220" t="inlineStr">
+        <is>
           <t>微信</t>
         </is>
       </c>
-      <c r="J219" t="n">
-        <v>1</v>
-      </c>
-      <c r="K219" t="n">
+      <c r="J220" t="n">
+        <v>1</v>
+      </c>
+      <c r="K220" t="n">
         <v>10</v>
       </c>
-      <c r="L219" t="n">
-        <v>20210207079</v>
-      </c>
-      <c r="M219" t="inlineStr">
-        <is>
-          <t>00:33</t>
-        </is>
-      </c>
-      <c r="N219" t="inlineStr">
-        <is>
-          <t>空降房1</t>
-        </is>
-      </c>
-      <c r="O219" t="inlineStr">
-        <is>
-          <t>销-销售1部</t>
+      <c r="L220" t="n">
+        <v>20210208016</v>
+      </c>
+      <c r="M220" t="inlineStr">
+        <is>
+          <t>23:36</t>
+        </is>
+      </c>
+      <c r="N220" t="inlineStr">
+        <is>
+          <t>V11</t>
+        </is>
+      </c>
+      <c r="O220" t="inlineStr">
+        <is>
+          <t>销-销售5部</t>
         </is>
       </c>
     </row>
